--- a/cost_calc.xlsx
+++ b/cost_calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smbal\Desktop\battlesim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3B6EAB2-7F6C-45DF-8EF6-F45CC68E2DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640DA1A4-A1A7-4426-9C7A-F1D8A0313C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10296" yWindow="360" windowWidth="12096" windowHeight="9156" xr2:uid="{2EEE56D6-0E95-420F-934A-A6B58480CC19}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>archer</t>
   </si>
@@ -65,7 +65,40 @@
     <t>camel cav</t>
   </si>
   <si>
-    <t>gold</t>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>morale</t>
+  </si>
+  <si>
+    <t>morale/cost</t>
+  </si>
+  <si>
+    <t>army one</t>
+  </si>
+  <si>
+    <t>army two</t>
+  </si>
+  <si>
+    <t>starting gold</t>
+  </si>
+  <si>
+    <t>gold left</t>
+  </si>
+  <si>
+    <t>army one cost</t>
+  </si>
+  <si>
+    <t>army two cost</t>
+  </si>
+  <si>
+    <t>army one morale</t>
+  </si>
+  <si>
+    <t>army two morale</t>
   </si>
 </sst>
 </file>
@@ -101,8 +134,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,166 +451,443 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD06EC62-4485-42AA-A8F0-10796C1996FE}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C1">
-        <v>15</v>
-      </c>
-      <c r="D1">
-        <f>B1*C1</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>$C2*E2</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>E2*$B2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>H2*$C2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>H2*$B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D9" si="0">B2*C2</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D10" si="0">B3/C3</f>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F10" si="1">$C3*E3</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G10" si="2">E3*$B3</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I10" si="3">H3*$C3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J10" si="4">H3*$B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
         <v>2.5</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+        <v>2.4</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
       <c r="B6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
         <v>20</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+        <v>0.75</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="E10">
+        <v>33</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
         <v>100</v>
       </c>
-      <c r="D11">
-        <f>SUM(D1:D9)</f>
+      <c r="F12">
+        <f>SUM(F2:F10)</f>
+        <v>99</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G2:G10)</f>
+        <v>165</v>
+      </c>
+      <c r="I12">
+        <f>SUM(I2:I10)</f>
         <v>100</v>
       </c>
-      <c r="E11">
-        <f>B11-D11</f>
+      <c r="J12">
+        <f>SUM(J2:J10)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <f>G12</f>
+        <v>165</v>
+      </c>
+      <c r="C14">
+        <f>J12</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <f>$B$12-F12</f>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f>$B$12-I12</f>
         <v>0</v>
       </c>
     </row>

--- a/cost_calc.xlsx
+++ b/cost_calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smbal\Desktop\battlesim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640DA1A4-A1A7-4426-9C7A-F1D8A0313C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB242D39-B6D8-4FEE-9349-53E76959F98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10296" yWindow="360" windowWidth="12096" windowHeight="9156" xr2:uid="{2EEE56D6-0E95-420F-934A-A6B58480CC19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2EEE56D6-0E95-420F-934A-A6B58480CC19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>archer</t>
   </si>
@@ -99,13 +99,31 @@
   </si>
   <si>
     <t>army two morale</t>
+  </si>
+  <si>
+    <t>crossbowmen</t>
+  </si>
+  <si>
+    <t>soldiers</t>
+  </si>
+  <si>
+    <t>soldier/cost</t>
+  </si>
+  <si>
+    <t>army one soldiers</t>
+  </si>
+  <si>
+    <t>army two soldiers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,16 +131,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -130,18 +175,238 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -152,6 +417,48 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA7D0C7D-EFB0-4E3F-B911-2E979E76D006}" name="Table1" displayName="Table1" ref="A1:K11" totalsRowShown="0" tableBorderDxfId="7">
+  <autoFilter ref="A1:K11" xr:uid="{EA7D0C7D-EFB0-4E3F-B911-2E979E76D006}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{B80EAA37-6BF8-423C-AC96-A1D25D3A2447}" name="unit"/>
+    <tableColumn id="2" xr3:uid="{86B48AB8-5836-4B88-8A12-A6259E9EF427}" name="soldiers"/>
+    <tableColumn id="3" xr3:uid="{D23119B6-AAD4-4E92-91E7-04470381AC7C}" name="morale"/>
+    <tableColumn id="4" xr3:uid="{A83B89D3-D8F5-465F-8DFF-ADB08C11FA56}" name="cost"/>
+    <tableColumn id="5" xr3:uid="{7AA784E4-71CA-4BD5-81B1-6EF079F4FEB6}" name="soldier/cost" dataDxfId="6">
+      <calculatedColumnFormula>B2/D2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{6DAF91D5-3B79-40A2-8FAA-B52BA56EE634}" name="morale/cost" dataDxfId="5">
+      <calculatedColumnFormula>C2/D2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{8D373615-218B-4AF9-8BDD-106594E415A6}" name="army one" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{DB9CE702-9FB0-4629-A457-C95267D54DF5}" name="army one soldiers" dataDxfId="3">
+      <calculatedColumnFormula>G2*B2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{DFAC2654-41ED-4322-A162-8E9E0B726993}" name="army one cost" dataDxfId="2">
+      <calculatedColumnFormula>$D2*G2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{2BEEE1BE-91AA-4D90-8DB8-FD0B11771B0D}" name="army one morale" dataDxfId="1">
+      <calculatedColumnFormula>G2*$C2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{91EE29C4-83AF-4A1D-81AA-E76A7ABCA2AE}" name="army two" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,447 +758,669 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD06EC62-4485-42AA-A8F0-10796C1996FE}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>100</v>
+      </c>
+      <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
-        <f>B2/C2</f>
+      <c r="E2" s="3">
+        <f>B2/D2</f>
+        <v>10</v>
+      </c>
+      <c r="F2" s="4">
+        <f>C2/D2</f>
         <v>0.5</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>$C2*E2</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f>E2*$B2</f>
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f>H2*$C2</f>
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>H2*$B2</f>
-        <v>0</v>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2">
+        <f>G2*B2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <f>$D2*G2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <f>G2*$C2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>K2*B2</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>K2*$D2</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>K2*$C2</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>0.7</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D10" si="0">B3/C3</f>
-        <v>2.8571428571428572</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F10" si="1">$C3*E3</f>
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G10" si="2">E3*$B3</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I10" si="3">H3*$C3</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J10" si="4">H3*$B3</f>
-        <v>0</v>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E11" si="0">B3/D3</f>
+        <v>10</v>
+      </c>
+      <c r="F3" s="4">
+        <f>C3/D3</f>
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H11" si="1">G3*B3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <f>$D3*G3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <f>G3*$C3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="2">K3*B3</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>K3*$D3</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>K3*$C3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="9">
+        <f>H13</f>
+        <v>375</v>
+      </c>
+      <c r="R3" s="10">
+        <f>L13</f>
+        <v>750</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F11" si="3">C4/D4</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I11" si="4">$D4*G4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J11" si="5">G4*$C4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M11" si="6">K4*$D4</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N11" si="7">K4*$C4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="9">
+        <f>J13</f>
+        <v>100</v>
+      </c>
+      <c r="R4" s="10">
+        <f>N13</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>2.5</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>2.4</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+        <v>7.5</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="I5" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>50</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>40</v>
-      </c>
-      <c r="I4">
+        <v>750</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="12">
+        <f>$Q$1-I13</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="13">
+        <f>$Q$1-M13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="F6" s="4">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J4">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
         <f t="shared" si="4"/>
-        <v>240</v>
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="3"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="I7" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="4"/>
+      <c r="M7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="1">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
         <v>6</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="F8" s="4">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="I8" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="F9" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>25</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+      <c r="I9" s="2">
         <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+        <v>0.05</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="I10" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="M10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F11" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J8">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="J11" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="E10">
-        <v>33</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>165</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f>SUM(H2:H11)</f>
+        <v>375</v>
+      </c>
+      <c r="I13">
+        <f>SUM(I2:I11)</f>
         <v>100</v>
       </c>
-      <c r="F12">
-        <f>SUM(F2:F10)</f>
-        <v>99</v>
-      </c>
-      <c r="G12">
-        <f>SUM(G2:G10)</f>
-        <v>165</v>
-      </c>
-      <c r="I12">
-        <f>SUM(I2:I10)</f>
+      <c r="J13">
+        <f>SUM(J2:J11)</f>
         <v>100</v>
       </c>
-      <c r="J12">
-        <f>SUM(J2:J10)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <f>G12</f>
-        <v>165</v>
-      </c>
-      <c r="C14">
-        <f>J12</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <f>$B$12-F12</f>
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <f>$B$12-I12</f>
-        <v>0</v>
+      <c r="L13">
+        <f>SUM(L2:L11)</f>
+        <v>750</v>
+      </c>
+      <c r="M13">
+        <f>SUM(M2:M11)</f>
+        <v>100</v>
+      </c>
+      <c r="N13">
+        <f>SUM(N2:N11)</f>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/cost_calc.xlsx
+++ b/cost_calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smbal\Desktop\battlesim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB242D39-B6D8-4FEE-9349-53E76959F98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A91166-FFC7-4B4D-8C2C-C89DC33FACD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2EEE56D6-0E95-420F-934A-A6B58480CC19}"/>
   </bookViews>
@@ -36,35 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
-  <si>
-    <t>archer</t>
-  </si>
-  <si>
-    <t>light inf</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
   <si>
     <t>pikemen</t>
   </si>
   <si>
-    <t>heavy inf</t>
-  </si>
-  <si>
-    <t>light cav</t>
-  </si>
-  <si>
-    <t>heavy cav</t>
-  </si>
-  <si>
     <t>horse archers</t>
   </si>
   <si>
-    <t>war ele</t>
-  </si>
-  <si>
-    <t>camel cav</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
@@ -83,12 +62,6 @@
     <t>army two</t>
   </si>
   <si>
-    <t>starting gold</t>
-  </si>
-  <si>
-    <t>gold left</t>
-  </si>
-  <si>
     <t>army one cost</t>
   </si>
   <si>
@@ -114,6 +87,174 @@
   </si>
   <si>
     <t>army two soldiers</t>
+  </si>
+  <si>
+    <t>archers</t>
+  </si>
+  <si>
+    <t>light infantry</t>
+  </si>
+  <si>
+    <t>heavy infantry</t>
+  </si>
+  <si>
+    <t>light cavalry</t>
+  </si>
+  <si>
+    <t>heavy cavalry</t>
+  </si>
+  <si>
+    <t>camel cavalry</t>
+  </si>
+  <si>
+    <t>war elephants</t>
+  </si>
+  <si>
+    <t>att_skirm</t>
+  </si>
+  <si>
+    <t>att_mel</t>
+  </si>
+  <si>
+    <t>att_pur</t>
+  </si>
+  <si>
+    <t>def_skirm</t>
+  </si>
+  <si>
+    <t>def_mel</t>
+  </si>
+  <si>
+    <t>def_pur</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Defence</t>
+  </si>
+  <si>
+    <t>SKIRMISH</t>
+  </si>
+  <si>
+    <t>MELEE</t>
+  </si>
+  <si>
+    <t>PURSUE</t>
+  </si>
+  <si>
+    <t>(set ---&gt;)</t>
+  </si>
+  <si>
+    <t>Soldiers</t>
+  </si>
+  <si>
+    <t>Morale</t>
+  </si>
+  <si>
+    <t>Gold left</t>
+  </si>
+  <si>
+    <t>Army One</t>
+  </si>
+  <si>
+    <t>Army Two</t>
+  </si>
+  <si>
+    <t>WE ARE IGNORING TERRAIN MODIFIERS</t>
+  </si>
+  <si>
+    <t>Starting Gold</t>
+  </si>
+  <si>
+    <t>a1as</t>
+  </si>
+  <si>
+    <t>a2as</t>
+  </si>
+  <si>
+    <t>a1ds</t>
+  </si>
+  <si>
+    <t>a2ds</t>
+  </si>
+  <si>
+    <t>a1am</t>
+  </si>
+  <si>
+    <t>a2am</t>
+  </si>
+  <si>
+    <t>a1dm</t>
+  </si>
+  <si>
+    <t>a2dm</t>
+  </si>
+  <si>
+    <t>a1ap</t>
+  </si>
+  <si>
+    <t>a2ap</t>
+  </si>
+  <si>
+    <t>a1dp</t>
+  </si>
+  <si>
+    <t>a2dp</t>
+  </si>
+  <si>
+    <t>D Dealt</t>
+  </si>
+  <si>
+    <t>D Taken</t>
+  </si>
+  <si>
+    <t>M Dealt</t>
+  </si>
+  <si>
+    <t>M Taken</t>
+  </si>
+  <si>
+    <t>SKIRM D DEALT</t>
+  </si>
+  <si>
+    <t>SKIRM D TAKEN</t>
+  </si>
+  <si>
+    <t>MELEE D DEALT</t>
+  </si>
+  <si>
+    <t>MELEE D TAKEN</t>
+  </si>
+  <si>
+    <t>PURSUE D DEALT</t>
+  </si>
+  <si>
+    <t>PURSUE D TAKEN</t>
+  </si>
+  <si>
+    <t>Morale/Soldiers</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>att_melee</t>
+  </si>
+  <si>
+    <t>def_melee</t>
+  </si>
+  <si>
+    <t>att_pursue</t>
+  </si>
+  <si>
+    <t>def_pursue</t>
+  </si>
+  <si>
+    <t>TOTAL DEALT</t>
+  </si>
+  <si>
+    <t>TOTAL TAKEN</t>
   </si>
 </sst>
 </file>
@@ -123,7 +264,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +287,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,8 +345,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor theme="0" tint="-0.34998626667073579"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -212,24 +451,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -255,25 +476,624 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="double">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="mediumDashDot">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="mediumDashDot">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,16 +1213,16 @@
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
-          <color indexed="64"/>
+          <color theme="0" tint="-0.249977111117893"/>
         </left>
         <right style="medium">
-          <color indexed="64"/>
+          <color theme="0" tint="-0.249977111117893"/>
         </right>
         <top style="medium">
-          <color indexed="64"/>
+          <color theme="0" tint="-0.249977111117893"/>
         </top>
         <bottom style="medium">
-          <color indexed="64"/>
+          <color theme="0" tint="-0.249977111117893"/>
         </bottom>
       </border>
     </dxf>
@@ -758,116 +1578,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD06EC62-4485-42AA-A8F0-10796C1996FE}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" hidden="1" customWidth="1"/>
     <col min="13" max="14" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="19" max="19" width="1.109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.44140625" customWidth="1"/>
+    <col min="28" max="29" width="4.5546875" style="85" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="22">
+        <v>100</v>
+      </c>
+      <c r="T1" s="57"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL1" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM1" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN1" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="10">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="6">
-        <v>100</v>
-      </c>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="C2" s="10">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="10">
         <v>2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="52">
         <f>B2/D2</f>
-        <v>10</v>
-      </c>
-      <c r="F2" s="4">
+        <v>6</v>
+      </c>
+      <c r="F2" s="53">
         <f>C2/D2</f>
         <v>0.5</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2">
+      <c r="G2" s="51">
+        <v>50</v>
+      </c>
+      <c r="H2" s="51">
         <f>G2*B2</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
+        <v>600</v>
+      </c>
+      <c r="I2" s="51">
         <f>$D2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
+        <v>100</v>
+      </c>
+      <c r="J2" s="51">
         <f>G2*$C2</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
+        <v>50</v>
+      </c>
+      <c r="K2" s="51">
         <v>0</v>
       </c>
       <c r="L2">
@@ -882,114 +1743,204 @@
         <f>K2*$C2</f>
         <v>0</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>14</v>
+      <c r="O2" s="18"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="62">
+        <f>Z11</f>
+        <v>120</v>
+      </c>
+      <c r="W2" s="63">
+        <f>AA11</f>
+        <v>125</v>
+      </c>
+      <c r="Y2" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="78">
+        <f>Q5</f>
+        <v>50</v>
+      </c>
+      <c r="AA2" s="78">
+        <f>R5</f>
+        <v>62.5</v>
+      </c>
+      <c r="AB2" s="92">
+        <f>Z2/AA2</f>
+        <v>0.8</v>
+      </c>
+      <c r="AC2" s="92">
+        <f>AA2/Z2</f>
+        <v>1.25</v>
+      </c>
+      <c r="AL2">
+        <f>G2*B13</f>
+        <v>150</v>
+      </c>
+      <c r="AM2">
+        <f>K2*B13</f>
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <f>G2*E13</f>
+        <v>50</v>
+      </c>
+      <c r="AO2">
+        <f>K2*E13</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
+    <row r="3" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="10">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="D3" s="10">
         <v>2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="52">
         <f t="shared" ref="E3:E11" si="0">B3/D3</f>
-        <v>10</v>
-      </c>
-      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="F3" s="53">
         <f>C3/D3</f>
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="G3" s="51">
+        <v>0</v>
+      </c>
+      <c r="H3" s="51">
         <f t="shared" ref="H3:H11" si="1">G3*B3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="51">
         <f>$D3*G3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="51">
         <f>G3*$C3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="2">
-        <v>0</v>
+      <c r="K3" s="51">
+        <v>50</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L11" si="2">K3*B3</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M3">
         <f>K3*$D3</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N3">
         <f>K3*$C3</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="9">
-        <f>H13</f>
-        <v>375</v>
-      </c>
-      <c r="R3" s="10">
-        <f>L13</f>
-        <v>750</v>
+        <v>62.5</v>
+      </c>
+      <c r="O3" s="18"/>
+      <c r="P3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="25">
+        <f>$R$1-I13</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="36">
+        <f>$R$1-M13</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="54"/>
+      <c r="U3" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3" s="64">
+        <f>Z12</f>
+        <v>62.5</v>
+      </c>
+      <c r="W3" s="65">
+        <f>AA12</f>
+        <v>120</v>
+      </c>
+      <c r="Y3" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" s="80">
+        <f>Q4</f>
+        <v>600</v>
+      </c>
+      <c r="AA3" s="80">
+        <f>R4</f>
+        <v>400</v>
+      </c>
+      <c r="AL3">
+        <f>G3*B14</f>
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <f>K3*B14</f>
+        <v>100</v>
+      </c>
+      <c r="AN3">
+        <f>G3*E14</f>
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <f>K3*E14</f>
+        <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1">
+    <row r="4" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10">
+        <v>20</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="10">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="E4" s="52">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="53">
         <f t="shared" ref="F4:F11" si="3">C4/D4</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="51">
+        <v>0</v>
+      </c>
+      <c r="H4" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="51">
         <f t="shared" ref="I4:I11" si="4">$D4*G4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="51">
         <f t="shared" ref="J4:J11" si="5">G4*$C4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="51">
         <v>0</v>
       </c>
       <c r="L4">
@@ -1004,326 +1955,628 @@
         <f t="shared" ref="N4:N11" si="7">K4*$C4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="9">
+      <c r="O4" s="18"/>
+      <c r="P4" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="23">
+        <f>H13</f>
+        <v>600</v>
+      </c>
+      <c r="R4" s="35">
+        <f>L13</f>
+        <v>400</v>
+      </c>
+      <c r="T4" s="54"/>
+      <c r="U4" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="V4" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y4" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" s="82">
+        <f>Z2/Z3</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AA4" s="71">
+        <f>AA2/AA3</f>
+        <v>0.15625</v>
+      </c>
+      <c r="AL4">
+        <f>G4*B15</f>
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <f>K4*B15</f>
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <f>G4*E15</f>
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <f>K4*E15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="10">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10">
+        <v>3</v>
+      </c>
+      <c r="E5" s="52">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="F5" s="53">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G5" s="51">
+        <v>0</v>
+      </c>
+      <c r="H5" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="51">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="23">
         <f>J13</f>
+        <v>50</v>
+      </c>
+      <c r="R5" s="35">
+        <f>N13</f>
+        <v>62.5</v>
+      </c>
+      <c r="T5" s="54"/>
+      <c r="U5" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="W5" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y5" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z5" s="83">
+        <f>Q6</f>
+        <v>150</v>
+      </c>
+      <c r="AA5" s="84">
+        <f>R6</f>
         <v>100</v>
       </c>
-      <c r="R4" s="10">
-        <f>N13</f>
-        <v>300</v>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AL5">
+        <f>G5*B16</f>
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <f>K5*B16</f>
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <f>G5*E16</f>
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <f>K5*E16</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="E6" s="52">
         <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="F5" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F6" s="53">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G6" s="51">
+        <v>0</v>
+      </c>
+      <c r="H6" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I6" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J6" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K6" s="51">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="29">
+        <f>AL12</f>
+        <v>150</v>
+      </c>
+      <c r="R6" s="30">
+        <f>AM12</f>
+        <v>100</v>
+      </c>
+      <c r="T6" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="V6" s="62">
+        <f>Z13</f>
+        <v>62.5</v>
+      </c>
+      <c r="W6" s="63">
+        <f>AA13</f>
+        <v>60</v>
+      </c>
+      <c r="Y6" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="84">
+        <f t="shared" ref="Z6:Z10" si="8">Q7</f>
         <v>50</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="2"/>
-        <v>750</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="7"/>
-        <v>300</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="12">
-        <f>$Q$1-I13</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="13">
-        <f>$Q$1-M13</f>
+      <c r="AA6" s="84">
+        <f t="shared" ref="AA6:AA10" si="9">R7</f>
+        <v>150</v>
+      </c>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AL6">
+        <f>G6*B17</f>
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <f>K6*B17</f>
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <f>G6*E17</f>
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <f>K6*E17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="10">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="E7" s="52">
         <f t="shared" si="0"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F7" s="53">
         <f t="shared" si="3"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G7" s="51">
+        <v>0</v>
+      </c>
+      <c r="H7" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I7" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J7" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6">
+      <c r="K7" s="51">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="O7" s="31"/>
+      <c r="P7" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="32">
+        <f>AN12</f>
+        <v>50</v>
+      </c>
+      <c r="R7" s="33">
+        <f>AO12</f>
+        <v>150</v>
+      </c>
+      <c r="T7" s="54"/>
+      <c r="U7" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="V7" s="64">
+        <f>Z14</f>
+        <v>62.5</v>
+      </c>
+      <c r="W7" s="65">
+        <f>AA14</f>
+        <v>80</v>
+      </c>
+      <c r="Y7" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z7" s="84">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="AA7" s="84">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="AC7" s="87"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AL7">
+        <f>G7*B18</f>
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <f>K7*B18</f>
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <f>G7*E18</f>
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <f>K7*E18</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="10">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10">
+        <v>6</v>
+      </c>
+      <c r="E8" s="52">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="F8" s="53">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G8" s="51">
+        <v>0</v>
+      </c>
+      <c r="H8" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="51">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="27">
+        <f>AL24</f>
+        <v>50</v>
+      </c>
+      <c r="R8" s="37">
+        <f>AM24</f>
+        <v>75</v>
+      </c>
+      <c r="T8" s="54"/>
+      <c r="U8" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="V8" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="W8" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y8" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z8" s="84">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="AA8" s="84">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="AC8" s="87"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AL8">
+        <f>G8*B19</f>
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <f>K8*B19</f>
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <f>G8*E19</f>
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <f>K8*E19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10">
         <v>15</v>
       </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C9" s="10">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10">
         <v>3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E9" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F7" s="4">
-        <f t="shared" si="3"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="F9" s="53">
         <f t="shared" si="3"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G9" s="51">
+        <v>0</v>
+      </c>
+      <c r="H9" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I9" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J9" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8">
+      <c r="K9" s="51">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="O9" s="26"/>
+      <c r="P9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="25">
+        <f>AN24</f>
+        <v>50</v>
+      </c>
+      <c r="R9" s="36">
+        <f>AO24</f>
+        <v>100</v>
+      </c>
+      <c r="T9" s="55"/>
+      <c r="U9" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="V9" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="W9" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y9" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z9" s="84">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AA9" s="84">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AL9">
+        <f>G9*B20</f>
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <f>K9*B20</f>
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <f>G9*E20</f>
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <f>K9*E20</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10">
         <v>4</v>
       </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="E10" s="52">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="F9" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>25</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="1"/>
-        <v>375</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="F10" s="53">
         <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G10" s="51">
+        <v>0</v>
+      </c>
+      <c r="H10" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="51">
         <v>0</v>
       </c>
       <c r="L10">
@@ -1338,44 +2591,103 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="O10" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="29">
+        <f>AL36</f>
+        <v>100</v>
+      </c>
+      <c r="R10" s="30">
+        <f>AM36</f>
+        <v>75</v>
+      </c>
+      <c r="T10" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="V10" s="62">
+        <f>Z15</f>
+        <v>125</v>
+      </c>
+      <c r="W10" s="63">
+        <f>AA15</f>
+        <v>60</v>
+      </c>
+      <c r="Y10" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z10" s="84">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="AA10" s="84">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AL10">
+        <f>G10*B21</f>
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <f>K10*B21</f>
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <f>G10*E21</f>
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <f>K10*E21</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="E11" s="3">
+    <row r="11" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>20</v>
+      </c>
+      <c r="D11" s="10">
+        <v>25</v>
+      </c>
+      <c r="E11" s="52">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F11" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="F11" s="53">
         <f t="shared" si="3"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G11" s="51">
+        <v>0</v>
+      </c>
+      <c r="H11" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="51">
         <v>0</v>
       </c>
       <c r="L11">
@@ -1390,11 +2702,155 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="O11" s="31"/>
+      <c r="P11" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="32">
+        <f>AN36</f>
+        <v>50</v>
+      </c>
+      <c r="R11" s="33">
+        <f>AO36</f>
+        <v>100</v>
+      </c>
+      <c r="T11" s="54"/>
+      <c r="U11" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="V11" s="64">
+        <f>Z16</f>
+        <v>62.5</v>
+      </c>
+      <c r="W11" s="65">
+        <f>AA16</f>
+        <v>80</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z11" s="72">
+        <f>$AB$2*Z5</f>
+        <v>120</v>
+      </c>
+      <c r="AA11" s="72">
+        <f>$AC$2*AA5</f>
+        <v>125</v>
+      </c>
+      <c r="AC11" s="88"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="1"/>
+      <c r="AL11">
+        <f>G11*B22</f>
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <f>K11*B22</f>
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <f>G11*E22</f>
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <f>K11*E22</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="85"/>
+      <c r="O12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="13"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="V12" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="W12" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z12" s="72">
+        <f>$AC$2*Z6</f>
+        <v>62.5</v>
+      </c>
+      <c r="AA12" s="72">
+        <f>$AB$2*AA6</f>
+        <v>120</v>
+      </c>
+      <c r="AC12" s="88"/>
+      <c r="AD12" s="61"/>
+      <c r="AL12" s="39">
+        <f>SUM(AL2:AL11)</f>
+        <v>150</v>
+      </c>
+      <c r="AM12" s="39">
+        <f>SUM(AM2:AM11)</f>
+        <v>100</v>
+      </c>
+      <c r="AN12" s="39">
+        <f>SUM(AN2:AN11)</f>
+        <v>50</v>
+      </c>
+      <c r="AO12" s="39">
+        <f>SUM(AO2:AO11)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="41">
+        <v>1</v>
+      </c>
       <c r="H13">
         <f>SUM(H2:H11)</f>
-        <v>375</v>
+        <v>600</v>
       </c>
       <c r="I13">
         <f>SUM(I2:I11)</f>
@@ -1402,11 +2858,12 @@
       </c>
       <c r="J13">
         <f>SUM(J2:J11)</f>
-        <v>100</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="K13" s="85"/>
       <c r="L13">
         <f>SUM(L2:L11)</f>
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="M13">
         <f>SUM(M2:M11)</f>
@@ -1414,13 +2871,1099 @@
       </c>
       <c r="N13">
         <f>SUM(N2:N11)</f>
-        <v>300</v>
+        <v>62.5</v>
+      </c>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="16"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="V13" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="W13" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y13" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z13" s="73">
+        <f>$AC$2*Z7</f>
+        <v>62.5</v>
+      </c>
+      <c r="AA13" s="73">
+        <f>$AB$2*AA7</f>
+        <v>60</v>
+      </c>
+      <c r="AC13" s="88"/>
+      <c r="AD13" s="61"/>
+      <c r="AL13" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM13" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN13" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO13" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
+    <row r="14" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="8">
+        <v>3</v>
+      </c>
+      <c r="F14" s="9">
+        <v>2</v>
+      </c>
+      <c r="G14" s="43">
+        <v>2</v>
+      </c>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="Y14" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z14" s="74">
+        <f t="shared" ref="Z14:Z16" si="10">$AC$2*Z8</f>
+        <v>62.5</v>
+      </c>
+      <c r="AA14" s="74">
+        <f>$AB$2*AA8</f>
+        <v>80</v>
+      </c>
+      <c r="AC14" s="88"/>
+      <c r="AD14" s="61"/>
+      <c r="AL14">
+        <f>G2*$C13</f>
+        <v>50</v>
+      </c>
+      <c r="AM14">
+        <f>K2*$C13</f>
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <f>G2*$F13</f>
+        <v>50</v>
+      </c>
+      <c r="AO14">
+        <f>K2*$F13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A15" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="41">
+        <v>2</v>
+      </c>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="Y15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z15" s="72">
+        <f t="shared" si="10"/>
+        <v>125</v>
+      </c>
+      <c r="AA15" s="72">
+        <f>$AB$2*AA9</f>
+        <v>60</v>
+      </c>
+      <c r="AC15" s="88"/>
+      <c r="AD15" s="61"/>
+      <c r="AL15">
+        <f>G3*C14</f>
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <f>K3*$C14</f>
+        <v>75</v>
+      </c>
+      <c r="AN15">
+        <f>G3*$F14</f>
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <f>K3*$F14</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C16" s="5">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>3</v>
+      </c>
+      <c r="F16" s="9">
+        <v>4</v>
+      </c>
+      <c r="G16" s="43">
+        <v>4</v>
+      </c>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="85"/>
+      <c r="W16" s="85"/>
+      <c r="Y16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z16" s="72">
+        <f t="shared" si="10"/>
+        <v>62.5</v>
+      </c>
+      <c r="AA16" s="72">
+        <f>$AB$2*AA10</f>
+        <v>80</v>
+      </c>
+      <c r="AC16" s="88"/>
+      <c r="AD16" s="61"/>
+      <c r="AL16">
+        <f>G4*C15</f>
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <f>K4*$C15</f>
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <f>G4*$F15</f>
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <f>K4*$F15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4</v>
+      </c>
+      <c r="F17" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="G17" s="41">
+        <v>2</v>
+      </c>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="85"/>
+      <c r="Y17" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z17" s="75">
+        <f>SUM(Z11,Z13,Z15)</f>
+        <v>307.5</v>
+      </c>
+      <c r="AA17" s="75">
+        <f>SUM(AA11,AA13,AA15)</f>
+        <v>245</v>
+      </c>
+      <c r="AL17">
+        <f>G5*C16</f>
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <f>K5*$C16</f>
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <f>G5*$F16</f>
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <f>K5*$F16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5">
+        <v>6</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="F18" s="9">
+        <v>3</v>
+      </c>
+      <c r="G18" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="85"/>
+      <c r="W18" s="85"/>
+      <c r="Y18" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z18" s="76">
+        <f>SUM(Z12,Z14,Z16)</f>
+        <v>187.5</v>
+      </c>
+      <c r="AA18" s="76">
+        <f>SUM(AA12,AA14,AA16)</f>
+        <v>280</v>
+      </c>
+      <c r="AL18">
+        <f>G6*C17</f>
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <f>K6*$C17</f>
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <f>G6*$F17</f>
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <f>K6*$F17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A19" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="4">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6">
+        <v>6</v>
+      </c>
+      <c r="F19" s="7">
+        <v>6</v>
+      </c>
+      <c r="G19" s="41">
+        <v>5</v>
+      </c>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="85"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="85"/>
+      <c r="AL19">
+        <f>G7*C18</f>
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <f>K7*$C18</f>
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <f>G7*$F18</f>
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <f>K7*$F18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="5">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5">
+        <v>6</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="F20" s="9">
+        <v>3</v>
+      </c>
+      <c r="G20" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="85"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="85"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="85"/>
+      <c r="Y20" s="85"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="85"/>
+      <c r="AL20">
+        <f>G8*C19</f>
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <f>K8*$C19</f>
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <f>G8*$F19</f>
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <f>K8*$F19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A21" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4">
+        <v>7</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4</v>
+      </c>
+      <c r="F21" s="7">
+        <v>4</v>
+      </c>
+      <c r="G21" s="41">
+        <v>5</v>
+      </c>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="85"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="85"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="85"/>
+      <c r="AL21">
+        <f>G9*C20</f>
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <f>K9*$C20</f>
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <f>G9*$F20</f>
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <f>K9*$F20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="45">
+        <v>10</v>
+      </c>
+      <c r="C22" s="45">
+        <v>20</v>
+      </c>
+      <c r="D22" s="45">
+        <v>2</v>
+      </c>
+      <c r="E22" s="46">
+        <v>4</v>
+      </c>
+      <c r="F22" s="47">
+        <v>10</v>
+      </c>
+      <c r="G22" s="48">
+        <v>1</v>
+      </c>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="85"/>
+      <c r="U22" s="85"/>
+      <c r="V22" s="85"/>
+      <c r="W22" s="85"/>
+      <c r="X22" s="85"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="85"/>
+      <c r="AL22">
+        <f>G10*C21</f>
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <f>K10*$C21</f>
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <f>G10*$F21</f>
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <f>K10*$F21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AL23" s="85">
+        <f>G11*C22</f>
+        <v>0</v>
+      </c>
+      <c r="AM23" s="85">
+        <f>K11*$C22</f>
+        <v>0</v>
+      </c>
+      <c r="AN23" s="85">
+        <f>G11*$F22</f>
+        <v>0</v>
+      </c>
+      <c r="AO23" s="85">
+        <f>K11*$F22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" s="85" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AL24" s="89">
+        <f>SUM(AL14:AL23)</f>
+        <v>50</v>
+      </c>
+      <c r="AM24" s="89">
+        <f>SUM(AM14:AM23)</f>
+        <v>75</v>
+      </c>
+      <c r="AN24" s="89">
+        <f>SUM(AN14:AN23)</f>
+        <v>50</v>
+      </c>
+      <c r="AO24" s="89">
+        <f>SUM(AO14:AO23)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" s="85" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AL25" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM25" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN25" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO25" s="90" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AL26" s="85">
+        <f>G2*$D13</f>
+        <v>100</v>
+      </c>
+      <c r="AM26" s="85">
+        <f>K2*$D13</f>
+        <v>0</v>
+      </c>
+      <c r="AN26" s="85">
+        <f>G2*$G13</f>
+        <v>50</v>
+      </c>
+      <c r="AO26" s="85">
+        <f>K2*$G13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AL27" s="85">
+        <f>G3*$D14</f>
+        <v>0</v>
+      </c>
+      <c r="AM27" s="85">
+        <f>K3*$D14</f>
+        <v>75</v>
+      </c>
+      <c r="AN27" s="85">
+        <f>G3*$G14</f>
+        <v>0</v>
+      </c>
+      <c r="AO27" s="85">
+        <f>K3*$G14</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T28" s="91"/>
+      <c r="AL28" s="85">
+        <f>G4*$D15</f>
+        <v>0</v>
+      </c>
+      <c r="AM28" s="85">
+        <f>K4*$D15</f>
+        <v>0</v>
+      </c>
+      <c r="AN28" s="85">
+        <f>G4*$G15</f>
+        <v>0</v>
+      </c>
+      <c r="AO28" s="85">
+        <f>K4*$G15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AL29" s="85">
+        <f>G5*$D16</f>
+        <v>0</v>
+      </c>
+      <c r="AM29" s="85">
+        <f>K5*$D16</f>
+        <v>0</v>
+      </c>
+      <c r="AN29" s="85">
+        <f>G5*$G16</f>
+        <v>0</v>
+      </c>
+      <c r="AO29" s="85">
+        <f>K5*$G16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AL30" s="85">
+        <f>G6*$D17</f>
+        <v>0</v>
+      </c>
+      <c r="AM30" s="85">
+        <f>K6*$D17</f>
+        <v>0</v>
+      </c>
+      <c r="AN30" s="85">
+        <f>G6*$G17</f>
+        <v>0</v>
+      </c>
+      <c r="AO30" s="85">
+        <f>K6*$G17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AL31">
+        <f>G7*$D18</f>
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <f>K7*$D18</f>
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <f>G7*$G18</f>
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <f>K7*$G18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AL32">
+        <f>G8*$D19</f>
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <f>K8*$D19</f>
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <f>G8*$G19</f>
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <f>K8*$G19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="38:41" x14ac:dyDescent="0.3">
+      <c r="AL33">
+        <f>G9*$D20</f>
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <f>K9*$D20</f>
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <f>G9*$G20</f>
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <f>K9*$G20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="38:41" x14ac:dyDescent="0.3">
+      <c r="AL34">
+        <f>G10*$D21</f>
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <f>K10*$D21</f>
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <f>G10*$G21</f>
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <f>K10*$G21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="38:41" x14ac:dyDescent="0.3">
+      <c r="AL35">
+        <f>G11*$D22</f>
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <f>K11*$D22</f>
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <f>G11*$G22</f>
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <f>K11*$G22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="38:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AL36" s="39">
+        <f>SUM(AL26:AL35)</f>
+        <v>100</v>
+      </c>
+      <c r="AM36" s="39">
+        <f>SUM(AM26:AM35)</f>
+        <v>75</v>
+      </c>
+      <c r="AN36" s="39">
+        <f>SUM(AN26:AN35)</f>
+        <v>50</v>
+      </c>
+      <c r="AO36" s="39">
+        <f>SUM(AO26:AO35)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="38:41" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="O12:R13"/>
+    <mergeCell ref="T6:T9"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="Q6:R6">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7:R7">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8:R8">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9:R9">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10:R10">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q11:R11">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V6:W6">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V7:W7">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V8:W8">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V9:W9">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:W2">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3:W3">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V4:W4">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5:W5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V10:W10">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V11:W11">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V12:W12">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V13:W13">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z18:AA18">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z17:AA17">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/cost_calc.xlsx
+++ b/cost_calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smbal\Desktop\battlesim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6657C1-1EF6-4614-9B8C-1EE69883585D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B80331B-3DEF-44B6-83CC-21A1B4F9173D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2EEE56D6-0E95-420F-934A-A6B58480CC19}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="74">
   <si>
     <t>pikemen</t>
   </si>
@@ -245,12 +245,6 @@
     <t>SUM</t>
   </si>
   <si>
-    <t>D DEALT = att_morale * att_phase</t>
-  </si>
-  <si>
-    <t>D TAKEN = def_morale * def_phase</t>
-  </si>
-  <si>
     <t>soldier tier</t>
   </si>
   <si>
@@ -261,6 +255,9 @@
   </si>
   <si>
     <t>Quality</t>
+  </si>
+  <si>
+    <t>Phase damage dealt calculated by:             army_one att_phase / army_two def_phase</t>
   </si>
 </sst>
 </file>
@@ -420,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="77">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -750,19 +747,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </left>
@@ -1222,32 +1206,6 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right style="medium">
@@ -1285,33 +1243,7 @@
       <left style="medium">
         <color theme="0"/>
       </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color theme="0"/>
@@ -1400,7 +1332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1419,15 +1351,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1437,44 +1362,82 @@
     <xf numFmtId="2" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="71" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1486,114 +1449,53 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="71" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="76" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1650,6 +1552,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1764,19 +1691,19 @@
       <calculatedColumnFormula>D2/E2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{8D373615-218B-4AF9-8BDD-106594E415A6}" name="Army One" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{DB9CE702-9FB0-4629-A457-C95267D54DF5}" name="army one soldiers" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{DB9CE702-9FB0-4629-A457-C95267D54DF5}" name="army one soldiers" dataDxfId="4">
       <calculatedColumnFormula>H2*B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{88A09C10-8045-4B45-9EA5-67E6FC8BF25C}" name="army quality" dataDxfId="0">
+    <tableColumn id="13" xr3:uid="{88A09C10-8045-4B45-9EA5-67E6FC8BF25C}" name="army quality" dataDxfId="3">
       <calculatedColumnFormula>(H2*B2)/C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{DFAC2654-41ED-4322-A162-8E9E0B726993}" name="army one cost" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{DFAC2654-41ED-4322-A162-8E9E0B726993}" name="army one cost" dataDxfId="2">
       <calculatedColumnFormula>$E2*H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2BEEE1BE-91AA-4D90-8DB8-FD0B11771B0D}" name="army one morale" dataDxfId="3">
+    <tableColumn id="10" xr3:uid="{2BEEE1BE-91AA-4D90-8DB8-FD0B11771B0D}" name="army one morale" dataDxfId="1">
       <calculatedColumnFormula>H2*$D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{91EE29C4-83AF-4A1D-81AA-E76A7ABCA2AE}" name="Army Two" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{91EE29C4-83AF-4A1D-81AA-E76A7ABCA2AE}" name="Army Two" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2082,7 +2009,7 @@
   <dimension ref="A1:BL170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2111,423 +2038,421 @@
     <col min="28" max="28" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.44140625" customWidth="1"/>
-    <col min="31" max="31" width="5.77734375" style="25" customWidth="1"/>
-    <col min="32" max="32" width="5" style="25" customWidth="1"/>
-    <col min="38" max="41" width="8.88671875" style="25"/>
-    <col min="42" max="42" width="8.88671875" style="20"/>
+    <col min="31" max="31" width="5.77734375" style="22" customWidth="1"/>
+    <col min="32" max="32" width="5" style="22" customWidth="1"/>
+    <col min="38" max="41" width="8.88671875" style="22"/>
+    <col min="42" max="42" width="8.88671875" style="18"/>
     <col min="43" max="64" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="76" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="113" t="s">
-        <v>73</v>
-      </c>
-      <c r="P1" s="113" t="s">
+      <c r="P1" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="113" t="s">
+      <c r="Q1" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="110" t="s">
+      <c r="R1" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="19"/>
+      <c r="T1" s="99"/>
       <c r="U1" s="8">
         <v>100</v>
       </c>
-      <c r="W1" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="50"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="95" t="s">
+      <c r="W1" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="96" t="s">
+      <c r="AD1" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
       <c r="AG1" s="16"/>
       <c r="AH1" s="16"/>
       <c r="AI1" s="16"/>
       <c r="AJ1" s="16"/>
       <c r="AK1" s="16"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20" t="s">
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AN1" s="20" t="s">
+      <c r="AN1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AO1" s="20" t="s">
+      <c r="AO1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AP1" s="20" t="s">
+      <c r="AP1" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="80">
+      <c r="B2">
         <v>12</v>
       </c>
-      <c r="C2" s="80">
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2" s="75">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="75">
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="F2" s="77">
+      <c r="F2" s="59">
         <f>B2/E2</f>
         <v>6</v>
       </c>
-      <c r="G2" s="78">
+      <c r="G2" s="60">
         <f>D2/E2</f>
         <v>0.5</v>
       </c>
-      <c r="H2" s="79">
-        <v>0</v>
-      </c>
-      <c r="I2" s="79">
+      <c r="H2" s="61">
+        <v>0</v>
+      </c>
+      <c r="I2" s="61">
         <f>H2*B2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="79">
+      <c r="J2" s="61">
         <f t="shared" ref="J2:J11" si="0">(H2*B2)/C2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="79">
+      <c r="K2" s="61">
         <f>$E2*H2</f>
         <v>0</v>
       </c>
-      <c r="L2" s="79">
+      <c r="L2" s="61">
         <f>H2*$D2</f>
         <v>0</v>
       </c>
-      <c r="M2" s="79">
-        <v>0</v>
-      </c>
-      <c r="N2" s="114">
+      <c r="M2" s="61">
+        <v>0</v>
+      </c>
+      <c r="N2" s="85">
         <f>M2*B2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="114">
+      <c r="O2" s="85">
         <f>(M2*B2)/C2</f>
         <v>0</v>
       </c>
-      <c r="P2" s="114">
+      <c r="P2" s="85">
         <f>M2*$E2</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="114">
+      <c r="Q2" s="85">
         <f>M2*$D2</f>
         <v>0</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="55" t="s">
+      <c r="R2" s="36"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="56" t="s">
+      <c r="U2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="51"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="53"/>
-      <c r="AB2" s="97" t="s">
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AB2" s="73" t="s">
         <v>34</v>
       </c>
       <c r="AC2" s="14">
         <f>T5</f>
+        <v>75</v>
+      </c>
+      <c r="AD2" s="74">
+        <f>U5</f>
         <v>165</v>
       </c>
-      <c r="AD2" s="98">
-        <f>U5</f>
-        <v>50</v>
-      </c>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
       <c r="AG2" s="16"/>
       <c r="AH2" s="16"/>
       <c r="AI2" s="16"/>
       <c r="AJ2" s="16"/>
       <c r="AK2" s="16"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20">
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18">
         <f>H2*B13</f>
         <v>0</v>
       </c>
-      <c r="AN2" s="20">
+      <c r="AN2" s="18">
         <f>M2*B13</f>
         <v>0</v>
       </c>
-      <c r="AO2" s="20">
-        <f>H2*E13</f>
-        <v>0</v>
-      </c>
-      <c r="AP2" s="20">
-        <f>M2*E13</f>
+      <c r="AO2" s="18">
+        <f t="shared" ref="AO2:AO11" si="1">H2*E13</f>
+        <v>0</v>
+      </c>
+      <c r="AP2" s="18">
+        <f t="shared" ref="AP2:AP11" si="2">M2*E13</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="75">
+      <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" s="75">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="75">
+      <c r="D3">
         <v>1.25</v>
       </c>
-      <c r="E3" s="75">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="77">
-        <f t="shared" ref="F3:F11" si="1">B3/E3</f>
+      <c r="F3" s="59">
+        <f t="shared" ref="F3:F11" si="3">B3/E3</f>
         <v>4</v>
       </c>
-      <c r="G3" s="78">
+      <c r="G3" s="60">
         <f>D3/E3</f>
         <v>0.625</v>
       </c>
-      <c r="H3" s="79">
-        <v>0</v>
-      </c>
-      <c r="I3" s="79">
-        <f t="shared" ref="I3:I11" si="2">H3*B3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="79">
+      <c r="H3" s="61">
+        <v>0</v>
+      </c>
+      <c r="I3" s="61">
+        <f t="shared" ref="I3:I11" si="4">H3*B3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K3" s="79">
+      <c r="K3" s="61">
         <f>$E3*H3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="79">
+      <c r="L3" s="61">
         <f>H3*$D3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="79">
-        <v>0</v>
-      </c>
-      <c r="N3" s="114">
-        <f t="shared" ref="N3:N11" si="3">M3*B3</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="114">
-        <f t="shared" ref="O3:O11" si="4">(M3*B3)/C3</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="114">
+      <c r="M3" s="61">
+        <v>0</v>
+      </c>
+      <c r="N3" s="85">
+        <f t="shared" ref="N3:N11" si="5">M3*B3</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="85">
+        <f t="shared" ref="O3:O11" si="6">(M3*B3)/C3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="85">
         <f>M3*$E3</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="114">
+      <c r="Q3" s="85">
         <f>M3*$D3</f>
         <v>0</v>
       </c>
-      <c r="R3" s="22"/>
+      <c r="R3" s="19"/>
       <c r="S3" s="10" t="s">
         <v>35</v>
       </c>
       <c r="T3" s="10">
         <f>$U$1-K13</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="40">
+        <f>$U$1-P13</f>
         <v>1</v>
       </c>
-      <c r="U3" s="57">
-        <f>$U$1-P13</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="50"/>
-      <c r="AB3" s="99" t="s">
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AB3" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="AC3" s="26">
+      <c r="AC3" s="23">
         <f>T4</f>
+        <v>250</v>
+      </c>
+      <c r="AD3" s="76">
+        <f>U4</f>
         <v>165</v>
       </c>
-      <c r="AD3" s="100">
-        <f>U4</f>
-        <v>1000</v>
-      </c>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
       <c r="AG3" s="16"/>
       <c r="AH3" s="16"/>
       <c r="AI3" s="16"/>
       <c r="AJ3" s="16"/>
       <c r="AK3" s="16"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20">
-        <f t="shared" ref="AM3:AM11" si="5">H3*B14</f>
-        <v>0</v>
-      </c>
-      <c r="AN3" s="20">
-        <f t="shared" ref="AN3:AN11" si="6">M3*B14</f>
-        <v>0</v>
-      </c>
-      <c r="AO3" s="20">
-        <f>H3*E14</f>
-        <v>0</v>
-      </c>
-      <c r="AP3" s="20">
-        <f>M3*E14</f>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18">
+        <f t="shared" ref="AM3:AM11" si="7">H3*B14</f>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="18">
+        <f t="shared" ref="AN3:AN11" si="8">M3*B14</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP3" s="18">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75" t="s">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="75">
+      <c r="B4">
         <v>20</v>
       </c>
-      <c r="C4" s="75">
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4" s="75">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="75">
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="77">
-        <f t="shared" si="1"/>
+      <c r="F4" s="59">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G4" s="78">
-        <f t="shared" ref="G4:G11" si="7">D4/E4</f>
+      <c r="G4" s="60">
+        <f t="shared" ref="G4:G11" si="9">D4/E4</f>
         <v>0.5</v>
       </c>
-      <c r="H4" s="79">
-        <v>0</v>
-      </c>
-      <c r="I4" s="79">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="79">
+      <c r="H4" s="61">
+        <v>0</v>
+      </c>
+      <c r="I4" s="61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K4" s="79">
-        <f t="shared" ref="K4:K11" si="8">$E4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="79">
-        <f t="shared" ref="L4:L11" si="9">H4*$D4</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="79">
-        <v>50</v>
-      </c>
-      <c r="N4" s="114">
-        <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="O4" s="114">
-        <f t="shared" si="4"/>
-        <v>250</v>
-      </c>
-      <c r="P4" s="114">
-        <f t="shared" ref="P4:P11" si="10">M4*$E4</f>
-        <v>100</v>
-      </c>
-      <c r="Q4" s="114">
-        <f t="shared" ref="Q4:Q11" si="11">M4*$D4</f>
-        <v>50</v>
-      </c>
-      <c r="R4" s="22"/>
+      <c r="K4" s="61">
+        <f t="shared" ref="K4:K11" si="10">$E4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="61">
+        <f t="shared" ref="L4:L11" si="11">H4*$D4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="61">
+        <v>0</v>
+      </c>
+      <c r="N4" s="85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="85">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="85">
+        <f t="shared" ref="P4:P11" si="12">M4*$E4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="85">
+        <f t="shared" ref="Q4:Q11" si="13">M4*$D4</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="19"/>
       <c r="S4" s="9" t="s">
         <v>33</v>
       </c>
       <c r="T4" s="9">
         <f>I13</f>
+        <v>250</v>
+      </c>
+      <c r="U4" s="41">
+        <f>N13</f>
         <v>165</v>
       </c>
-      <c r="U4" s="58">
-        <f>N13</f>
-        <v>1000</v>
-      </c>
-      <c r="W4" s="51"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="53"/>
-      <c r="AB4" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC4" s="26">
+      <c r="W4" s="111"/>
+      <c r="X4" s="111"/>
+      <c r="Y4" s="111"/>
+      <c r="Z4" s="111"/>
+      <c r="AB4" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC4" s="23">
         <f>J13</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="AD4" s="76">
+        <f>O13</f>
         <v>165</v>
-      </c>
-      <c r="AD4" s="100">
-        <f>O13</f>
-        <v>250</v>
       </c>
       <c r="AE4" s="17"/>
       <c r="AF4" s="17"/>
@@ -2536,205 +2461,205 @@
       <c r="AI4" s="16"/>
       <c r="AJ4" s="16"/>
       <c r="AK4" s="16"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20">
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="59">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G5" s="60">
+        <f t="shared" si="9"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H5" s="61">
+        <v>0</v>
+      </c>
+      <c r="I5" s="61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="61">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="61">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="61">
+        <v>33</v>
+      </c>
+      <c r="N5" s="85">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AN4" s="20">
+        <v>165</v>
+      </c>
+      <c r="O5" s="85">
         <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="AO4" s="20">
-        <f>H4*E15</f>
-        <v>0</v>
-      </c>
-      <c r="AP4" s="20">
-        <f>M4*E15</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="75">
-        <v>5</v>
-      </c>
-      <c r="C5" s="75">
-        <v>1</v>
-      </c>
-      <c r="D5" s="75">
-        <v>5</v>
-      </c>
-      <c r="E5" s="75">
-        <v>3</v>
-      </c>
-      <c r="F5" s="77">
-        <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="G5" s="78">
-        <f t="shared" si="7"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="H5" s="79">
-        <v>33</v>
-      </c>
-      <c r="I5" s="79">
-        <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="J5" s="79">
-        <f t="shared" si="0"/>
+      <c r="P5" s="85">
+        <f t="shared" si="12"/>
+        <v>99</v>
+      </c>
+      <c r="Q5" s="85">
+        <f t="shared" si="13"/>
         <v>165</v>
       </c>
-      <c r="K5" s="79">
-        <f t="shared" si="8"/>
-        <v>99</v>
-      </c>
-      <c r="L5" s="79">
-        <f t="shared" si="9"/>
-        <v>165</v>
-      </c>
-      <c r="M5" s="79">
-        <v>0</v>
-      </c>
-      <c r="N5" s="114">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="114">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="114">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="114">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="22"/>
+      <c r="R5" s="19"/>
       <c r="S5" s="9" t="s">
         <v>34</v>
       </c>
       <c r="T5" s="9">
         <f>L13</f>
+        <v>75</v>
+      </c>
+      <c r="U5" s="41">
+        <f>Q13</f>
         <v>165</v>
       </c>
-      <c r="U5" s="58">
-        <f>Q13</f>
-        <v>50</v>
-      </c>
-      <c r="W5" s="42"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="33" t="s">
+      <c r="W5" s="35"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="Z5" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AB5" s="27" t="s">
+      <c r="AB5" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AC5" s="29">
+      <c r="AC5" s="26">
         <f>AC2/AD2</f>
-        <v>3.3</v>
-      </c>
-      <c r="AD5" s="28">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="AD5" s="25">
         <f>AD2/AC2</f>
-        <v>0.30303030303030304</v>
-      </c>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
       <c r="AG5" s="16"/>
       <c r="AH5" s="16"/>
       <c r="AI5" s="16"/>
       <c r="AJ5" s="16"/>
       <c r="AK5" s="16"/>
-      <c r="AL5" s="20"/>
-      <c r="AM5" s="20">
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="18">
+        <f t="shared" si="8"/>
+        <v>8.25</v>
+      </c>
+      <c r="AO5" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP5" s="18">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="59">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="60">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="H6" s="61">
+        <v>0</v>
+      </c>
+      <c r="I6" s="61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="61">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="61">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="61">
+        <v>0</v>
+      </c>
+      <c r="N6" s="85">
         <f t="shared" si="5"/>
-        <v>8.25</v>
-      </c>
-      <c r="AN5" s="20">
+        <v>0</v>
+      </c>
+      <c r="O6" s="85">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AO5" s="20">
-        <f>H5*E16</f>
-        <v>132</v>
-      </c>
-      <c r="AP5" s="20">
-        <f>M5*E16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="75">
-        <v>5</v>
-      </c>
-      <c r="C6" s="75">
-        <v>2</v>
-      </c>
-      <c r="D6" s="75">
-        <v>6</v>
-      </c>
-      <c r="E6" s="75">
-        <v>2</v>
-      </c>
-      <c r="F6" s="77">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="G6" s="78">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="H6" s="79">
-        <v>0</v>
-      </c>
-      <c r="I6" s="79">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="79">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="79">
-        <v>0</v>
-      </c>
-      <c r="N6" s="114">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="114">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="114">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="114">
+      <c r="P6" s="85">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="85">
         <f>M6*$D6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="32" t="s">
+      <c r="R6" s="106" t="s">
         <v>30</v>
       </c>
       <c r="S6" s="12" t="s">
@@ -2742,247 +2667,247 @@
       </c>
       <c r="T6" s="12">
         <f>AM12</f>
+        <v>125</v>
+      </c>
+      <c r="U6" s="42">
+        <f>AN12</f>
         <v>8.25</v>
       </c>
-      <c r="U6" s="59">
-        <f>AN12</f>
-        <v>100</v>
-      </c>
-      <c r="W6" s="44" t="s">
+      <c r="W6" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="X6" s="30" t="s">
+      <c r="X6" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="Y6" s="34">
+      <c r="Y6" s="30">
         <f>AC12</f>
-        <v>27.224999999999998</v>
-      </c>
-      <c r="Z6" s="34">
+        <v>0.94696969696969702</v>
+      </c>
+      <c r="Z6" s="30">
         <f>AD12</f>
-        <v>30.303030303030305</v>
-      </c>
-      <c r="AB6" s="101" t="s">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="AB6" s="77" t="s">
         <v>22</v>
       </c>
       <c r="AC6" s="15">
         <f>T6</f>
+        <v>125</v>
+      </c>
+      <c r="AD6" s="78">
+        <f>U6</f>
         <v>8.25</v>
       </c>
-      <c r="AD6" s="102">
-        <f>U6</f>
-        <v>100</v>
-      </c>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
       <c r="AG6" s="16"/>
       <c r="AH6" s="16"/>
       <c r="AI6" s="16"/>
       <c r="AJ6" s="16"/>
       <c r="AK6" s="16"/>
-      <c r="AL6" s="20"/>
-      <c r="AM6" s="20">
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP6" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="59">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G7" s="60">
+        <f t="shared" si="9"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="H7" s="61">
+        <v>0</v>
+      </c>
+      <c r="I7" s="61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="61">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="61">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="61">
+        <v>0</v>
+      </c>
+      <c r="N7" s="85">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN6" s="20">
+      <c r="O7" s="85">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AO6" s="20">
-        <f>H6*E17</f>
-        <v>0</v>
-      </c>
-      <c r="AP6" s="20">
-        <f>M6*E17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="75">
-        <v>12</v>
-      </c>
-      <c r="C7" s="75">
-        <v>3</v>
-      </c>
-      <c r="D7" s="75">
-        <v>4</v>
-      </c>
-      <c r="E7" s="75">
-        <v>3</v>
-      </c>
-      <c r="F7" s="77">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G7" s="78">
-        <f t="shared" si="7"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="H7" s="79">
-        <v>0</v>
-      </c>
-      <c r="I7" s="79">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="79">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="79">
-        <v>0</v>
-      </c>
-      <c r="N7" s="114">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="114">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="114">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="114">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="111"/>
+      <c r="P7" s="85">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="85">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="107"/>
       <c r="S7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="T7" s="13">
         <f>AO12</f>
+        <v>125</v>
+      </c>
+      <c r="U7" s="43">
+        <f>AP12</f>
         <v>132</v>
       </c>
-      <c r="U7" s="60">
-        <f>AP12</f>
-        <v>50</v>
-      </c>
-      <c r="W7" s="45"/>
-      <c r="X7" s="31" t="s">
+      <c r="W7" s="101"/>
+      <c r="X7" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="Y7" s="35">
+      <c r="Y7" s="31">
         <f>AC13</f>
-        <v>40</v>
-      </c>
-      <c r="Z7" s="35">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="Z7" s="31">
         <f>AD13</f>
-        <v>165</v>
-      </c>
-      <c r="AB7" s="101" t="s">
+        <v>0.94696969696969702</v>
+      </c>
+      <c r="AB7" s="77" t="s">
         <v>25</v>
       </c>
       <c r="AC7" s="15">
         <f>T7</f>
+        <v>125</v>
+      </c>
+      <c r="AD7" s="78">
+        <f>U7</f>
         <v>132</v>
       </c>
-      <c r="AD7" s="102">
-        <f>U7</f>
-        <v>50</v>
-      </c>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
       <c r="AG7" s="16"/>
       <c r="AH7" s="16"/>
       <c r="AI7" s="16"/>
       <c r="AJ7" s="16"/>
       <c r="AK7" s="16"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20">
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" s="59">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G8" s="60">
+        <f t="shared" si="9"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H8" s="61">
+        <v>0</v>
+      </c>
+      <c r="I8" s="61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="61">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="61">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="61">
+        <v>0</v>
+      </c>
+      <c r="N8" s="85">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN7" s="20">
+      <c r="O8" s="85">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AO7" s="20">
-        <f>H7*E18</f>
-        <v>0</v>
-      </c>
-      <c r="AP7" s="20">
-        <f>M7*E18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="75">
-        <v>8</v>
-      </c>
-      <c r="C8" s="75">
-        <v>2</v>
-      </c>
-      <c r="D8" s="75">
-        <v>10</v>
-      </c>
-      <c r="E8" s="75">
-        <v>6</v>
-      </c>
-      <c r="F8" s="77">
-        <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="G8" s="78">
-        <f t="shared" si="7"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="H8" s="79">
-        <v>0</v>
-      </c>
-      <c r="I8" s="79">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="79">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="79">
-        <v>0</v>
-      </c>
-      <c r="N8" s="114">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="114">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="114">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="114">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="38" t="s">
+      <c r="P8" s="85">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="85">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="108" t="s">
         <v>31</v>
       </c>
       <c r="S8" s="11" t="s">
@@ -2990,247 +2915,247 @@
       </c>
       <c r="T8" s="11">
         <f>AM24</f>
+        <v>75</v>
+      </c>
+      <c r="U8" s="44">
+        <f>AN24</f>
         <v>198</v>
       </c>
-      <c r="U8" s="61">
-        <f>AN24</f>
-        <v>50</v>
-      </c>
-      <c r="W8" s="46" t="s">
+      <c r="W8" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="X8" s="30" t="s">
+      <c r="X8" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="Y8" s="34">
+      <c r="Y8" s="30">
         <f>AC14</f>
-        <v>653.4</v>
-      </c>
-      <c r="Z8" s="34">
+        <v>0.56818181818181823</v>
+      </c>
+      <c r="Z8" s="30">
         <f>AD14</f>
-        <v>15.151515151515152</v>
-      </c>
-      <c r="AB8" s="115" t="s">
+        <v>2.64</v>
+      </c>
+      <c r="AB8" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="AC8" s="116">
+      <c r="AC8" s="87">
         <f>T8</f>
+        <v>75</v>
+      </c>
+      <c r="AD8" s="88">
+        <f>U8</f>
         <v>198</v>
       </c>
-      <c r="AD8" s="117">
-        <f>U8</f>
-        <v>50</v>
-      </c>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
       <c r="AG8" s="16"/>
       <c r="AH8" s="16"/>
       <c r="AI8" s="16"/>
       <c r="AJ8" s="16"/>
       <c r="AK8" s="16"/>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="20">
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN8" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP8" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="59">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G9" s="60">
+        <f t="shared" si="9"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H9" s="61">
+        <v>0</v>
+      </c>
+      <c r="I9" s="61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="61">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="61">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="61">
+        <v>0</v>
+      </c>
+      <c r="N9" s="85">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN8" s="20">
+      <c r="O9" s="85">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AO8" s="20">
-        <f>H8*E19</f>
-        <v>0</v>
-      </c>
-      <c r="AP8" s="20">
-        <f>M8*E19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="75">
-        <v>12</v>
-      </c>
-      <c r="C9" s="75">
-        <v>3</v>
-      </c>
-      <c r="D9" s="75">
-        <v>5</v>
-      </c>
-      <c r="E9" s="75">
-        <v>3</v>
-      </c>
-      <c r="F9" s="77">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G9" s="78">
-        <f t="shared" si="7"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="H9" s="79">
-        <v>0</v>
-      </c>
-      <c r="I9" s="79">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="79">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="79">
-        <v>0</v>
-      </c>
-      <c r="N9" s="114">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="114">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="114">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="114">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="38"/>
+      <c r="P9" s="85">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="85">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="108"/>
       <c r="S9" s="10" t="s">
         <v>29</v>
       </c>
       <c r="T9" s="10">
         <f>AO24</f>
+        <v>75</v>
+      </c>
+      <c r="U9" s="40">
+        <f>AP24</f>
         <v>132</v>
       </c>
-      <c r="U9" s="57">
-        <f>AP24</f>
-        <v>50</v>
-      </c>
-      <c r="W9" s="47"/>
-      <c r="X9" s="31" t="s">
+      <c r="W9" s="103"/>
+      <c r="X9" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="Y9" s="35">
+      <c r="Y9" s="31">
         <f>AC15</f>
-        <v>40</v>
-      </c>
-      <c r="Z9" s="35">
+        <v>2.64</v>
+      </c>
+      <c r="Z9" s="31">
         <f>AD15</f>
-        <v>165</v>
-      </c>
-      <c r="AB9" s="118" t="s">
+        <v>0.56818181818181823</v>
+      </c>
+      <c r="AB9" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="AC9" s="119">
+      <c r="AC9" s="90">
         <f>T9</f>
+        <v>75</v>
+      </c>
+      <c r="AD9" s="91">
+        <f>U9</f>
         <v>132</v>
       </c>
-      <c r="AD9" s="120">
-        <f>U9</f>
-        <v>50</v>
-      </c>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
       <c r="AG9" s="16"/>
       <c r="AH9" s="16"/>
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
       <c r="AK9" s="16"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="20">
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" s="59">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="G10" s="60">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="H10" s="61">
+        <v>25</v>
+      </c>
+      <c r="I10" s="61">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="J10" s="61">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="K10" s="61">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="L10" s="61">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="M10" s="61">
+        <v>0</v>
+      </c>
+      <c r="N10" s="85">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN9" s="20">
+      <c r="O10" s="85">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AO9" s="20">
-        <f>H9*E20</f>
-        <v>0</v>
-      </c>
-      <c r="AP9" s="20">
-        <f>M9*E20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="75">
-        <v>10</v>
-      </c>
-      <c r="C10" s="75">
-        <v>3</v>
-      </c>
-      <c r="D10" s="75">
-        <v>3</v>
-      </c>
-      <c r="E10" s="75">
-        <v>4</v>
-      </c>
-      <c r="F10" s="77">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="G10" s="78">
-        <f t="shared" si="7"/>
-        <v>0.75</v>
-      </c>
-      <c r="H10" s="79">
-        <v>0</v>
-      </c>
-      <c r="I10" s="79">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="79">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="79">
-        <v>0</v>
-      </c>
-      <c r="N10" s="114">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="114">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="114">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="114">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="32" t="s">
+      <c r="P10" s="85">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="85">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="106" t="s">
         <v>32</v>
       </c>
       <c r="S10" s="12" t="s">
@@ -3238,186 +3163,186 @@
       </c>
       <c r="T10" s="12">
         <f>AM36</f>
+        <v>200</v>
+      </c>
+      <c r="U10" s="42">
+        <f>AN36</f>
         <v>33</v>
       </c>
-      <c r="U10" s="59">
-        <f>AN36</f>
-        <v>50</v>
-      </c>
-      <c r="W10" s="44" t="s">
+      <c r="W10" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="X10" s="30" t="s">
+      <c r="X10" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="Y10" s="34">
+      <c r="Y10" s="30">
         <f>AC16</f>
-        <v>108.89999999999999</v>
-      </c>
-      <c r="Z10" s="34">
+        <v>1.5151515151515151</v>
+      </c>
+      <c r="Z10" s="30">
         <f>AD16</f>
-        <v>15.151515151515152</v>
-      </c>
-      <c r="AB10" s="101" t="s">
+        <v>0.22</v>
+      </c>
+      <c r="AB10" s="77" t="s">
         <v>62</v>
       </c>
       <c r="AC10" s="15">
         <f>T10</f>
+        <v>200</v>
+      </c>
+      <c r="AD10" s="78">
+        <f>U10</f>
         <v>33</v>
       </c>
-      <c r="AD10" s="102">
-        <f>U10</f>
-        <v>50</v>
-      </c>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
       <c r="AG10" s="16"/>
       <c r="AH10" s="16"/>
       <c r="AI10" s="16"/>
       <c r="AJ10" s="16"/>
       <c r="AK10" s="16"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="20">
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="18">
+        <f t="shared" si="7"/>
+        <v>125</v>
+      </c>
+      <c r="AN10" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="18">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="AP10" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11" s="59">
+        <f t="shared" si="3"/>
+        <v>0.08</v>
+      </c>
+      <c r="G11" s="60">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="H11" s="61">
+        <v>0</v>
+      </c>
+      <c r="I11" s="61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="61">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="61">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="61">
+        <v>0</v>
+      </c>
+      <c r="N11" s="85">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN10" s="20">
+      <c r="O11" s="85">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AO10" s="20">
-        <f>H10*E21</f>
-        <v>0</v>
-      </c>
-      <c r="AP10" s="20">
-        <f>M10*E21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="75">
-        <v>2</v>
-      </c>
-      <c r="C11" s="75">
-        <v>1</v>
-      </c>
-      <c r="D11" s="75">
-        <v>20</v>
-      </c>
-      <c r="E11" s="75">
-        <v>25</v>
-      </c>
-      <c r="F11" s="77">
-        <f t="shared" si="1"/>
-        <v>0.08</v>
-      </c>
-      <c r="G11" s="78">
-        <f t="shared" si="7"/>
-        <v>0.8</v>
-      </c>
-      <c r="H11" s="79">
-        <v>0</v>
-      </c>
-      <c r="I11" s="79">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="79">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="79">
-        <v>0</v>
-      </c>
-      <c r="N11" s="114">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="114">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="114">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="114">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="112"/>
-      <c r="S11" s="62" t="s">
+      <c r="P11" s="85">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="85">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="109"/>
+      <c r="S11" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="T11" s="62">
+      <c r="T11" s="45">
         <f>AO36</f>
+        <v>150</v>
+      </c>
+      <c r="U11" s="46">
+        <f>AP36</f>
         <v>132</v>
       </c>
-      <c r="U11" s="63">
-        <f>AP36</f>
-        <v>100</v>
-      </c>
-      <c r="W11" s="45"/>
-      <c r="X11" s="36" t="s">
+      <c r="W11" s="101"/>
+      <c r="X11" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="Y11" s="37">
+      <c r="Y11" s="33">
         <f>AC17</f>
-        <v>40</v>
-      </c>
-      <c r="Z11" s="37">
+        <v>0.22</v>
+      </c>
+      <c r="Z11" s="33">
         <f>AD17</f>
-        <v>330</v>
-      </c>
-      <c r="AB11" s="101" t="s">
+        <v>1.5151515151515151</v>
+      </c>
+      <c r="AB11" s="77" t="s">
         <v>63</v>
       </c>
       <c r="AC11" s="15">
         <f>T11</f>
+        <v>150</v>
+      </c>
+      <c r="AD11" s="78">
+        <f>U11</f>
         <v>132</v>
       </c>
-      <c r="AD11" s="102">
-        <f>U11</f>
-        <v>100</v>
-      </c>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
       <c r="AG11" s="16"/>
       <c r="AH11" s="16"/>
       <c r="AI11" s="16"/>
       <c r="AJ11" s="16"/>
       <c r="AK11" s="16"/>
-      <c r="AL11" s="20"/>
-      <c r="AM11" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AN11" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO11" s="20">
-        <f>H11*E22</f>
-        <v>0</v>
-      </c>
-      <c r="AP11" s="20">
-        <f>M11*E22</f>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="18">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3435,7 +3360,7 @@
       <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="74" t="s">
+      <c r="G12" s="57" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="16"/>
@@ -3444,68 +3369,68 @@
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="48" t="s">
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="50"/>
-      <c r="W12" s="39" t="s">
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="94"/>
+      <c r="W12" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="41">
+      <c r="X12" s="105"/>
+      <c r="Y12" s="34">
         <f>SUM(AC12,AC14,AC16)</f>
-        <v>789.52499999999998</v>
-      </c>
-      <c r="Z12" s="41">
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="Z12" s="34">
         <f>SUM(AD12,AD14,AD16)</f>
-        <v>60.606060606060609</v>
-      </c>
-      <c r="AB12" s="103" t="s">
+        <v>2.9260000000000002</v>
+      </c>
+      <c r="AB12" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="AC12" s="87">
-        <f>$AC$5*AC6</f>
-        <v>27.224999999999998</v>
-      </c>
-      <c r="AD12" s="86">
-        <f>$AD$5*AD6</f>
-        <v>30.303030303030305</v>
-      </c>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
+      <c r="AC12" s="67">
+        <f>AC6/AD7</f>
+        <v>0.94696969696969702</v>
+      </c>
+      <c r="AD12" s="66">
+        <f>AD6/AC7</f>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
       <c r="AG12" s="16"/>
       <c r="AH12" s="16"/>
       <c r="AI12" s="16"/>
       <c r="AJ12" s="16"/>
       <c r="AK12" s="16"/>
-      <c r="AL12" s="81" t="s">
+      <c r="AL12" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="AM12" s="81">
+      <c r="AM12" s="62">
         <f>SUM(AM2:AM11)</f>
+        <v>125</v>
+      </c>
+      <c r="AN12" s="62">
+        <f>SUM(AN2:AN11)</f>
         <v>8.25</v>
       </c>
-      <c r="AN12" s="81">
-        <f>SUM(AN2:AN11)</f>
-        <v>100</v>
-      </c>
-      <c r="AO12" s="81">
+      <c r="AO12" s="62">
         <f>SUM(AO2:AO11)</f>
+        <v>125</v>
+      </c>
+      <c r="AP12" s="62">
+        <f>SUM(AP2:AP11)</f>
         <v>132</v>
       </c>
-      <c r="AP12" s="81">
-        <f>SUM(AP2:AP11)</f>
-        <v>50</v>
-      </c>
     </row>
     <row r="13" spans="1:42" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2">
@@ -3523,93 +3448,93 @@
       <c r="F13" s="5">
         <v>1</v>
       </c>
-      <c r="G13" s="65">
+      <c r="G13" s="48">
         <v>1</v>
       </c>
       <c r="H13" s="16"/>
-      <c r="I13" s="20">
+      <c r="I13" s="18">
         <f>SUM(I2:I11)</f>
+        <v>250</v>
+      </c>
+      <c r="J13" s="18">
+        <f>SUM(J2:J11)</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="K13" s="18">
+        <f>SUM(K2:K11)</f>
+        <v>100</v>
+      </c>
+      <c r="L13" s="18">
+        <f>SUM(L2:L11)</f>
+        <v>75</v>
+      </c>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18">
+        <f>SUM(N2:N11)</f>
         <v>165</v>
       </c>
-      <c r="J13" s="20">
-        <f>SUM(J2:J11)</f>
+      <c r="O13" s="18">
+        <f>SUM(O2:O11)</f>
         <v>165</v>
       </c>
-      <c r="K13" s="20">
-        <f>SUM(K2:K11)</f>
+      <c r="P13" s="18">
+        <f>SUM(P2:P11)</f>
         <v>99</v>
       </c>
-      <c r="L13" s="20">
-        <f>SUM(L2:L11)</f>
+      <c r="Q13" s="18">
+        <f>SUM(Q2:Q11)</f>
         <v>165</v>
       </c>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20">
-        <f>SUM(N2:N11)</f>
-        <v>1000</v>
-      </c>
-      <c r="O13" s="20">
-        <f>SUM(O2:O11)</f>
-        <v>250</v>
-      </c>
-      <c r="P13" s="20">
-        <f>SUM(P2:P11)</f>
-        <v>100</v>
-      </c>
-      <c r="Q13" s="20">
-        <f>SUM(Q2:Q11)</f>
-        <v>50</v>
-      </c>
-      <c r="R13" s="51"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="53"/>
-      <c r="W13" s="39" t="s">
+      <c r="R13" s="95"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="97"/>
+      <c r="W13" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="41">
+      <c r="X13" s="105"/>
+      <c r="Y13" s="34">
         <f>SUM(AC13,AC15,AC17)</f>
-        <v>120</v>
-      </c>
-      <c r="Z13" s="41">
+        <v>2.9260000000000002</v>
+      </c>
+      <c r="Z13" s="34">
         <f>SUM(AD13,AD15,AD17)</f>
-        <v>660</v>
-      </c>
-      <c r="AB13" s="103" t="s">
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="AB13" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="AC13" s="88">
-        <f>$AD$5*AC7</f>
-        <v>40</v>
-      </c>
-      <c r="AD13" s="89">
-        <f>$AC$5*AD7</f>
-        <v>165</v>
-      </c>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="20"/>
+      <c r="AC13" s="68">
+        <f>AD6/AC7</f>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="AD13" s="69">
+        <f>AC6/AD7</f>
+        <v>0.94696969696969702</v>
+      </c>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
       <c r="AG13" s="16"/>
       <c r="AH13" s="16"/>
       <c r="AI13" s="16"/>
       <c r="AJ13" s="16"/>
       <c r="AK13" s="16"/>
-      <c r="AL13" s="20"/>
-      <c r="AM13" s="20" t="s">
+      <c r="AL13" s="18"/>
+      <c r="AM13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AN13" s="20" t="s">
+      <c r="AN13" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="AO13" s="20" t="s">
+      <c r="AO13" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="AP13" s="20" t="s">
+      <c r="AP13" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="3">
@@ -3627,7 +3552,7 @@
       <c r="F14" s="7">
         <v>2</v>
       </c>
-      <c r="G14" s="67">
+      <c r="G14" s="50">
         <v>2</v>
       </c>
       <c r="H14" s="16"/>
@@ -3636,10 +3561,10 @@
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
       <c r="T14" s="16"/>
@@ -3649,44 +3574,44 @@
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
-      <c r="AB14" s="104" t="s">
+      <c r="AB14" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="AC14" s="90">
-        <f>$AC$5*AC8</f>
-        <v>653.4</v>
-      </c>
-      <c r="AD14" s="105">
-        <f>$AD$5*AD8</f>
-        <v>15.151515151515152</v>
-      </c>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="20"/>
+      <c r="AC14" s="67">
+        <f>AC8/AD9</f>
+        <v>0.56818181818181823</v>
+      </c>
+      <c r="AD14" s="66">
+        <f>AD8/AC9</f>
+        <v>2.64</v>
+      </c>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
       <c r="AG14" s="16"/>
       <c r="AH14" s="16"/>
       <c r="AI14" s="16"/>
       <c r="AJ14" s="16"/>
       <c r="AK14" s="16"/>
-      <c r="AL14" s="20"/>
-      <c r="AM14" s="20">
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="18">
         <f>H2*$C13</f>
         <v>0</v>
       </c>
-      <c r="AN14" s="20">
-        <f>M2*$C13</f>
-        <v>0</v>
-      </c>
-      <c r="AO14" s="20">
-        <f>H2*$F13</f>
-        <v>0</v>
-      </c>
-      <c r="AP14" s="20">
-        <f>M2*$F13</f>
+      <c r="AN14" s="18">
+        <f t="shared" ref="AN14:AN23" si="14">M2*$C13</f>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="18">
+        <f t="shared" ref="AO14:AO23" si="15">H2*$F13</f>
+        <v>0</v>
+      </c>
+      <c r="AP14" s="18">
+        <f t="shared" ref="AP14:AP23" si="16">M2*$F13</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="47" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2">
@@ -3704,7 +3629,7 @@
       <c r="F15" s="5">
         <v>1</v>
       </c>
-      <c r="G15" s="65">
+      <c r="G15" s="48">
         <v>2</v>
       </c>
       <c r="H15" s="16"/>
@@ -3726,44 +3651,44 @@
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
       <c r="Z15" s="16"/>
-      <c r="AB15" s="106" t="s">
+      <c r="AB15" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="AC15" s="91">
-        <f>$AD$5*AC9</f>
-        <v>40</v>
-      </c>
-      <c r="AD15" s="107">
-        <f>$AC$5*AD9</f>
-        <v>165</v>
-      </c>
-      <c r="AE15" s="20"/>
-      <c r="AF15" s="20"/>
+      <c r="AC15" s="68">
+        <f>AD8/AC9</f>
+        <v>2.64</v>
+      </c>
+      <c r="AD15" s="69">
+        <f>AC8/AD9</f>
+        <v>0.56818181818181823</v>
+      </c>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
       <c r="AG15" s="16"/>
       <c r="AH15" s="16"/>
       <c r="AI15" s="16"/>
       <c r="AJ15" s="16"/>
       <c r="AK15" s="16"/>
-      <c r="AL15" s="20"/>
-      <c r="AM15" s="20">
-        <f>H3*C14</f>
-        <v>0</v>
-      </c>
-      <c r="AN15" s="20">
-        <f>M3*$C14</f>
-        <v>0</v>
-      </c>
-      <c r="AO15" s="20">
-        <f>H3*$F14</f>
-        <v>0</v>
-      </c>
-      <c r="AP15" s="20">
-        <f>M3*$F14</f>
+      <c r="AL15" s="18"/>
+      <c r="AM15" s="18">
+        <f t="shared" ref="AM15:AM23" si="17">H3*C14</f>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP15" s="18">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="3">
@@ -3781,7 +3706,7 @@
       <c r="F16" s="7">
         <v>4</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="50">
         <v>4</v>
       </c>
       <c r="H16" s="16"/>
@@ -3794,53 +3719,53 @@
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
       <c r="Z16" s="16"/>
-      <c r="AB16" s="104" t="s">
+      <c r="AB16" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="AC16" s="92">
-        <f>$AC$5*AC10</f>
-        <v>108.89999999999999</v>
-      </c>
-      <c r="AD16" s="89">
-        <f>$AD$5*AD10</f>
-        <v>15.151515151515152</v>
-      </c>
-      <c r="AE16" s="20"/>
-      <c r="AF16" s="20"/>
+      <c r="AC16" s="67">
+        <f>AC10/AD11</f>
+        <v>1.5151515151515151</v>
+      </c>
+      <c r="AD16" s="66">
+        <f>AD10/AC11</f>
+        <v>0.22</v>
+      </c>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
       <c r="AG16" s="16"/>
       <c r="AH16" s="16"/>
       <c r="AI16" s="16"/>
       <c r="AJ16" s="16"/>
       <c r="AK16" s="16"/>
-      <c r="AL16" s="20"/>
-      <c r="AM16" s="20">
-        <f>H4*C15</f>
-        <v>0</v>
-      </c>
-      <c r="AN16" s="20">
-        <f>M4*$C15</f>
-        <v>50</v>
-      </c>
-      <c r="AO16" s="20">
-        <f>H4*$F15</f>
-        <v>0</v>
-      </c>
-      <c r="AP16" s="20">
-        <f>M4*$F15</f>
-        <v>50</v>
+      <c r="AL16" s="18"/>
+      <c r="AM16" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP16" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="2">
@@ -3858,7 +3783,7 @@
       <c r="F17" s="5">
         <v>2.5</v>
       </c>
-      <c r="G17" s="65">
+      <c r="G17" s="48">
         <v>1</v>
       </c>
       <c r="H17" s="16"/>
@@ -3871,54 +3796,54 @@
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
       <c r="Z17" s="16"/>
-      <c r="AA17" s="85"/>
-      <c r="AB17" s="108" t="s">
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="AC17" s="93">
-        <f>$AD$5*AC11</f>
-        <v>40</v>
-      </c>
-      <c r="AD17" s="109">
-        <f>$AC$5*AD11</f>
-        <v>330</v>
-      </c>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
+      <c r="AC17" s="68">
+        <f>AD10/AC11</f>
+        <v>0.22</v>
+      </c>
+      <c r="AD17" s="69">
+        <f>AC10/AD11</f>
+        <v>1.5151515151515151</v>
+      </c>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
       <c r="AG17" s="16"/>
       <c r="AH17" s="16"/>
       <c r="AI17" s="16"/>
       <c r="AJ17" s="16"/>
       <c r="AK17" s="16"/>
-      <c r="AL17" s="20"/>
-      <c r="AM17" s="20">
-        <f>H5*C16</f>
+      <c r="AL17" s="18"/>
+      <c r="AM17" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="18">
+        <f t="shared" si="14"/>
         <v>198</v>
       </c>
-      <c r="AN17" s="20">
-        <f>M5*$C16</f>
-        <v>0</v>
-      </c>
-      <c r="AO17" s="20">
-        <f>H5*$F16</f>
+      <c r="AO17" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP17" s="18">
+        <f t="shared" si="16"/>
         <v>132</v>
       </c>
-      <c r="AP17" s="20">
-        <f>M5*$F16</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="18" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="49" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3">
@@ -3936,7 +3861,7 @@
       <c r="F18" s="7">
         <v>3</v>
       </c>
-      <c r="G18" s="67">
+      <c r="G18" s="50">
         <v>4.5</v>
       </c>
       <c r="H18" s="16"/>
@@ -3949,54 +3874,54 @@
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
       <c r="Z18" s="16"/>
-      <c r="AA18" s="85"/>
-      <c r="AB18" s="84" t="s">
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="AC18" s="41">
+      <c r="AC18" s="34">
         <f>SUM(AC12,AC14,AC16)</f>
-        <v>789.52499999999998</v>
-      </c>
-      <c r="AD18" s="41">
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="AD18" s="34">
         <f>SUM(AD12,AD14,AD16)</f>
-        <v>60.606060606060609</v>
-      </c>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
+        <v>2.9260000000000002</v>
+      </c>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
       <c r="AG18" s="16"/>
       <c r="AH18" s="16"/>
       <c r="AI18" s="16"/>
       <c r="AJ18" s="16"/>
       <c r="AK18" s="16"/>
-      <c r="AL18" s="20"/>
-      <c r="AM18" s="20">
-        <f>H6*C17</f>
-        <v>0</v>
-      </c>
-      <c r="AN18" s="20">
-        <f>M6*$C17</f>
-        <v>0</v>
-      </c>
-      <c r="AO18" s="20">
-        <f>H6*$F17</f>
-        <v>0</v>
-      </c>
-      <c r="AP18" s="20">
-        <f>M6*$F17</f>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP18" s="18">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="47" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="2">
@@ -4014,7 +3939,7 @@
       <c r="F19" s="5">
         <v>6</v>
       </c>
-      <c r="G19" s="65">
+      <c r="G19" s="48">
         <v>5</v>
       </c>
       <c r="H19" s="16"/>
@@ -4027,54 +3952,54 @@
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
       <c r="Z19" s="16"/>
       <c r="AA19" s="16"/>
-      <c r="AB19" s="84" t="s">
+      <c r="AB19" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="AC19" s="41">
+      <c r="AC19" s="34">
         <f>SUM(AC13,AC15,AC17)</f>
-        <v>120</v>
-      </c>
-      <c r="AD19" s="41">
+        <v>2.9260000000000002</v>
+      </c>
+      <c r="AD19" s="34">
         <f>SUM(AD13,AD15,AD17)</f>
-        <v>660</v>
-      </c>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20"/>
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
       <c r="AG19" s="16"/>
       <c r="AH19" s="16"/>
       <c r="AI19" s="16"/>
       <c r="AJ19" s="16"/>
       <c r="AK19" s="16"/>
-      <c r="AL19" s="20"/>
-      <c r="AM19" s="20">
-        <f>H7*C18</f>
-        <v>0</v>
-      </c>
-      <c r="AN19" s="20">
-        <f>M7*$C18</f>
-        <v>0</v>
-      </c>
-      <c r="AO19" s="20">
-        <f>H7*$F18</f>
-        <v>0</v>
-      </c>
-      <c r="AP19" s="20">
-        <f>M7*$F18</f>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN19" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP19" s="18">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="49" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="3">
@@ -4092,7 +4017,7 @@
       <c r="F20" s="7">
         <v>3</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="50">
         <v>4.5</v>
       </c>
       <c r="H20" s="16"/>
@@ -4105,46 +4030,46 @@
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
       <c r="Z20" s="16"/>
       <c r="AA20" s="16"/>
       <c r="AB20" s="16"/>
       <c r="AC20" s="16"/>
       <c r="AD20" s="16"/>
-      <c r="AE20" s="20"/>
-      <c r="AF20" s="20"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
       <c r="AG20" s="16"/>
       <c r="AH20" s="16"/>
       <c r="AI20" s="16"/>
       <c r="AJ20" s="16"/>
       <c r="AK20" s="16"/>
-      <c r="AL20" s="20"/>
-      <c r="AM20" s="20">
-        <f>H8*C19</f>
-        <v>0</v>
-      </c>
-      <c r="AN20" s="20">
-        <f>M8*$C19</f>
-        <v>0</v>
-      </c>
-      <c r="AO20" s="20">
-        <f>H8*$F19</f>
-        <v>0</v>
-      </c>
-      <c r="AP20" s="20">
-        <f>M8*$F19</f>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN20" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO20" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP20" s="18">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="2">
@@ -4162,7 +4087,7 @@
       <c r="F21" s="5">
         <v>3</v>
       </c>
-      <c r="G21" s="65">
+      <c r="G21" s="48">
         <v>6</v>
       </c>
       <c r="H21" s="16"/>
@@ -4175,65 +4100,65 @@
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
       <c r="Z21" s="16"/>
       <c r="AA21" s="16"/>
       <c r="AB21" s="16"/>
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="20"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
       <c r="AG21" s="16"/>
       <c r="AH21" s="16"/>
       <c r="AI21" s="16"/>
       <c r="AJ21" s="16"/>
       <c r="AK21" s="16"/>
-      <c r="AL21" s="20"/>
-      <c r="AM21" s="20">
-        <f>H9*C20</f>
-        <v>0</v>
-      </c>
-      <c r="AN21" s="20">
-        <f>M9*$C20</f>
-        <v>0</v>
-      </c>
-      <c r="AO21" s="20">
-        <f>H9*$F20</f>
-        <v>0</v>
-      </c>
-      <c r="AP21" s="20">
-        <f>M9*$F20</f>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN21" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP21" s="18">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="69">
+      <c r="B22" s="52">
         <v>10</v>
       </c>
-      <c r="C22" s="69">
-        <v>20</v>
-      </c>
-      <c r="D22" s="69">
+      <c r="C22" s="52">
+        <v>30</v>
+      </c>
+      <c r="D22" s="52">
         <v>2</v>
       </c>
-      <c r="E22" s="70">
-        <v>4</v>
-      </c>
-      <c r="F22" s="71">
-        <v>15</v>
-      </c>
-      <c r="G22" s="72">
-        <v>1</v>
+      <c r="E22" s="53">
+        <v>10</v>
+      </c>
+      <c r="F22" s="54">
+        <v>25</v>
+      </c>
+      <c r="G22" s="55">
+        <v>5</v>
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
@@ -4245,240 +4170,212 @@
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
       <c r="Z22" s="16"/>
       <c r="AA22" s="16"/>
       <c r="AB22" s="16"/>
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="20"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
       <c r="AG22" s="16"/>
       <c r="AH22" s="16"/>
       <c r="AI22" s="16"/>
       <c r="AJ22" s="16"/>
       <c r="AK22" s="16"/>
-      <c r="AL22" s="20"/>
-      <c r="AM22" s="20">
-        <f>H10*C21</f>
-        <v>0</v>
-      </c>
-      <c r="AN22" s="20">
-        <f>M10*$C21</f>
-        <v>0</v>
-      </c>
-      <c r="AO22" s="20">
-        <f>H10*$F21</f>
-        <v>0</v>
-      </c>
-      <c r="AP22" s="20">
-        <f>M10*$F21</f>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="18">
+        <f t="shared" si="17"/>
+        <v>75</v>
+      </c>
+      <c r="AN22" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO22" s="18">
+        <f t="shared" si="15"/>
+        <v>75</v>
+      </c>
+      <c r="AP22" s="18">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="20"/>
-      <c r="AL23" s="20"/>
-      <c r="AM23" s="20">
-        <f>H11*C22</f>
-        <v>0</v>
-      </c>
-      <c r="AN23" s="20">
-        <f>M11*$C22</f>
-        <v>0</v>
-      </c>
-      <c r="AO23" s="20">
-        <f>H11*$F22</f>
-        <v>0</v>
-      </c>
-      <c r="AP23" s="20">
-        <f>M11*$F22</f>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AL23" s="18"/>
+      <c r="AM23" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN23" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO23" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP23" s="18">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:42" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U24" s="83"/>
-      <c r="V24" s="83"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="83"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="20"/>
-      <c r="AL24" s="81" t="s">
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+      <c r="AL24" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="AM24" s="82">
+      <c r="AM24" s="63">
         <f>SUM(AM14:AM23)</f>
+        <v>75</v>
+      </c>
+      <c r="AN24" s="63">
+        <f>SUM(AN14:AN23)</f>
         <v>198</v>
       </c>
-      <c r="AN24" s="82">
-        <f>SUM(AN14:AN23)</f>
+      <c r="AO24" s="63">
+        <f>SUM(AO14:AO23)</f>
+        <v>75</v>
+      </c>
+      <c r="AP24" s="63">
+        <f>SUM(AP14:AP23)</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" s="16" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AL25" s="18"/>
+      <c r="AM25" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN25" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO25" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AO24" s="82">
-        <f>SUM(AO14:AO23)</f>
+      <c r="AP25" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="18">
+        <f t="shared" ref="AM26:AM35" si="18">H2*$D13</f>
+        <v>0</v>
+      </c>
+      <c r="AN26" s="18">
+        <f t="shared" ref="AN26:AN35" si="19">M2*$D13</f>
+        <v>0</v>
+      </c>
+      <c r="AO26" s="18">
+        <f t="shared" ref="AO26:AO35" si="20">H2*$G13</f>
+        <v>0</v>
+      </c>
+      <c r="AP26" s="18">
+        <f t="shared" ref="AP26:AP35" si="21">M2*$G13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+      <c r="AL27" s="18"/>
+      <c r="AM27" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AN27" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AO27" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AP27" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+      <c r="AL28" s="18"/>
+      <c r="AM28" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AN28" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AO28" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AP28" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
+      <c r="AL29" s="18"/>
+      <c r="AM29" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AN29" s="18">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="AO29" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AP29" s="18">
+        <f t="shared" si="21"/>
         <v>132</v>
       </c>
-      <c r="AP24" s="82">
-        <f>SUM(AP14:AP23)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:42" s="16" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="U25" s="83"/>
-      <c r="V25" s="83"/>
-      <c r="W25" s="83"/>
-      <c r="X25" s="83"/>
-      <c r="AE25" s="20"/>
-      <c r="AF25" s="20"/>
-      <c r="AL25" s="20"/>
-      <c r="AM25" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN25" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO25" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP25" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="U26" s="83"/>
-      <c r="V26" s="83"/>
-      <c r="W26" s="83"/>
-      <c r="X26" s="83"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="20"/>
-      <c r="AL26" s="20"/>
-      <c r="AM26" s="20">
-        <f>H2*$D13</f>
-        <v>0</v>
-      </c>
-      <c r="AN26" s="20">
-        <f>M2*$D13</f>
-        <v>0</v>
-      </c>
-      <c r="AO26" s="20">
-        <f>H2*$G13</f>
-        <v>0</v>
-      </c>
-      <c r="AP26" s="20">
-        <f>M2*$G13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="U27" s="83"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="83"/>
-      <c r="X27" s="83"/>
-      <c r="AE27" s="20"/>
-      <c r="AF27" s="20"/>
-      <c r="AL27" s="20"/>
-      <c r="AM27" s="20">
-        <f>H3*$D14</f>
-        <v>0</v>
-      </c>
-      <c r="AN27" s="20">
-        <f>M3*$D14</f>
-        <v>0</v>
-      </c>
-      <c r="AO27" s="20">
-        <f>H3*$G14</f>
-        <v>0</v>
-      </c>
-      <c r="AP27" s="20">
-        <f>M3*$G14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="U28" s="83"/>
-      <c r="V28" s="83"/>
-      <c r="W28" s="83"/>
-      <c r="X28" s="83"/>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
-      <c r="AL28" s="20"/>
-      <c r="AM28" s="20">
-        <f>H4*$D15</f>
-        <v>0</v>
-      </c>
-      <c r="AN28" s="20">
-        <f>M4*$D15</f>
-        <v>50</v>
-      </c>
-      <c r="AO28" s="20">
-        <f>H4*$G15</f>
-        <v>0</v>
-      </c>
-      <c r="AP28" s="20">
-        <f>M4*$G15</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="U29" s="83"/>
-      <c r="V29" s="83"/>
-      <c r="W29" s="83"/>
-      <c r="X29" s="83"/>
-      <c r="AE29" s="20"/>
-      <c r="AF29" s="20"/>
-      <c r="AL29" s="20"/>
-      <c r="AM29" s="20">
-        <f>H5*$D16</f>
-        <v>33</v>
-      </c>
-      <c r="AN29" s="20">
-        <f>M5*$D16</f>
-        <v>0</v>
-      </c>
-      <c r="AO29" s="20">
-        <f>H5*$G16</f>
-        <v>132</v>
-      </c>
-      <c r="AP29" s="20">
-        <f>M5*$G16</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="U30" s="83"/>
-      <c r="V30" s="83"/>
-      <c r="W30" s="83"/>
-      <c r="X30" s="83"/>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="20"/>
-      <c r="AL30" s="20"/>
-      <c r="AM30" s="20">
-        <f>H6*$D17</f>
-        <v>0</v>
-      </c>
-      <c r="AN30" s="20">
-        <f>M6*$D17</f>
-        <v>0</v>
-      </c>
-      <c r="AO30" s="20">
-        <f>H6*$G17</f>
-        <v>0</v>
-      </c>
-      <c r="AP30" s="20">
-        <f>M6*$G17</f>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18"/>
+      <c r="AL30" s="18"/>
+      <c r="AM30" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AN30" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AO30" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AP30" s="18">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -4503,38 +4400,38 @@
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
-      <c r="U31" s="83"/>
-      <c r="V31" s="83"/>
-      <c r="W31" s="83"/>
-      <c r="X31" s="83"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
       <c r="Y31" s="16"/>
       <c r="Z31" s="16"/>
       <c r="AA31" s="16"/>
       <c r="AB31" s="16"/>
       <c r="AC31" s="16"/>
       <c r="AD31" s="16"/>
-      <c r="AE31" s="20"/>
-      <c r="AF31" s="20"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18"/>
       <c r="AG31" s="16"/>
       <c r="AH31" s="16"/>
       <c r="AI31" s="16"/>
       <c r="AJ31" s="16"/>
       <c r="AK31" s="16"/>
-      <c r="AL31" s="20"/>
-      <c r="AM31" s="20">
-        <f>H7*$D18</f>
-        <v>0</v>
-      </c>
-      <c r="AN31" s="20">
-        <f>M7*$D18</f>
-        <v>0</v>
-      </c>
-      <c r="AO31" s="20">
-        <f>H7*$G18</f>
-        <v>0</v>
-      </c>
-      <c r="AP31" s="20">
-        <f>M7*$G18</f>
+      <c r="AL31" s="18"/>
+      <c r="AM31" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AN31" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AO31" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AP31" s="18">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -4569,28 +4466,28 @@
       <c r="AB32" s="16"/>
       <c r="AC32" s="16"/>
       <c r="AD32" s="16"/>
-      <c r="AE32" s="20"/>
-      <c r="AF32" s="20"/>
+      <c r="AE32" s="18"/>
+      <c r="AF32" s="18"/>
       <c r="AG32" s="16"/>
       <c r="AH32" s="16"/>
       <c r="AI32" s="16"/>
       <c r="AJ32" s="16"/>
       <c r="AK32" s="16"/>
-      <c r="AL32" s="20"/>
-      <c r="AM32" s="20">
-        <f>H8*$D19</f>
-        <v>0</v>
-      </c>
-      <c r="AN32" s="20">
-        <f>M8*$D19</f>
-        <v>0</v>
-      </c>
-      <c r="AO32" s="20">
-        <f>H8*$G19</f>
-        <v>0</v>
-      </c>
-      <c r="AP32" s="20">
-        <f>M8*$G19</f>
+      <c r="AL32" s="18"/>
+      <c r="AM32" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AN32" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AO32" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AP32" s="18">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -4625,28 +4522,28 @@
       <c r="AB33" s="16"/>
       <c r="AC33" s="16"/>
       <c r="AD33" s="16"/>
-      <c r="AE33" s="20"/>
-      <c r="AF33" s="20"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="18"/>
       <c r="AG33" s="16"/>
       <c r="AH33" s="16"/>
       <c r="AI33" s="16"/>
       <c r="AJ33" s="16"/>
       <c r="AK33" s="16"/>
-      <c r="AL33" s="20"/>
-      <c r="AM33" s="20">
-        <f>H9*$D20</f>
-        <v>0</v>
-      </c>
-      <c r="AN33" s="20">
-        <f>M9*$D20</f>
-        <v>0</v>
-      </c>
-      <c r="AO33" s="20">
-        <f>H9*$G20</f>
-        <v>0</v>
-      </c>
-      <c r="AP33" s="20">
-        <f>M9*$G20</f>
+      <c r="AL33" s="18"/>
+      <c r="AM33" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AN33" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AO33" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AP33" s="18">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -4681,28 +4578,28 @@
       <c r="AB34" s="16"/>
       <c r="AC34" s="16"/>
       <c r="AD34" s="16"/>
-      <c r="AE34" s="20"/>
-      <c r="AF34" s="20"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
       <c r="AG34" s="16"/>
       <c r="AH34" s="16"/>
       <c r="AI34" s="16"/>
       <c r="AJ34" s="16"/>
       <c r="AK34" s="16"/>
-      <c r="AL34" s="20"/>
-      <c r="AM34" s="20">
-        <f>H10*$D21</f>
-        <v>0</v>
-      </c>
-      <c r="AN34" s="20">
-        <f>M10*$D21</f>
-        <v>0</v>
-      </c>
-      <c r="AO34" s="20">
-        <f>H10*$G21</f>
-        <v>0</v>
-      </c>
-      <c r="AP34" s="20">
-        <f>M10*$G21</f>
+      <c r="AL34" s="18"/>
+      <c r="AM34" s="18">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="AN34" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AO34" s="18">
+        <f t="shared" si="20"/>
+        <v>150</v>
+      </c>
+      <c r="AP34" s="18">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -4737,28 +4634,28 @@
       <c r="AB35" s="16"/>
       <c r="AC35" s="16"/>
       <c r="AD35" s="16"/>
-      <c r="AE35" s="20"/>
-      <c r="AF35" s="20"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
       <c r="AG35" s="16"/>
       <c r="AH35" s="16"/>
       <c r="AI35" s="16"/>
       <c r="AJ35" s="16"/>
       <c r="AK35" s="16"/>
-      <c r="AL35" s="20"/>
-      <c r="AM35" s="20">
-        <f>H11*$D22</f>
-        <v>0</v>
-      </c>
-      <c r="AN35" s="20">
-        <f>M11*$D22</f>
-        <v>0</v>
-      </c>
-      <c r="AO35" s="20">
-        <f>H11*$G22</f>
-        <v>0</v>
-      </c>
-      <c r="AP35" s="20">
-        <f>M11*$G22</f>
+      <c r="AL35" s="18"/>
+      <c r="AM35" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AN35" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AO35" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AP35" s="18">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -4793,31 +4690,31 @@
       <c r="AB36" s="16"/>
       <c r="AC36" s="16"/>
       <c r="AD36" s="16"/>
-      <c r="AE36" s="20"/>
-      <c r="AF36" s="20"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
       <c r="AG36" s="16"/>
       <c r="AH36" s="16"/>
       <c r="AI36" s="16"/>
       <c r="AJ36" s="16"/>
       <c r="AK36" s="16"/>
-      <c r="AL36" s="81" t="s">
+      <c r="AL36" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="AM36" s="23">
+      <c r="AM36" s="20">
         <f>SUM(AM26:AM35)</f>
+        <v>200</v>
+      </c>
+      <c r="AN36" s="20">
+        <f>SUM(AN26:AN35)</f>
         <v>33</v>
       </c>
-      <c r="AN36" s="23">
-        <f>SUM(AN26:AN35)</f>
-        <v>50</v>
-      </c>
-      <c r="AO36" s="23">
+      <c r="AO36" s="20">
         <f>SUM(AO26:AO35)</f>
+        <v>150</v>
+      </c>
+      <c r="AP36" s="20">
+        <f>SUM(AP26:AP35)</f>
         <v>132</v>
-      </c>
-      <c r="AP36" s="23">
-        <f>SUM(AP26:AP35)</f>
-        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:42" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -4851,17 +4748,17 @@
       <c r="AB37" s="16"/>
       <c r="AC37" s="16"/>
       <c r="AD37" s="16"/>
-      <c r="AE37" s="20"/>
-      <c r="AF37" s="20"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
       <c r="AG37" s="16"/>
       <c r="AH37" s="16"/>
       <c r="AI37" s="16"/>
       <c r="AJ37" s="16"/>
       <c r="AK37" s="16"/>
-      <c r="AL37" s="20"/>
-      <c r="AM37" s="20"/>
-      <c r="AN37" s="20"/>
-      <c r="AO37" s="20"/>
+      <c r="AL37" s="18"/>
+      <c r="AM37" s="18"/>
+      <c r="AN37" s="18"/>
+      <c r="AO37" s="18"/>
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A38" s="16"/>
@@ -4894,17 +4791,17 @@
       <c r="AB38" s="16"/>
       <c r="AC38" s="16"/>
       <c r="AD38" s="16"/>
-      <c r="AE38" s="20"/>
-      <c r="AF38" s="20"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
       <c r="AG38" s="16"/>
       <c r="AH38" s="16"/>
       <c r="AI38" s="16"/>
       <c r="AJ38" s="16"/>
       <c r="AK38" s="16"/>
-      <c r="AL38" s="20"/>
-      <c r="AM38" s="20"/>
-      <c r="AN38" s="20"/>
-      <c r="AO38" s="20"/>
+      <c r="AL38" s="18"/>
+      <c r="AM38" s="18"/>
+      <c r="AN38" s="18"/>
+      <c r="AO38" s="18"/>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A39" s="16"/>
@@ -4937,17 +4834,17 @@
       <c r="AB39" s="16"/>
       <c r="AC39" s="16"/>
       <c r="AD39" s="16"/>
-      <c r="AE39" s="20"/>
-      <c r="AF39" s="20"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
       <c r="AG39" s="16"/>
       <c r="AH39" s="16"/>
       <c r="AI39" s="16"/>
       <c r="AJ39" s="16"/>
       <c r="AK39" s="16"/>
-      <c r="AL39" s="20"/>
-      <c r="AM39" s="20"/>
-      <c r="AN39" s="20"/>
-      <c r="AO39" s="20"/>
+      <c r="AL39" s="18"/>
+      <c r="AM39" s="18"/>
+      <c r="AN39" s="18"/>
+      <c r="AO39" s="18"/>
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
@@ -4980,17 +4877,17 @@
       <c r="AB40" s="16"/>
       <c r="AC40" s="16"/>
       <c r="AD40" s="16"/>
-      <c r="AE40" s="20"/>
-      <c r="AF40" s="20"/>
+      <c r="AE40" s="18"/>
+      <c r="AF40" s="18"/>
       <c r="AG40" s="16"/>
       <c r="AH40" s="16"/>
       <c r="AI40" s="16"/>
       <c r="AJ40" s="16"/>
       <c r="AK40" s="16"/>
-      <c r="AL40" s="20"/>
-      <c r="AM40" s="20"/>
-      <c r="AN40" s="20"/>
-      <c r="AO40" s="20"/>
+      <c r="AL40" s="18"/>
+      <c r="AM40" s="18"/>
+      <c r="AN40" s="18"/>
+      <c r="AO40" s="18"/>
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
@@ -5023,17 +4920,17 @@
       <c r="AB41" s="16"/>
       <c r="AC41" s="16"/>
       <c r="AD41" s="16"/>
-      <c r="AE41" s="20"/>
-      <c r="AF41" s="20"/>
+      <c r="AE41" s="18"/>
+      <c r="AF41" s="18"/>
       <c r="AG41" s="16"/>
       <c r="AH41" s="16"/>
       <c r="AI41" s="16"/>
       <c r="AJ41" s="16"/>
       <c r="AK41" s="16"/>
-      <c r="AL41" s="20"/>
-      <c r="AM41" s="20"/>
-      <c r="AN41" s="20"/>
-      <c r="AO41" s="20"/>
+      <c r="AL41" s="18"/>
+      <c r="AM41" s="18"/>
+      <c r="AN41" s="18"/>
+      <c r="AO41" s="18"/>
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
@@ -5066,17 +4963,17 @@
       <c r="AB42" s="16"/>
       <c r="AC42" s="16"/>
       <c r="AD42" s="16"/>
-      <c r="AE42" s="20"/>
-      <c r="AF42" s="20"/>
+      <c r="AE42" s="18"/>
+      <c r="AF42" s="18"/>
       <c r="AG42" s="16"/>
       <c r="AH42" s="16"/>
       <c r="AI42" s="16"/>
       <c r="AJ42" s="16"/>
       <c r="AK42" s="16"/>
-      <c r="AL42" s="20"/>
-      <c r="AM42" s="20"/>
-      <c r="AN42" s="20"/>
-      <c r="AO42" s="20"/>
+      <c r="AL42" s="18"/>
+      <c r="AM42" s="18"/>
+      <c r="AN42" s="18"/>
+      <c r="AO42" s="18"/>
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
@@ -5109,17 +5006,17 @@
       <c r="AB43" s="16"/>
       <c r="AC43" s="16"/>
       <c r="AD43" s="16"/>
-      <c r="AE43" s="20"/>
-      <c r="AF43" s="20"/>
+      <c r="AE43" s="18"/>
+      <c r="AF43" s="18"/>
       <c r="AG43" s="16"/>
       <c r="AH43" s="16"/>
       <c r="AI43" s="16"/>
       <c r="AJ43" s="16"/>
       <c r="AK43" s="16"/>
-      <c r="AL43" s="20"/>
-      <c r="AM43" s="20"/>
-      <c r="AN43" s="20"/>
-      <c r="AO43" s="20"/>
+      <c r="AL43" s="18"/>
+      <c r="AM43" s="18"/>
+      <c r="AN43" s="18"/>
+      <c r="AO43" s="18"/>
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
@@ -5152,17 +5049,17 @@
       <c r="AB44" s="16"/>
       <c r="AC44" s="16"/>
       <c r="AD44" s="16"/>
-      <c r="AE44" s="20"/>
-      <c r="AF44" s="20"/>
+      <c r="AE44" s="18"/>
+      <c r="AF44" s="18"/>
       <c r="AG44" s="16"/>
       <c r="AH44" s="16"/>
       <c r="AI44" s="16"/>
       <c r="AJ44" s="16"/>
       <c r="AK44" s="16"/>
-      <c r="AL44" s="20"/>
-      <c r="AM44" s="20"/>
-      <c r="AN44" s="20"/>
-      <c r="AO44" s="20"/>
+      <c r="AL44" s="18"/>
+      <c r="AM44" s="18"/>
+      <c r="AN44" s="18"/>
+      <c r="AO44" s="18"/>
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A45" s="16"/>
@@ -5195,17 +5092,17 @@
       <c r="AB45" s="16"/>
       <c r="AC45" s="16"/>
       <c r="AD45" s="16"/>
-      <c r="AE45" s="20"/>
-      <c r="AF45" s="20"/>
+      <c r="AE45" s="18"/>
+      <c r="AF45" s="18"/>
       <c r="AG45" s="16"/>
       <c r="AH45" s="16"/>
       <c r="AI45" s="16"/>
       <c r="AJ45" s="16"/>
       <c r="AK45" s="16"/>
-      <c r="AL45" s="20"/>
-      <c r="AM45" s="20"/>
-      <c r="AN45" s="20"/>
-      <c r="AO45" s="20"/>
+      <c r="AL45" s="18"/>
+      <c r="AM45" s="18"/>
+      <c r="AN45" s="18"/>
+      <c r="AO45" s="18"/>
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
@@ -5238,17 +5135,17 @@
       <c r="AB46" s="16"/>
       <c r="AC46" s="16"/>
       <c r="AD46" s="16"/>
-      <c r="AE46" s="20"/>
-      <c r="AF46" s="20"/>
+      <c r="AE46" s="18"/>
+      <c r="AF46" s="18"/>
       <c r="AG46" s="16"/>
       <c r="AH46" s="16"/>
       <c r="AI46" s="16"/>
       <c r="AJ46" s="16"/>
       <c r="AK46" s="16"/>
-      <c r="AL46" s="20"/>
-      <c r="AM46" s="20"/>
-      <c r="AN46" s="20"/>
-      <c r="AO46" s="20"/>
+      <c r="AL46" s="18"/>
+      <c r="AM46" s="18"/>
+      <c r="AN46" s="18"/>
+      <c r="AO46" s="18"/>
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A47" s="16"/>
@@ -5281,17 +5178,17 @@
       <c r="AB47" s="16"/>
       <c r="AC47" s="16"/>
       <c r="AD47" s="16"/>
-      <c r="AE47" s="20"/>
-      <c r="AF47" s="20"/>
+      <c r="AE47" s="18"/>
+      <c r="AF47" s="18"/>
       <c r="AG47" s="16"/>
       <c r="AH47" s="16"/>
       <c r="AI47" s="16"/>
       <c r="AJ47" s="16"/>
       <c r="AK47" s="16"/>
-      <c r="AL47" s="20"/>
-      <c r="AM47" s="20"/>
-      <c r="AN47" s="20"/>
-      <c r="AO47" s="20"/>
+      <c r="AL47" s="18"/>
+      <c r="AM47" s="18"/>
+      <c r="AN47" s="18"/>
+      <c r="AO47" s="18"/>
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A48" s="16"/>
@@ -5324,17 +5221,17 @@
       <c r="AB48" s="16"/>
       <c r="AC48" s="16"/>
       <c r="AD48" s="16"/>
-      <c r="AE48" s="20"/>
-      <c r="AF48" s="20"/>
+      <c r="AE48" s="18"/>
+      <c r="AF48" s="18"/>
       <c r="AG48" s="16"/>
       <c r="AH48" s="16"/>
       <c r="AI48" s="16"/>
       <c r="AJ48" s="16"/>
       <c r="AK48" s="16"/>
-      <c r="AL48" s="20"/>
-      <c r="AM48" s="20"/>
-      <c r="AN48" s="20"/>
-      <c r="AO48" s="20"/>
+      <c r="AL48" s="18"/>
+      <c r="AM48" s="18"/>
+      <c r="AN48" s="18"/>
+      <c r="AO48" s="18"/>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A49" s="16"/>
@@ -5367,17 +5264,17 @@
       <c r="AB49" s="16"/>
       <c r="AC49" s="16"/>
       <c r="AD49" s="16"/>
-      <c r="AE49" s="20"/>
-      <c r="AF49" s="20"/>
+      <c r="AE49" s="18"/>
+      <c r="AF49" s="18"/>
       <c r="AG49" s="16"/>
       <c r="AH49" s="16"/>
       <c r="AI49" s="16"/>
       <c r="AJ49" s="16"/>
       <c r="AK49" s="16"/>
-      <c r="AL49" s="20"/>
-      <c r="AM49" s="20"/>
-      <c r="AN49" s="20"/>
-      <c r="AO49" s="20"/>
+      <c r="AL49" s="18"/>
+      <c r="AM49" s="18"/>
+      <c r="AN49" s="18"/>
+      <c r="AO49" s="18"/>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A50" s="16"/>
@@ -5410,17 +5307,17 @@
       <c r="AB50" s="16"/>
       <c r="AC50" s="16"/>
       <c r="AD50" s="16"/>
-      <c r="AE50" s="20"/>
-      <c r="AF50" s="20"/>
+      <c r="AE50" s="18"/>
+      <c r="AF50" s="18"/>
       <c r="AG50" s="16"/>
       <c r="AH50" s="16"/>
       <c r="AI50" s="16"/>
       <c r="AJ50" s="16"/>
       <c r="AK50" s="16"/>
-      <c r="AL50" s="20"/>
-      <c r="AM50" s="20"/>
-      <c r="AN50" s="20"/>
-      <c r="AO50" s="20"/>
+      <c r="AL50" s="18"/>
+      <c r="AM50" s="18"/>
+      <c r="AN50" s="18"/>
+      <c r="AO50" s="18"/>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A51" s="16"/>
@@ -5453,17 +5350,17 @@
       <c r="AB51" s="16"/>
       <c r="AC51" s="16"/>
       <c r="AD51" s="16"/>
-      <c r="AE51" s="20"/>
-      <c r="AF51" s="20"/>
+      <c r="AE51" s="18"/>
+      <c r="AF51" s="18"/>
       <c r="AG51" s="16"/>
       <c r="AH51" s="16"/>
       <c r="AI51" s="16"/>
       <c r="AJ51" s="16"/>
       <c r="AK51" s="16"/>
-      <c r="AL51" s="20"/>
-      <c r="AM51" s="20"/>
-      <c r="AN51" s="20"/>
-      <c r="AO51" s="20"/>
+      <c r="AL51" s="18"/>
+      <c r="AM51" s="18"/>
+      <c r="AN51" s="18"/>
+      <c r="AO51" s="18"/>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A52" s="16"/>
@@ -5496,17 +5393,17 @@
       <c r="AB52" s="16"/>
       <c r="AC52" s="16"/>
       <c r="AD52" s="16"/>
-      <c r="AE52" s="20"/>
-      <c r="AF52" s="20"/>
+      <c r="AE52" s="18"/>
+      <c r="AF52" s="18"/>
       <c r="AG52" s="16"/>
       <c r="AH52" s="16"/>
       <c r="AI52" s="16"/>
       <c r="AJ52" s="16"/>
       <c r="AK52" s="16"/>
-      <c r="AL52" s="20"/>
-      <c r="AM52" s="20"/>
-      <c r="AN52" s="20"/>
-      <c r="AO52" s="20"/>
+      <c r="AL52" s="18"/>
+      <c r="AM52" s="18"/>
+      <c r="AN52" s="18"/>
+      <c r="AO52" s="18"/>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A53" s="16"/>
@@ -5539,17 +5436,17 @@
       <c r="AB53" s="16"/>
       <c r="AC53" s="16"/>
       <c r="AD53" s="16"/>
-      <c r="AE53" s="20"/>
-      <c r="AF53" s="20"/>
+      <c r="AE53" s="18"/>
+      <c r="AF53" s="18"/>
       <c r="AG53" s="16"/>
       <c r="AH53" s="16"/>
       <c r="AI53" s="16"/>
       <c r="AJ53" s="16"/>
       <c r="AK53" s="16"/>
-      <c r="AL53" s="20"/>
-      <c r="AM53" s="20"/>
-      <c r="AN53" s="20"/>
-      <c r="AO53" s="20"/>
+      <c r="AL53" s="18"/>
+      <c r="AM53" s="18"/>
+      <c r="AN53" s="18"/>
+      <c r="AO53" s="18"/>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A54" s="16"/>
@@ -5582,17 +5479,17 @@
       <c r="AB54" s="16"/>
       <c r="AC54" s="16"/>
       <c r="AD54" s="16"/>
-      <c r="AE54" s="20"/>
-      <c r="AF54" s="20"/>
+      <c r="AE54" s="18"/>
+      <c r="AF54" s="18"/>
       <c r="AG54" s="16"/>
       <c r="AH54" s="16"/>
       <c r="AI54" s="16"/>
       <c r="AJ54" s="16"/>
       <c r="AK54" s="16"/>
-      <c r="AL54" s="20"/>
-      <c r="AM54" s="20"/>
-      <c r="AN54" s="20"/>
-      <c r="AO54" s="20"/>
+      <c r="AL54" s="18"/>
+      <c r="AM54" s="18"/>
+      <c r="AN54" s="18"/>
+      <c r="AO54" s="18"/>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A55" s="16"/>
@@ -5625,17 +5522,17 @@
       <c r="AB55" s="16"/>
       <c r="AC55" s="16"/>
       <c r="AD55" s="16"/>
-      <c r="AE55" s="20"/>
-      <c r="AF55" s="20"/>
+      <c r="AE55" s="18"/>
+      <c r="AF55" s="18"/>
       <c r="AG55" s="16"/>
       <c r="AH55" s="16"/>
       <c r="AI55" s="16"/>
       <c r="AJ55" s="16"/>
       <c r="AK55" s="16"/>
-      <c r="AL55" s="20"/>
-      <c r="AM55" s="20"/>
-      <c r="AN55" s="20"/>
-      <c r="AO55" s="20"/>
+      <c r="AL55" s="18"/>
+      <c r="AM55" s="18"/>
+      <c r="AN55" s="18"/>
+      <c r="AO55" s="18"/>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A56" s="16"/>
@@ -5668,17 +5565,17 @@
       <c r="AB56" s="16"/>
       <c r="AC56" s="16"/>
       <c r="AD56" s="16"/>
-      <c r="AE56" s="20"/>
-      <c r="AF56" s="20"/>
+      <c r="AE56" s="18"/>
+      <c r="AF56" s="18"/>
       <c r="AG56" s="16"/>
       <c r="AH56" s="16"/>
       <c r="AI56" s="16"/>
       <c r="AJ56" s="16"/>
       <c r="AK56" s="16"/>
-      <c r="AL56" s="20"/>
-      <c r="AM56" s="20"/>
-      <c r="AN56" s="20"/>
-      <c r="AO56" s="20"/>
+      <c r="AL56" s="18"/>
+      <c r="AM56" s="18"/>
+      <c r="AN56" s="18"/>
+      <c r="AO56" s="18"/>
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A57" s="16"/>
@@ -5711,17 +5608,17 @@
       <c r="AB57" s="16"/>
       <c r="AC57" s="16"/>
       <c r="AD57" s="16"/>
-      <c r="AE57" s="20"/>
-      <c r="AF57" s="20"/>
+      <c r="AE57" s="18"/>
+      <c r="AF57" s="18"/>
       <c r="AG57" s="16"/>
       <c r="AH57" s="16"/>
       <c r="AI57" s="16"/>
       <c r="AJ57" s="16"/>
       <c r="AK57" s="16"/>
-      <c r="AL57" s="20"/>
-      <c r="AM57" s="20"/>
-      <c r="AN57" s="20"/>
-      <c r="AO57" s="20"/>
+      <c r="AL57" s="18"/>
+      <c r="AM57" s="18"/>
+      <c r="AN57" s="18"/>
+      <c r="AO57" s="18"/>
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A58" s="16"/>
@@ -5754,17 +5651,17 @@
       <c r="AB58" s="16"/>
       <c r="AC58" s="16"/>
       <c r="AD58" s="16"/>
-      <c r="AE58" s="20"/>
-      <c r="AF58" s="20"/>
+      <c r="AE58" s="18"/>
+      <c r="AF58" s="18"/>
       <c r="AG58" s="16"/>
       <c r="AH58" s="16"/>
       <c r="AI58" s="16"/>
       <c r="AJ58" s="16"/>
       <c r="AK58" s="16"/>
-      <c r="AL58" s="20"/>
-      <c r="AM58" s="20"/>
-      <c r="AN58" s="20"/>
-      <c r="AO58" s="20"/>
+      <c r="AL58" s="18"/>
+      <c r="AM58" s="18"/>
+      <c r="AN58" s="18"/>
+      <c r="AO58" s="18"/>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A59" s="16"/>
@@ -5797,17 +5694,17 @@
       <c r="AB59" s="16"/>
       <c r="AC59" s="16"/>
       <c r="AD59" s="16"/>
-      <c r="AE59" s="20"/>
-      <c r="AF59" s="20"/>
+      <c r="AE59" s="18"/>
+      <c r="AF59" s="18"/>
       <c r="AG59" s="16"/>
       <c r="AH59" s="16"/>
       <c r="AI59" s="16"/>
       <c r="AJ59" s="16"/>
       <c r="AK59" s="16"/>
-      <c r="AL59" s="20"/>
-      <c r="AM59" s="20"/>
-      <c r="AN59" s="20"/>
-      <c r="AO59" s="20"/>
+      <c r="AL59" s="18"/>
+      <c r="AM59" s="18"/>
+      <c r="AN59" s="18"/>
+      <c r="AO59" s="18"/>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
@@ -5840,17 +5737,17 @@
       <c r="AB60" s="16"/>
       <c r="AC60" s="16"/>
       <c r="AD60" s="16"/>
-      <c r="AE60" s="20"/>
-      <c r="AF60" s="20"/>
+      <c r="AE60" s="18"/>
+      <c r="AF60" s="18"/>
       <c r="AG60" s="16"/>
       <c r="AH60" s="16"/>
       <c r="AI60" s="16"/>
       <c r="AJ60" s="16"/>
       <c r="AK60" s="16"/>
-      <c r="AL60" s="20"/>
-      <c r="AM60" s="20"/>
-      <c r="AN60" s="20"/>
-      <c r="AO60" s="20"/>
+      <c r="AL60" s="18"/>
+      <c r="AM60" s="18"/>
+      <c r="AN60" s="18"/>
+      <c r="AO60" s="18"/>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A61" s="16"/>
@@ -5883,17 +5780,17 @@
       <c r="AB61" s="16"/>
       <c r="AC61" s="16"/>
       <c r="AD61" s="16"/>
-      <c r="AE61" s="20"/>
-      <c r="AF61" s="20"/>
+      <c r="AE61" s="18"/>
+      <c r="AF61" s="18"/>
       <c r="AG61" s="16"/>
       <c r="AH61" s="16"/>
       <c r="AI61" s="16"/>
       <c r="AJ61" s="16"/>
       <c r="AK61" s="16"/>
-      <c r="AL61" s="20"/>
-      <c r="AM61" s="20"/>
-      <c r="AN61" s="20"/>
-      <c r="AO61" s="20"/>
+      <c r="AL61" s="18"/>
+      <c r="AM61" s="18"/>
+      <c r="AN61" s="18"/>
+      <c r="AO61" s="18"/>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A62" s="16"/>
@@ -5926,17 +5823,17 @@
       <c r="AB62" s="16"/>
       <c r="AC62" s="16"/>
       <c r="AD62" s="16"/>
-      <c r="AE62" s="20"/>
-      <c r="AF62" s="20"/>
+      <c r="AE62" s="18"/>
+      <c r="AF62" s="18"/>
       <c r="AG62" s="16"/>
       <c r="AH62" s="16"/>
       <c r="AI62" s="16"/>
       <c r="AJ62" s="16"/>
       <c r="AK62" s="16"/>
-      <c r="AL62" s="20"/>
-      <c r="AM62" s="20"/>
-      <c r="AN62" s="20"/>
-      <c r="AO62" s="20"/>
+      <c r="AL62" s="18"/>
+      <c r="AM62" s="18"/>
+      <c r="AN62" s="18"/>
+      <c r="AO62" s="18"/>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A63" s="16"/>
@@ -5969,17 +5866,17 @@
       <c r="AB63" s="16"/>
       <c r="AC63" s="16"/>
       <c r="AD63" s="16"/>
-      <c r="AE63" s="20"/>
-      <c r="AF63" s="20"/>
+      <c r="AE63" s="18"/>
+      <c r="AF63" s="18"/>
       <c r="AG63" s="16"/>
       <c r="AH63" s="16"/>
       <c r="AI63" s="16"/>
       <c r="AJ63" s="16"/>
       <c r="AK63" s="16"/>
-      <c r="AL63" s="20"/>
-      <c r="AM63" s="20"/>
-      <c r="AN63" s="20"/>
-      <c r="AO63" s="20"/>
+      <c r="AL63" s="18"/>
+      <c r="AM63" s="18"/>
+      <c r="AN63" s="18"/>
+      <c r="AO63" s="18"/>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A64" s="16"/>
@@ -6012,17 +5909,17 @@
       <c r="AB64" s="16"/>
       <c r="AC64" s="16"/>
       <c r="AD64" s="16"/>
-      <c r="AE64" s="20"/>
-      <c r="AF64" s="20"/>
+      <c r="AE64" s="18"/>
+      <c r="AF64" s="18"/>
       <c r="AG64" s="16"/>
       <c r="AH64" s="16"/>
       <c r="AI64" s="16"/>
       <c r="AJ64" s="16"/>
       <c r="AK64" s="16"/>
-      <c r="AL64" s="20"/>
-      <c r="AM64" s="20"/>
-      <c r="AN64" s="20"/>
-      <c r="AO64" s="20"/>
+      <c r="AL64" s="18"/>
+      <c r="AM64" s="18"/>
+      <c r="AN64" s="18"/>
+      <c r="AO64" s="18"/>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A65" s="16"/>
@@ -6055,17 +5952,17 @@
       <c r="AB65" s="16"/>
       <c r="AC65" s="16"/>
       <c r="AD65" s="16"/>
-      <c r="AE65" s="20"/>
-      <c r="AF65" s="20"/>
+      <c r="AE65" s="18"/>
+      <c r="AF65" s="18"/>
       <c r="AG65" s="16"/>
       <c r="AH65" s="16"/>
       <c r="AI65" s="16"/>
       <c r="AJ65" s="16"/>
       <c r="AK65" s="16"/>
-      <c r="AL65" s="20"/>
-      <c r="AM65" s="20"/>
-      <c r="AN65" s="20"/>
-      <c r="AO65" s="20"/>
+      <c r="AL65" s="18"/>
+      <c r="AM65" s="18"/>
+      <c r="AN65" s="18"/>
+      <c r="AO65" s="18"/>
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A66" s="16"/>
@@ -6098,17 +5995,17 @@
       <c r="AB66" s="16"/>
       <c r="AC66" s="16"/>
       <c r="AD66" s="16"/>
-      <c r="AE66" s="20"/>
-      <c r="AF66" s="20"/>
+      <c r="AE66" s="18"/>
+      <c r="AF66" s="18"/>
       <c r="AG66" s="16"/>
       <c r="AH66" s="16"/>
       <c r="AI66" s="16"/>
       <c r="AJ66" s="16"/>
       <c r="AK66" s="16"/>
-      <c r="AL66" s="20"/>
-      <c r="AM66" s="20"/>
-      <c r="AN66" s="20"/>
-      <c r="AO66" s="20"/>
+      <c r="AL66" s="18"/>
+      <c r="AM66" s="18"/>
+      <c r="AN66" s="18"/>
+      <c r="AO66" s="18"/>
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A67" s="16"/>
@@ -6141,17 +6038,17 @@
       <c r="AB67" s="16"/>
       <c r="AC67" s="16"/>
       <c r="AD67" s="16"/>
-      <c r="AE67" s="20"/>
-      <c r="AF67" s="20"/>
+      <c r="AE67" s="18"/>
+      <c r="AF67" s="18"/>
       <c r="AG67" s="16"/>
       <c r="AH67" s="16"/>
       <c r="AI67" s="16"/>
       <c r="AJ67" s="16"/>
       <c r="AK67" s="16"/>
-      <c r="AL67" s="20"/>
-      <c r="AM67" s="20"/>
-      <c r="AN67" s="20"/>
-      <c r="AO67" s="20"/>
+      <c r="AL67" s="18"/>
+      <c r="AM67" s="18"/>
+      <c r="AN67" s="18"/>
+      <c r="AO67" s="18"/>
     </row>
     <row r="68" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A68" s="16"/>
@@ -6184,17 +6081,17 @@
       <c r="AB68" s="16"/>
       <c r="AC68" s="16"/>
       <c r="AD68" s="16"/>
-      <c r="AE68" s="20"/>
-      <c r="AF68" s="20"/>
+      <c r="AE68" s="18"/>
+      <c r="AF68" s="18"/>
       <c r="AG68" s="16"/>
       <c r="AH68" s="16"/>
       <c r="AI68" s="16"/>
       <c r="AJ68" s="16"/>
       <c r="AK68" s="16"/>
-      <c r="AL68" s="20"/>
-      <c r="AM68" s="20"/>
-      <c r="AN68" s="20"/>
-      <c r="AO68" s="20"/>
+      <c r="AL68" s="18"/>
+      <c r="AM68" s="18"/>
+      <c r="AN68" s="18"/>
+      <c r="AO68" s="18"/>
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A69" s="16"/>
@@ -6227,17 +6124,17 @@
       <c r="AB69" s="16"/>
       <c r="AC69" s="16"/>
       <c r="AD69" s="16"/>
-      <c r="AE69" s="20"/>
-      <c r="AF69" s="20"/>
+      <c r="AE69" s="18"/>
+      <c r="AF69" s="18"/>
       <c r="AG69" s="16"/>
       <c r="AH69" s="16"/>
       <c r="AI69" s="16"/>
       <c r="AJ69" s="16"/>
       <c r="AK69" s="16"/>
-      <c r="AL69" s="20"/>
-      <c r="AM69" s="20"/>
-      <c r="AN69" s="20"/>
-      <c r="AO69" s="20"/>
+      <c r="AL69" s="18"/>
+      <c r="AM69" s="18"/>
+      <c r="AN69" s="18"/>
+      <c r="AO69" s="18"/>
     </row>
     <row r="70" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A70" s="16"/>
@@ -6270,17 +6167,17 @@
       <c r="AB70" s="16"/>
       <c r="AC70" s="16"/>
       <c r="AD70" s="16"/>
-      <c r="AE70" s="20"/>
-      <c r="AF70" s="20"/>
+      <c r="AE70" s="18"/>
+      <c r="AF70" s="18"/>
       <c r="AG70" s="16"/>
       <c r="AH70" s="16"/>
       <c r="AI70" s="16"/>
       <c r="AJ70" s="16"/>
       <c r="AK70" s="16"/>
-      <c r="AL70" s="20"/>
-      <c r="AM70" s="20"/>
-      <c r="AN70" s="20"/>
-      <c r="AO70" s="20"/>
+      <c r="AL70" s="18"/>
+      <c r="AM70" s="18"/>
+      <c r="AN70" s="18"/>
+      <c r="AO70" s="18"/>
     </row>
     <row r="71" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A71" s="16"/>
@@ -6313,17 +6210,17 @@
       <c r="AB71" s="16"/>
       <c r="AC71" s="16"/>
       <c r="AD71" s="16"/>
-      <c r="AE71" s="20"/>
-      <c r="AF71" s="20"/>
+      <c r="AE71" s="18"/>
+      <c r="AF71" s="18"/>
       <c r="AG71" s="16"/>
       <c r="AH71" s="16"/>
       <c r="AI71" s="16"/>
       <c r="AJ71" s="16"/>
       <c r="AK71" s="16"/>
-      <c r="AL71" s="20"/>
-      <c r="AM71" s="20"/>
-      <c r="AN71" s="20"/>
-      <c r="AO71" s="20"/>
+      <c r="AL71" s="18"/>
+      <c r="AM71" s="18"/>
+      <c r="AN71" s="18"/>
+      <c r="AO71" s="18"/>
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A72" s="16"/>
@@ -6356,17 +6253,17 @@
       <c r="AB72" s="16"/>
       <c r="AC72" s="16"/>
       <c r="AD72" s="16"/>
-      <c r="AE72" s="20"/>
-      <c r="AF72" s="20"/>
+      <c r="AE72" s="18"/>
+      <c r="AF72" s="18"/>
       <c r="AG72" s="16"/>
       <c r="AH72" s="16"/>
       <c r="AI72" s="16"/>
       <c r="AJ72" s="16"/>
       <c r="AK72" s="16"/>
-      <c r="AL72" s="20"/>
-      <c r="AM72" s="20"/>
-      <c r="AN72" s="20"/>
-      <c r="AO72" s="20"/>
+      <c r="AL72" s="18"/>
+      <c r="AM72" s="18"/>
+      <c r="AN72" s="18"/>
+      <c r="AO72" s="18"/>
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A73" s="16"/>
@@ -6399,17 +6296,17 @@
       <c r="AB73" s="16"/>
       <c r="AC73" s="16"/>
       <c r="AD73" s="16"/>
-      <c r="AE73" s="20"/>
-      <c r="AF73" s="20"/>
+      <c r="AE73" s="18"/>
+      <c r="AF73" s="18"/>
       <c r="AG73" s="16"/>
       <c r="AH73" s="16"/>
       <c r="AI73" s="16"/>
       <c r="AJ73" s="16"/>
       <c r="AK73" s="16"/>
-      <c r="AL73" s="20"/>
-      <c r="AM73" s="20"/>
-      <c r="AN73" s="20"/>
-      <c r="AO73" s="20"/>
+      <c r="AL73" s="18"/>
+      <c r="AM73" s="18"/>
+      <c r="AN73" s="18"/>
+      <c r="AO73" s="18"/>
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A74" s="16"/>
@@ -6442,17 +6339,17 @@
       <c r="AB74" s="16"/>
       <c r="AC74" s="16"/>
       <c r="AD74" s="16"/>
-      <c r="AE74" s="20"/>
-      <c r="AF74" s="20"/>
+      <c r="AE74" s="18"/>
+      <c r="AF74" s="18"/>
       <c r="AG74" s="16"/>
       <c r="AH74" s="16"/>
       <c r="AI74" s="16"/>
       <c r="AJ74" s="16"/>
       <c r="AK74" s="16"/>
-      <c r="AL74" s="20"/>
-      <c r="AM74" s="20"/>
-      <c r="AN74" s="20"/>
-      <c r="AO74" s="20"/>
+      <c r="AL74" s="18"/>
+      <c r="AM74" s="18"/>
+      <c r="AN74" s="18"/>
+      <c r="AO74" s="18"/>
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A75" s="16"/>
@@ -6485,17 +6382,17 @@
       <c r="AB75" s="16"/>
       <c r="AC75" s="16"/>
       <c r="AD75" s="16"/>
-      <c r="AE75" s="20"/>
-      <c r="AF75" s="20"/>
+      <c r="AE75" s="18"/>
+      <c r="AF75" s="18"/>
       <c r="AG75" s="16"/>
       <c r="AH75" s="16"/>
       <c r="AI75" s="16"/>
       <c r="AJ75" s="16"/>
       <c r="AK75" s="16"/>
-      <c r="AL75" s="20"/>
-      <c r="AM75" s="20"/>
-      <c r="AN75" s="20"/>
-      <c r="AO75" s="20"/>
+      <c r="AL75" s="18"/>
+      <c r="AM75" s="18"/>
+      <c r="AN75" s="18"/>
+      <c r="AO75" s="18"/>
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A76" s="16"/>
@@ -6528,17 +6425,17 @@
       <c r="AB76" s="16"/>
       <c r="AC76" s="16"/>
       <c r="AD76" s="16"/>
-      <c r="AE76" s="20"/>
-      <c r="AF76" s="20"/>
+      <c r="AE76" s="18"/>
+      <c r="AF76" s="18"/>
       <c r="AG76" s="16"/>
       <c r="AH76" s="16"/>
       <c r="AI76" s="16"/>
       <c r="AJ76" s="16"/>
       <c r="AK76" s="16"/>
-      <c r="AL76" s="20"/>
-      <c r="AM76" s="20"/>
-      <c r="AN76" s="20"/>
-      <c r="AO76" s="20"/>
+      <c r="AL76" s="18"/>
+      <c r="AM76" s="18"/>
+      <c r="AN76" s="18"/>
+      <c r="AO76" s="18"/>
     </row>
     <row r="77" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A77" s="16"/>
@@ -6571,17 +6468,17 @@
       <c r="AB77" s="16"/>
       <c r="AC77" s="16"/>
       <c r="AD77" s="16"/>
-      <c r="AE77" s="20"/>
-      <c r="AF77" s="20"/>
+      <c r="AE77" s="18"/>
+      <c r="AF77" s="18"/>
       <c r="AG77" s="16"/>
       <c r="AH77" s="16"/>
       <c r="AI77" s="16"/>
       <c r="AJ77" s="16"/>
       <c r="AK77" s="16"/>
-      <c r="AL77" s="20"/>
-      <c r="AM77" s="20"/>
-      <c r="AN77" s="20"/>
-      <c r="AO77" s="20"/>
+      <c r="AL77" s="18"/>
+      <c r="AM77" s="18"/>
+      <c r="AN77" s="18"/>
+      <c r="AO77" s="18"/>
     </row>
     <row r="78" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A78" s="16"/>
@@ -6614,17 +6511,17 @@
       <c r="AB78" s="16"/>
       <c r="AC78" s="16"/>
       <c r="AD78" s="16"/>
-      <c r="AE78" s="20"/>
-      <c r="AF78" s="20"/>
+      <c r="AE78" s="18"/>
+      <c r="AF78" s="18"/>
       <c r="AG78" s="16"/>
       <c r="AH78" s="16"/>
       <c r="AI78" s="16"/>
       <c r="AJ78" s="16"/>
       <c r="AK78" s="16"/>
-      <c r="AL78" s="20"/>
-      <c r="AM78" s="20"/>
-      <c r="AN78" s="20"/>
-      <c r="AO78" s="20"/>
+      <c r="AL78" s="18"/>
+      <c r="AM78" s="18"/>
+      <c r="AN78" s="18"/>
+      <c r="AO78" s="18"/>
     </row>
     <row r="79" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A79" s="16"/>
@@ -6657,17 +6554,17 @@
       <c r="AB79" s="16"/>
       <c r="AC79" s="16"/>
       <c r="AD79" s="16"/>
-      <c r="AE79" s="20"/>
-      <c r="AF79" s="20"/>
+      <c r="AE79" s="18"/>
+      <c r="AF79" s="18"/>
       <c r="AG79" s="16"/>
       <c r="AH79" s="16"/>
       <c r="AI79" s="16"/>
       <c r="AJ79" s="16"/>
       <c r="AK79" s="16"/>
-      <c r="AL79" s="20"/>
-      <c r="AM79" s="20"/>
-      <c r="AN79" s="20"/>
-      <c r="AO79" s="20"/>
+      <c r="AL79" s="18"/>
+      <c r="AM79" s="18"/>
+      <c r="AN79" s="18"/>
+      <c r="AO79" s="18"/>
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A80" s="16"/>
@@ -6700,17 +6597,17 @@
       <c r="AB80" s="16"/>
       <c r="AC80" s="16"/>
       <c r="AD80" s="16"/>
-      <c r="AE80" s="20"/>
-      <c r="AF80" s="20"/>
+      <c r="AE80" s="18"/>
+      <c r="AF80" s="18"/>
       <c r="AG80" s="16"/>
       <c r="AH80" s="16"/>
       <c r="AI80" s="16"/>
       <c r="AJ80" s="16"/>
       <c r="AK80" s="16"/>
-      <c r="AL80" s="20"/>
-      <c r="AM80" s="20"/>
-      <c r="AN80" s="20"/>
-      <c r="AO80" s="20"/>
+      <c r="AL80" s="18"/>
+      <c r="AM80" s="18"/>
+      <c r="AN80" s="18"/>
+      <c r="AO80" s="18"/>
     </row>
     <row r="81" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A81" s="16"/>
@@ -6743,17 +6640,17 @@
       <c r="AB81" s="16"/>
       <c r="AC81" s="16"/>
       <c r="AD81" s="16"/>
-      <c r="AE81" s="20"/>
-      <c r="AF81" s="20"/>
+      <c r="AE81" s="18"/>
+      <c r="AF81" s="18"/>
       <c r="AG81" s="16"/>
       <c r="AH81" s="16"/>
       <c r="AI81" s="16"/>
       <c r="AJ81" s="16"/>
       <c r="AK81" s="16"/>
-      <c r="AL81" s="20"/>
-      <c r="AM81" s="20"/>
-      <c r="AN81" s="20"/>
-      <c r="AO81" s="20"/>
+      <c r="AL81" s="18"/>
+      <c r="AM81" s="18"/>
+      <c r="AN81" s="18"/>
+      <c r="AO81" s="18"/>
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A82" s="16"/>
@@ -6786,17 +6683,17 @@
       <c r="AB82" s="16"/>
       <c r="AC82" s="16"/>
       <c r="AD82" s="16"/>
-      <c r="AE82" s="20"/>
-      <c r="AF82" s="20"/>
+      <c r="AE82" s="18"/>
+      <c r="AF82" s="18"/>
       <c r="AG82" s="16"/>
       <c r="AH82" s="16"/>
       <c r="AI82" s="16"/>
       <c r="AJ82" s="16"/>
       <c r="AK82" s="16"/>
-      <c r="AL82" s="20"/>
-      <c r="AM82" s="20"/>
-      <c r="AN82" s="20"/>
-      <c r="AO82" s="20"/>
+      <c r="AL82" s="18"/>
+      <c r="AM82" s="18"/>
+      <c r="AN82" s="18"/>
+      <c r="AO82" s="18"/>
     </row>
     <row r="83" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A83" s="16"/>
@@ -6829,17 +6726,17 @@
       <c r="AB83" s="16"/>
       <c r="AC83" s="16"/>
       <c r="AD83" s="16"/>
-      <c r="AE83" s="20"/>
-      <c r="AF83" s="20"/>
+      <c r="AE83" s="18"/>
+      <c r="AF83" s="18"/>
       <c r="AG83" s="16"/>
       <c r="AH83" s="16"/>
       <c r="AI83" s="16"/>
       <c r="AJ83" s="16"/>
       <c r="AK83" s="16"/>
-      <c r="AL83" s="20"/>
-      <c r="AM83" s="20"/>
-      <c r="AN83" s="20"/>
-      <c r="AO83" s="20"/>
+      <c r="AL83" s="18"/>
+      <c r="AM83" s="18"/>
+      <c r="AN83" s="18"/>
+      <c r="AO83" s="18"/>
     </row>
     <row r="84" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A84" s="16"/>
@@ -6872,17 +6769,17 @@
       <c r="AB84" s="16"/>
       <c r="AC84" s="16"/>
       <c r="AD84" s="16"/>
-      <c r="AE84" s="20"/>
-      <c r="AF84" s="20"/>
+      <c r="AE84" s="18"/>
+      <c r="AF84" s="18"/>
       <c r="AG84" s="16"/>
       <c r="AH84" s="16"/>
       <c r="AI84" s="16"/>
       <c r="AJ84" s="16"/>
       <c r="AK84" s="16"/>
-      <c r="AL84" s="20"/>
-      <c r="AM84" s="20"/>
-      <c r="AN84" s="20"/>
-      <c r="AO84" s="20"/>
+      <c r="AL84" s="18"/>
+      <c r="AM84" s="18"/>
+      <c r="AN84" s="18"/>
+      <c r="AO84" s="18"/>
     </row>
     <row r="85" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A85" s="16"/>
@@ -6915,17 +6812,17 @@
       <c r="AB85" s="16"/>
       <c r="AC85" s="16"/>
       <c r="AD85" s="16"/>
-      <c r="AE85" s="20"/>
-      <c r="AF85" s="20"/>
+      <c r="AE85" s="18"/>
+      <c r="AF85" s="18"/>
       <c r="AG85" s="16"/>
       <c r="AH85" s="16"/>
       <c r="AI85" s="16"/>
       <c r="AJ85" s="16"/>
       <c r="AK85" s="16"/>
-      <c r="AL85" s="20"/>
-      <c r="AM85" s="20"/>
-      <c r="AN85" s="20"/>
-      <c r="AO85" s="20"/>
+      <c r="AL85" s="18"/>
+      <c r="AM85" s="18"/>
+      <c r="AN85" s="18"/>
+      <c r="AO85" s="18"/>
     </row>
     <row r="86" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A86" s="16"/>
@@ -6958,17 +6855,17 @@
       <c r="AB86" s="16"/>
       <c r="AC86" s="16"/>
       <c r="AD86" s="16"/>
-      <c r="AE86" s="20"/>
-      <c r="AF86" s="20"/>
+      <c r="AE86" s="18"/>
+      <c r="AF86" s="18"/>
       <c r="AG86" s="16"/>
       <c r="AH86" s="16"/>
       <c r="AI86" s="16"/>
       <c r="AJ86" s="16"/>
       <c r="AK86" s="16"/>
-      <c r="AL86" s="20"/>
-      <c r="AM86" s="20"/>
-      <c r="AN86" s="20"/>
-      <c r="AO86" s="20"/>
+      <c r="AL86" s="18"/>
+      <c r="AM86" s="18"/>
+      <c r="AN86" s="18"/>
+      <c r="AO86" s="18"/>
     </row>
     <row r="87" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A87" s="16"/>
@@ -7001,17 +6898,17 @@
       <c r="AB87" s="16"/>
       <c r="AC87" s="16"/>
       <c r="AD87" s="16"/>
-      <c r="AE87" s="20"/>
-      <c r="AF87" s="20"/>
+      <c r="AE87" s="18"/>
+      <c r="AF87" s="18"/>
       <c r="AG87" s="16"/>
       <c r="AH87" s="16"/>
       <c r="AI87" s="16"/>
       <c r="AJ87" s="16"/>
       <c r="AK87" s="16"/>
-      <c r="AL87" s="20"/>
-      <c r="AM87" s="20"/>
-      <c r="AN87" s="20"/>
-      <c r="AO87" s="20"/>
+      <c r="AL87" s="18"/>
+      <c r="AM87" s="18"/>
+      <c r="AN87" s="18"/>
+      <c r="AO87" s="18"/>
     </row>
     <row r="88" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A88" s="16"/>
@@ -7044,17 +6941,17 @@
       <c r="AB88" s="16"/>
       <c r="AC88" s="16"/>
       <c r="AD88" s="16"/>
-      <c r="AE88" s="20"/>
-      <c r="AF88" s="20"/>
+      <c r="AE88" s="18"/>
+      <c r="AF88" s="18"/>
       <c r="AG88" s="16"/>
       <c r="AH88" s="16"/>
       <c r="AI88" s="16"/>
       <c r="AJ88" s="16"/>
       <c r="AK88" s="16"/>
-      <c r="AL88" s="20"/>
-      <c r="AM88" s="20"/>
-      <c r="AN88" s="20"/>
-      <c r="AO88" s="20"/>
+      <c r="AL88" s="18"/>
+      <c r="AM88" s="18"/>
+      <c r="AN88" s="18"/>
+      <c r="AO88" s="18"/>
     </row>
     <row r="89" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A89" s="16"/>
@@ -7087,17 +6984,17 @@
       <c r="AB89" s="16"/>
       <c r="AC89" s="16"/>
       <c r="AD89" s="16"/>
-      <c r="AE89" s="20"/>
-      <c r="AF89" s="20"/>
+      <c r="AE89" s="18"/>
+      <c r="AF89" s="18"/>
       <c r="AG89" s="16"/>
       <c r="AH89" s="16"/>
       <c r="AI89" s="16"/>
       <c r="AJ89" s="16"/>
       <c r="AK89" s="16"/>
-      <c r="AL89" s="20"/>
-      <c r="AM89" s="20"/>
-      <c r="AN89" s="20"/>
-      <c r="AO89" s="20"/>
+      <c r="AL89" s="18"/>
+      <c r="AM89" s="18"/>
+      <c r="AN89" s="18"/>
+      <c r="AO89" s="18"/>
     </row>
     <row r="90" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A90" s="16"/>
@@ -7130,17 +7027,17 @@
       <c r="AB90" s="16"/>
       <c r="AC90" s="16"/>
       <c r="AD90" s="16"/>
-      <c r="AE90" s="20"/>
-      <c r="AF90" s="20"/>
+      <c r="AE90" s="18"/>
+      <c r="AF90" s="18"/>
       <c r="AG90" s="16"/>
       <c r="AH90" s="16"/>
       <c r="AI90" s="16"/>
       <c r="AJ90" s="16"/>
       <c r="AK90" s="16"/>
-      <c r="AL90" s="20"/>
-      <c r="AM90" s="20"/>
-      <c r="AN90" s="20"/>
-      <c r="AO90" s="20"/>
+      <c r="AL90" s="18"/>
+      <c r="AM90" s="18"/>
+      <c r="AN90" s="18"/>
+      <c r="AO90" s="18"/>
     </row>
     <row r="91" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A91" s="16"/>
@@ -7173,17 +7070,17 @@
       <c r="AB91" s="16"/>
       <c r="AC91" s="16"/>
       <c r="AD91" s="16"/>
-      <c r="AE91" s="20"/>
-      <c r="AF91" s="20"/>
+      <c r="AE91" s="18"/>
+      <c r="AF91" s="18"/>
       <c r="AG91" s="16"/>
       <c r="AH91" s="16"/>
       <c r="AI91" s="16"/>
       <c r="AJ91" s="16"/>
       <c r="AK91" s="16"/>
-      <c r="AL91" s="20"/>
-      <c r="AM91" s="20"/>
-      <c r="AN91" s="20"/>
-      <c r="AO91" s="20"/>
+      <c r="AL91" s="18"/>
+      <c r="AM91" s="18"/>
+      <c r="AN91" s="18"/>
+      <c r="AO91" s="18"/>
     </row>
     <row r="92" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A92" s="16"/>
@@ -7216,17 +7113,17 @@
       <c r="AB92" s="16"/>
       <c r="AC92" s="16"/>
       <c r="AD92" s="16"/>
-      <c r="AE92" s="20"/>
-      <c r="AF92" s="20"/>
+      <c r="AE92" s="18"/>
+      <c r="AF92" s="18"/>
       <c r="AG92" s="16"/>
       <c r="AH92" s="16"/>
       <c r="AI92" s="16"/>
       <c r="AJ92" s="16"/>
       <c r="AK92" s="16"/>
-      <c r="AL92" s="20"/>
-      <c r="AM92" s="20"/>
-      <c r="AN92" s="20"/>
-      <c r="AO92" s="20"/>
+      <c r="AL92" s="18"/>
+      <c r="AM92" s="18"/>
+      <c r="AN92" s="18"/>
+      <c r="AO92" s="18"/>
     </row>
     <row r="93" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A93" s="16"/>
@@ -7259,17 +7156,17 @@
       <c r="AB93" s="16"/>
       <c r="AC93" s="16"/>
       <c r="AD93" s="16"/>
-      <c r="AE93" s="20"/>
-      <c r="AF93" s="20"/>
+      <c r="AE93" s="18"/>
+      <c r="AF93" s="18"/>
       <c r="AG93" s="16"/>
       <c r="AH93" s="16"/>
       <c r="AI93" s="16"/>
       <c r="AJ93" s="16"/>
       <c r="AK93" s="16"/>
-      <c r="AL93" s="20"/>
-      <c r="AM93" s="20"/>
-      <c r="AN93" s="20"/>
-      <c r="AO93" s="20"/>
+      <c r="AL93" s="18"/>
+      <c r="AM93" s="18"/>
+      <c r="AN93" s="18"/>
+      <c r="AO93" s="18"/>
     </row>
     <row r="94" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A94" s="16"/>
@@ -7302,17 +7199,17 @@
       <c r="AB94" s="16"/>
       <c r="AC94" s="16"/>
       <c r="AD94" s="16"/>
-      <c r="AE94" s="20"/>
-      <c r="AF94" s="20"/>
+      <c r="AE94" s="18"/>
+      <c r="AF94" s="18"/>
       <c r="AG94" s="16"/>
       <c r="AH94" s="16"/>
       <c r="AI94" s="16"/>
       <c r="AJ94" s="16"/>
       <c r="AK94" s="16"/>
-      <c r="AL94" s="20"/>
-      <c r="AM94" s="20"/>
-      <c r="AN94" s="20"/>
-      <c r="AO94" s="20"/>
+      <c r="AL94" s="18"/>
+      <c r="AM94" s="18"/>
+      <c r="AN94" s="18"/>
+      <c r="AO94" s="18"/>
     </row>
     <row r="95" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A95" s="16"/>
@@ -7345,17 +7242,17 @@
       <c r="AB95" s="16"/>
       <c r="AC95" s="16"/>
       <c r="AD95" s="16"/>
-      <c r="AE95" s="20"/>
-      <c r="AF95" s="20"/>
+      <c r="AE95" s="18"/>
+      <c r="AF95" s="18"/>
       <c r="AG95" s="16"/>
       <c r="AH95" s="16"/>
       <c r="AI95" s="16"/>
       <c r="AJ95" s="16"/>
       <c r="AK95" s="16"/>
-      <c r="AL95" s="20"/>
-      <c r="AM95" s="20"/>
-      <c r="AN95" s="20"/>
-      <c r="AO95" s="20"/>
+      <c r="AL95" s="18"/>
+      <c r="AM95" s="18"/>
+      <c r="AN95" s="18"/>
+      <c r="AO95" s="18"/>
     </row>
     <row r="96" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A96" s="16"/>
@@ -7388,17 +7285,17 @@
       <c r="AB96" s="16"/>
       <c r="AC96" s="16"/>
       <c r="AD96" s="16"/>
-      <c r="AE96" s="20"/>
-      <c r="AF96" s="20"/>
+      <c r="AE96" s="18"/>
+      <c r="AF96" s="18"/>
       <c r="AG96" s="16"/>
       <c r="AH96" s="16"/>
       <c r="AI96" s="16"/>
       <c r="AJ96" s="16"/>
       <c r="AK96" s="16"/>
-      <c r="AL96" s="20"/>
-      <c r="AM96" s="20"/>
-      <c r="AN96" s="20"/>
-      <c r="AO96" s="20"/>
+      <c r="AL96" s="18"/>
+      <c r="AM96" s="18"/>
+      <c r="AN96" s="18"/>
+      <c r="AO96" s="18"/>
     </row>
     <row r="97" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A97" s="16"/>
@@ -7431,17 +7328,17 @@
       <c r="AB97" s="16"/>
       <c r="AC97" s="16"/>
       <c r="AD97" s="16"/>
-      <c r="AE97" s="20"/>
-      <c r="AF97" s="20"/>
+      <c r="AE97" s="18"/>
+      <c r="AF97" s="18"/>
       <c r="AG97" s="16"/>
       <c r="AH97" s="16"/>
       <c r="AI97" s="16"/>
       <c r="AJ97" s="16"/>
       <c r="AK97" s="16"/>
-      <c r="AL97" s="20"/>
-      <c r="AM97" s="20"/>
-      <c r="AN97" s="20"/>
-      <c r="AO97" s="20"/>
+      <c r="AL97" s="18"/>
+      <c r="AM97" s="18"/>
+      <c r="AN97" s="18"/>
+      <c r="AO97" s="18"/>
     </row>
     <row r="98" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A98" s="16"/>
@@ -7474,17 +7371,17 @@
       <c r="AB98" s="16"/>
       <c r="AC98" s="16"/>
       <c r="AD98" s="16"/>
-      <c r="AE98" s="20"/>
-      <c r="AF98" s="20"/>
+      <c r="AE98" s="18"/>
+      <c r="AF98" s="18"/>
       <c r="AG98" s="16"/>
       <c r="AH98" s="16"/>
       <c r="AI98" s="16"/>
       <c r="AJ98" s="16"/>
       <c r="AK98" s="16"/>
-      <c r="AL98" s="20"/>
-      <c r="AM98" s="20"/>
-      <c r="AN98" s="20"/>
-      <c r="AO98" s="20"/>
+      <c r="AL98" s="18"/>
+      <c r="AM98" s="18"/>
+      <c r="AN98" s="18"/>
+      <c r="AO98" s="18"/>
     </row>
     <row r="99" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A99" s="16"/>
@@ -7517,17 +7414,17 @@
       <c r="AB99" s="16"/>
       <c r="AC99" s="16"/>
       <c r="AD99" s="16"/>
-      <c r="AE99" s="20"/>
-      <c r="AF99" s="20"/>
+      <c r="AE99" s="18"/>
+      <c r="AF99" s="18"/>
       <c r="AG99" s="16"/>
       <c r="AH99" s="16"/>
       <c r="AI99" s="16"/>
       <c r="AJ99" s="16"/>
       <c r="AK99" s="16"/>
-      <c r="AL99" s="20"/>
-      <c r="AM99" s="20"/>
-      <c r="AN99" s="20"/>
-      <c r="AO99" s="20"/>
+      <c r="AL99" s="18"/>
+      <c r="AM99" s="18"/>
+      <c r="AN99" s="18"/>
+      <c r="AO99" s="18"/>
     </row>
     <row r="100" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A100" s="16"/>
@@ -7560,17 +7457,17 @@
       <c r="AB100" s="16"/>
       <c r="AC100" s="16"/>
       <c r="AD100" s="16"/>
-      <c r="AE100" s="20"/>
-      <c r="AF100" s="20"/>
+      <c r="AE100" s="18"/>
+      <c r="AF100" s="18"/>
       <c r="AG100" s="16"/>
       <c r="AH100" s="16"/>
       <c r="AI100" s="16"/>
       <c r="AJ100" s="16"/>
       <c r="AK100" s="16"/>
-      <c r="AL100" s="20"/>
-      <c r="AM100" s="20"/>
-      <c r="AN100" s="20"/>
-      <c r="AO100" s="20"/>
+      <c r="AL100" s="18"/>
+      <c r="AM100" s="18"/>
+      <c r="AN100" s="18"/>
+      <c r="AO100" s="18"/>
     </row>
     <row r="101" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A101" s="16"/>
@@ -7603,17 +7500,17 @@
       <c r="AB101" s="16"/>
       <c r="AC101" s="16"/>
       <c r="AD101" s="16"/>
-      <c r="AE101" s="20"/>
-      <c r="AF101" s="20"/>
+      <c r="AE101" s="18"/>
+      <c r="AF101" s="18"/>
       <c r="AG101" s="16"/>
       <c r="AH101" s="16"/>
       <c r="AI101" s="16"/>
       <c r="AJ101" s="16"/>
       <c r="AK101" s="16"/>
-      <c r="AL101" s="20"/>
-      <c r="AM101" s="20"/>
-      <c r="AN101" s="20"/>
-      <c r="AO101" s="20"/>
+      <c r="AL101" s="18"/>
+      <c r="AM101" s="18"/>
+      <c r="AN101" s="18"/>
+      <c r="AO101" s="18"/>
     </row>
     <row r="102" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A102" s="16"/>
@@ -7646,17 +7543,17 @@
       <c r="AB102" s="16"/>
       <c r="AC102" s="16"/>
       <c r="AD102" s="16"/>
-      <c r="AE102" s="20"/>
-      <c r="AF102" s="20"/>
+      <c r="AE102" s="18"/>
+      <c r="AF102" s="18"/>
       <c r="AG102" s="16"/>
       <c r="AH102" s="16"/>
       <c r="AI102" s="16"/>
       <c r="AJ102" s="16"/>
       <c r="AK102" s="16"/>
-      <c r="AL102" s="20"/>
-      <c r="AM102" s="20"/>
-      <c r="AN102" s="20"/>
-      <c r="AO102" s="20"/>
+      <c r="AL102" s="18"/>
+      <c r="AM102" s="18"/>
+      <c r="AN102" s="18"/>
+      <c r="AO102" s="18"/>
     </row>
     <row r="103" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A103" s="16"/>
@@ -7689,17 +7586,17 @@
       <c r="AB103" s="16"/>
       <c r="AC103" s="16"/>
       <c r="AD103" s="16"/>
-      <c r="AE103" s="20"/>
-      <c r="AF103" s="20"/>
+      <c r="AE103" s="18"/>
+      <c r="AF103" s="18"/>
       <c r="AG103" s="16"/>
       <c r="AH103" s="16"/>
       <c r="AI103" s="16"/>
       <c r="AJ103" s="16"/>
       <c r="AK103" s="16"/>
-      <c r="AL103" s="20"/>
-      <c r="AM103" s="20"/>
-      <c r="AN103" s="20"/>
-      <c r="AO103" s="20"/>
+      <c r="AL103" s="18"/>
+      <c r="AM103" s="18"/>
+      <c r="AN103" s="18"/>
+      <c r="AO103" s="18"/>
     </row>
     <row r="104" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A104" s="16"/>
@@ -7732,17 +7629,17 @@
       <c r="AB104" s="16"/>
       <c r="AC104" s="16"/>
       <c r="AD104" s="16"/>
-      <c r="AE104" s="20"/>
-      <c r="AF104" s="20"/>
+      <c r="AE104" s="18"/>
+      <c r="AF104" s="18"/>
       <c r="AG104" s="16"/>
       <c r="AH104" s="16"/>
       <c r="AI104" s="16"/>
       <c r="AJ104" s="16"/>
       <c r="AK104" s="16"/>
-      <c r="AL104" s="20"/>
-      <c r="AM104" s="20"/>
-      <c r="AN104" s="20"/>
-      <c r="AO104" s="20"/>
+      <c r="AL104" s="18"/>
+      <c r="AM104" s="18"/>
+      <c r="AN104" s="18"/>
+      <c r="AO104" s="18"/>
     </row>
     <row r="105" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A105" s="16"/>
@@ -7775,17 +7672,17 @@
       <c r="AB105" s="16"/>
       <c r="AC105" s="16"/>
       <c r="AD105" s="16"/>
-      <c r="AE105" s="20"/>
-      <c r="AF105" s="20"/>
+      <c r="AE105" s="18"/>
+      <c r="AF105" s="18"/>
       <c r="AG105" s="16"/>
       <c r="AH105" s="16"/>
       <c r="AI105" s="16"/>
       <c r="AJ105" s="16"/>
       <c r="AK105" s="16"/>
-      <c r="AL105" s="20"/>
-      <c r="AM105" s="20"/>
-      <c r="AN105" s="20"/>
-      <c r="AO105" s="20"/>
+      <c r="AL105" s="18"/>
+      <c r="AM105" s="18"/>
+      <c r="AN105" s="18"/>
+      <c r="AO105" s="18"/>
     </row>
     <row r="106" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A106" s="16"/>
@@ -7818,17 +7715,17 @@
       <c r="AB106" s="16"/>
       <c r="AC106" s="16"/>
       <c r="AD106" s="16"/>
-      <c r="AE106" s="20"/>
-      <c r="AF106" s="20"/>
+      <c r="AE106" s="18"/>
+      <c r="AF106" s="18"/>
       <c r="AG106" s="16"/>
       <c r="AH106" s="16"/>
       <c r="AI106" s="16"/>
       <c r="AJ106" s="16"/>
       <c r="AK106" s="16"/>
-      <c r="AL106" s="20"/>
-      <c r="AM106" s="20"/>
-      <c r="AN106" s="20"/>
-      <c r="AO106" s="20"/>
+      <c r="AL106" s="18"/>
+      <c r="AM106" s="18"/>
+      <c r="AN106" s="18"/>
+      <c r="AO106" s="18"/>
     </row>
     <row r="107" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A107" s="16"/>
@@ -7861,17 +7758,17 @@
       <c r="AB107" s="16"/>
       <c r="AC107" s="16"/>
       <c r="AD107" s="16"/>
-      <c r="AE107" s="20"/>
-      <c r="AF107" s="20"/>
+      <c r="AE107" s="18"/>
+      <c r="AF107" s="18"/>
       <c r="AG107" s="16"/>
       <c r="AH107" s="16"/>
       <c r="AI107" s="16"/>
       <c r="AJ107" s="16"/>
       <c r="AK107" s="16"/>
-      <c r="AL107" s="20"/>
-      <c r="AM107" s="20"/>
-      <c r="AN107" s="20"/>
-      <c r="AO107" s="20"/>
+      <c r="AL107" s="18"/>
+      <c r="AM107" s="18"/>
+      <c r="AN107" s="18"/>
+      <c r="AO107" s="18"/>
     </row>
     <row r="108" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A108" s="16"/>
@@ -7904,17 +7801,17 @@
       <c r="AB108" s="16"/>
       <c r="AC108" s="16"/>
       <c r="AD108" s="16"/>
-      <c r="AE108" s="20"/>
-      <c r="AF108" s="20"/>
+      <c r="AE108" s="18"/>
+      <c r="AF108" s="18"/>
       <c r="AG108" s="16"/>
       <c r="AH108" s="16"/>
       <c r="AI108" s="16"/>
       <c r="AJ108" s="16"/>
       <c r="AK108" s="16"/>
-      <c r="AL108" s="20"/>
-      <c r="AM108" s="20"/>
-      <c r="AN108" s="20"/>
-      <c r="AO108" s="20"/>
+      <c r="AL108" s="18"/>
+      <c r="AM108" s="18"/>
+      <c r="AN108" s="18"/>
+      <c r="AO108" s="18"/>
     </row>
     <row r="109" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A109" s="16"/>
@@ -7947,17 +7844,17 @@
       <c r="AB109" s="16"/>
       <c r="AC109" s="16"/>
       <c r="AD109" s="16"/>
-      <c r="AE109" s="20"/>
-      <c r="AF109" s="20"/>
+      <c r="AE109" s="18"/>
+      <c r="AF109" s="18"/>
       <c r="AG109" s="16"/>
       <c r="AH109" s="16"/>
       <c r="AI109" s="16"/>
       <c r="AJ109" s="16"/>
       <c r="AK109" s="16"/>
-      <c r="AL109" s="20"/>
-      <c r="AM109" s="20"/>
-      <c r="AN109" s="20"/>
-      <c r="AO109" s="20"/>
+      <c r="AL109" s="18"/>
+      <c r="AM109" s="18"/>
+      <c r="AN109" s="18"/>
+      <c r="AO109" s="18"/>
     </row>
     <row r="110" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A110" s="16"/>
@@ -7990,17 +7887,17 @@
       <c r="AB110" s="16"/>
       <c r="AC110" s="16"/>
       <c r="AD110" s="16"/>
-      <c r="AE110" s="20"/>
-      <c r="AF110" s="20"/>
+      <c r="AE110" s="18"/>
+      <c r="AF110" s="18"/>
       <c r="AG110" s="16"/>
       <c r="AH110" s="16"/>
       <c r="AI110" s="16"/>
       <c r="AJ110" s="16"/>
       <c r="AK110" s="16"/>
-      <c r="AL110" s="20"/>
-      <c r="AM110" s="20"/>
-      <c r="AN110" s="20"/>
-      <c r="AO110" s="20"/>
+      <c r="AL110" s="18"/>
+      <c r="AM110" s="18"/>
+      <c r="AN110" s="18"/>
+      <c r="AO110" s="18"/>
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A111" s="16"/>
@@ -8033,17 +7930,17 @@
       <c r="AB111" s="16"/>
       <c r="AC111" s="16"/>
       <c r="AD111" s="16"/>
-      <c r="AE111" s="20"/>
-      <c r="AF111" s="20"/>
+      <c r="AE111" s="18"/>
+      <c r="AF111" s="18"/>
       <c r="AG111" s="16"/>
       <c r="AH111" s="16"/>
       <c r="AI111" s="16"/>
       <c r="AJ111" s="16"/>
       <c r="AK111" s="16"/>
-      <c r="AL111" s="20"/>
-      <c r="AM111" s="20"/>
-      <c r="AN111" s="20"/>
-      <c r="AO111" s="20"/>
+      <c r="AL111" s="18"/>
+      <c r="AM111" s="18"/>
+      <c r="AN111" s="18"/>
+      <c r="AO111" s="18"/>
     </row>
     <row r="112" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A112" s="16"/>
@@ -8076,17 +7973,17 @@
       <c r="AB112" s="16"/>
       <c r="AC112" s="16"/>
       <c r="AD112" s="16"/>
-      <c r="AE112" s="20"/>
-      <c r="AF112" s="20"/>
+      <c r="AE112" s="18"/>
+      <c r="AF112" s="18"/>
       <c r="AG112" s="16"/>
       <c r="AH112" s="16"/>
       <c r="AI112" s="16"/>
       <c r="AJ112" s="16"/>
       <c r="AK112" s="16"/>
-      <c r="AL112" s="20"/>
-      <c r="AM112" s="20"/>
-      <c r="AN112" s="20"/>
-      <c r="AO112" s="20"/>
+      <c r="AL112" s="18"/>
+      <c r="AM112" s="18"/>
+      <c r="AN112" s="18"/>
+      <c r="AO112" s="18"/>
     </row>
     <row r="113" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A113" s="16"/>
@@ -8119,17 +8016,17 @@
       <c r="AB113" s="16"/>
       <c r="AC113" s="16"/>
       <c r="AD113" s="16"/>
-      <c r="AE113" s="20"/>
-      <c r="AF113" s="20"/>
+      <c r="AE113" s="18"/>
+      <c r="AF113" s="18"/>
       <c r="AG113" s="16"/>
       <c r="AH113" s="16"/>
       <c r="AI113" s="16"/>
       <c r="AJ113" s="16"/>
       <c r="AK113" s="16"/>
-      <c r="AL113" s="20"/>
-      <c r="AM113" s="20"/>
-      <c r="AN113" s="20"/>
-      <c r="AO113" s="20"/>
+      <c r="AL113" s="18"/>
+      <c r="AM113" s="18"/>
+      <c r="AN113" s="18"/>
+      <c r="AO113" s="18"/>
     </row>
     <row r="114" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A114" s="16"/>
@@ -8162,17 +8059,17 @@
       <c r="AB114" s="16"/>
       <c r="AC114" s="16"/>
       <c r="AD114" s="16"/>
-      <c r="AE114" s="20"/>
-      <c r="AF114" s="20"/>
+      <c r="AE114" s="18"/>
+      <c r="AF114" s="18"/>
       <c r="AG114" s="16"/>
       <c r="AH114" s="16"/>
       <c r="AI114" s="16"/>
       <c r="AJ114" s="16"/>
       <c r="AK114" s="16"/>
-      <c r="AL114" s="20"/>
-      <c r="AM114" s="20"/>
-      <c r="AN114" s="20"/>
-      <c r="AO114" s="20"/>
+      <c r="AL114" s="18"/>
+      <c r="AM114" s="18"/>
+      <c r="AN114" s="18"/>
+      <c r="AO114" s="18"/>
     </row>
     <row r="115" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A115" s="16"/>
@@ -8205,17 +8102,17 @@
       <c r="AB115" s="16"/>
       <c r="AC115" s="16"/>
       <c r="AD115" s="16"/>
-      <c r="AE115" s="20"/>
-      <c r="AF115" s="20"/>
+      <c r="AE115" s="18"/>
+      <c r="AF115" s="18"/>
       <c r="AG115" s="16"/>
       <c r="AH115" s="16"/>
       <c r="AI115" s="16"/>
       <c r="AJ115" s="16"/>
       <c r="AK115" s="16"/>
-      <c r="AL115" s="20"/>
-      <c r="AM115" s="20"/>
-      <c r="AN115" s="20"/>
-      <c r="AO115" s="20"/>
+      <c r="AL115" s="18"/>
+      <c r="AM115" s="18"/>
+      <c r="AN115" s="18"/>
+      <c r="AO115" s="18"/>
     </row>
     <row r="116" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A116" s="16"/>
@@ -8248,17 +8145,17 @@
       <c r="AB116" s="16"/>
       <c r="AC116" s="16"/>
       <c r="AD116" s="16"/>
-      <c r="AE116" s="20"/>
-      <c r="AF116" s="20"/>
+      <c r="AE116" s="18"/>
+      <c r="AF116" s="18"/>
       <c r="AG116" s="16"/>
       <c r="AH116" s="16"/>
       <c r="AI116" s="16"/>
       <c r="AJ116" s="16"/>
       <c r="AK116" s="16"/>
-      <c r="AL116" s="20"/>
-      <c r="AM116" s="20"/>
-      <c r="AN116" s="20"/>
-      <c r="AO116" s="20"/>
+      <c r="AL116" s="18"/>
+      <c r="AM116" s="18"/>
+      <c r="AN116" s="18"/>
+      <c r="AO116" s="18"/>
     </row>
     <row r="117" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A117" s="16"/>
@@ -8291,17 +8188,17 @@
       <c r="AB117" s="16"/>
       <c r="AC117" s="16"/>
       <c r="AD117" s="16"/>
-      <c r="AE117" s="20"/>
-      <c r="AF117" s="20"/>
+      <c r="AE117" s="18"/>
+      <c r="AF117" s="18"/>
       <c r="AG117" s="16"/>
       <c r="AH117" s="16"/>
       <c r="AI117" s="16"/>
       <c r="AJ117" s="16"/>
       <c r="AK117" s="16"/>
-      <c r="AL117" s="20"/>
-      <c r="AM117" s="20"/>
-      <c r="AN117" s="20"/>
-      <c r="AO117" s="20"/>
+      <c r="AL117" s="18"/>
+      <c r="AM117" s="18"/>
+      <c r="AN117" s="18"/>
+      <c r="AO117" s="18"/>
     </row>
     <row r="118" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A118" s="16"/>
@@ -8334,17 +8231,17 @@
       <c r="AB118" s="16"/>
       <c r="AC118" s="16"/>
       <c r="AD118" s="16"/>
-      <c r="AE118" s="20"/>
-      <c r="AF118" s="20"/>
+      <c r="AE118" s="18"/>
+      <c r="AF118" s="18"/>
       <c r="AG118" s="16"/>
       <c r="AH118" s="16"/>
       <c r="AI118" s="16"/>
       <c r="AJ118" s="16"/>
       <c r="AK118" s="16"/>
-      <c r="AL118" s="20"/>
-      <c r="AM118" s="20"/>
-      <c r="AN118" s="20"/>
-      <c r="AO118" s="20"/>
+      <c r="AL118" s="18"/>
+      <c r="AM118" s="18"/>
+      <c r="AN118" s="18"/>
+      <c r="AO118" s="18"/>
     </row>
     <row r="119" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A119" s="16"/>
@@ -8377,17 +8274,17 @@
       <c r="AB119" s="16"/>
       <c r="AC119" s="16"/>
       <c r="AD119" s="16"/>
-      <c r="AE119" s="20"/>
-      <c r="AF119" s="20"/>
+      <c r="AE119" s="18"/>
+      <c r="AF119" s="18"/>
       <c r="AG119" s="16"/>
       <c r="AH119" s="16"/>
       <c r="AI119" s="16"/>
       <c r="AJ119" s="16"/>
       <c r="AK119" s="16"/>
-      <c r="AL119" s="20"/>
-      <c r="AM119" s="20"/>
-      <c r="AN119" s="20"/>
-      <c r="AO119" s="20"/>
+      <c r="AL119" s="18"/>
+      <c r="AM119" s="18"/>
+      <c r="AN119" s="18"/>
+      <c r="AO119" s="18"/>
     </row>
     <row r="120" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A120" s="16"/>
@@ -8420,17 +8317,17 @@
       <c r="AB120" s="16"/>
       <c r="AC120" s="16"/>
       <c r="AD120" s="16"/>
-      <c r="AE120" s="20"/>
-      <c r="AF120" s="20"/>
+      <c r="AE120" s="18"/>
+      <c r="AF120" s="18"/>
       <c r="AG120" s="16"/>
       <c r="AH120" s="16"/>
       <c r="AI120" s="16"/>
       <c r="AJ120" s="16"/>
       <c r="AK120" s="16"/>
-      <c r="AL120" s="20"/>
-      <c r="AM120" s="20"/>
-      <c r="AN120" s="20"/>
-      <c r="AO120" s="20"/>
+      <c r="AL120" s="18"/>
+      <c r="AM120" s="18"/>
+      <c r="AN120" s="18"/>
+      <c r="AO120" s="18"/>
     </row>
     <row r="121" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A121" s="16"/>
@@ -8463,17 +8360,17 @@
       <c r="AB121" s="16"/>
       <c r="AC121" s="16"/>
       <c r="AD121" s="16"/>
-      <c r="AE121" s="20"/>
-      <c r="AF121" s="20"/>
+      <c r="AE121" s="18"/>
+      <c r="AF121" s="18"/>
       <c r="AG121" s="16"/>
       <c r="AH121" s="16"/>
       <c r="AI121" s="16"/>
       <c r="AJ121" s="16"/>
       <c r="AK121" s="16"/>
-      <c r="AL121" s="20"/>
-      <c r="AM121" s="20"/>
-      <c r="AN121" s="20"/>
-      <c r="AO121" s="20"/>
+      <c r="AL121" s="18"/>
+      <c r="AM121" s="18"/>
+      <c r="AN121" s="18"/>
+      <c r="AO121" s="18"/>
     </row>
     <row r="122" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A122" s="16"/>
@@ -8506,17 +8403,17 @@
       <c r="AB122" s="16"/>
       <c r="AC122" s="16"/>
       <c r="AD122" s="16"/>
-      <c r="AE122" s="20"/>
-      <c r="AF122" s="20"/>
+      <c r="AE122" s="18"/>
+      <c r="AF122" s="18"/>
       <c r="AG122" s="16"/>
       <c r="AH122" s="16"/>
       <c r="AI122" s="16"/>
       <c r="AJ122" s="16"/>
       <c r="AK122" s="16"/>
-      <c r="AL122" s="20"/>
-      <c r="AM122" s="20"/>
-      <c r="AN122" s="20"/>
-      <c r="AO122" s="20"/>
+      <c r="AL122" s="18"/>
+      <c r="AM122" s="18"/>
+      <c r="AN122" s="18"/>
+      <c r="AO122" s="18"/>
     </row>
     <row r="123" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A123" s="16"/>
@@ -8549,17 +8446,17 @@
       <c r="AB123" s="16"/>
       <c r="AC123" s="16"/>
       <c r="AD123" s="16"/>
-      <c r="AE123" s="20"/>
-      <c r="AF123" s="20"/>
+      <c r="AE123" s="18"/>
+      <c r="AF123" s="18"/>
       <c r="AG123" s="16"/>
       <c r="AH123" s="16"/>
       <c r="AI123" s="16"/>
       <c r="AJ123" s="16"/>
       <c r="AK123" s="16"/>
-      <c r="AL123" s="20"/>
-      <c r="AM123" s="20"/>
-      <c r="AN123" s="20"/>
-      <c r="AO123" s="20"/>
+      <c r="AL123" s="18"/>
+      <c r="AM123" s="18"/>
+      <c r="AN123" s="18"/>
+      <c r="AO123" s="18"/>
     </row>
     <row r="124" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A124" s="16"/>
@@ -8592,17 +8489,17 @@
       <c r="AB124" s="16"/>
       <c r="AC124" s="16"/>
       <c r="AD124" s="16"/>
-      <c r="AE124" s="20"/>
-      <c r="AF124" s="20"/>
+      <c r="AE124" s="18"/>
+      <c r="AF124" s="18"/>
       <c r="AG124" s="16"/>
       <c r="AH124" s="16"/>
       <c r="AI124" s="16"/>
       <c r="AJ124" s="16"/>
       <c r="AK124" s="16"/>
-      <c r="AL124" s="20"/>
-      <c r="AM124" s="20"/>
-      <c r="AN124" s="20"/>
-      <c r="AO124" s="20"/>
+      <c r="AL124" s="18"/>
+      <c r="AM124" s="18"/>
+      <c r="AN124" s="18"/>
+      <c r="AO124" s="18"/>
     </row>
     <row r="125" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A125" s="16"/>
@@ -8635,17 +8532,17 @@
       <c r="AB125" s="16"/>
       <c r="AC125" s="16"/>
       <c r="AD125" s="16"/>
-      <c r="AE125" s="20"/>
-      <c r="AF125" s="20"/>
+      <c r="AE125" s="18"/>
+      <c r="AF125" s="18"/>
       <c r="AG125" s="16"/>
       <c r="AH125" s="16"/>
       <c r="AI125" s="16"/>
       <c r="AJ125" s="16"/>
       <c r="AK125" s="16"/>
-      <c r="AL125" s="20"/>
-      <c r="AM125" s="20"/>
-      <c r="AN125" s="20"/>
-      <c r="AO125" s="20"/>
+      <c r="AL125" s="18"/>
+      <c r="AM125" s="18"/>
+      <c r="AN125" s="18"/>
+      <c r="AO125" s="18"/>
     </row>
     <row r="126" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A126" s="16"/>
@@ -8678,17 +8575,17 @@
       <c r="AB126" s="16"/>
       <c r="AC126" s="16"/>
       <c r="AD126" s="16"/>
-      <c r="AE126" s="20"/>
-      <c r="AF126" s="20"/>
+      <c r="AE126" s="18"/>
+      <c r="AF126" s="18"/>
       <c r="AG126" s="16"/>
       <c r="AH126" s="16"/>
       <c r="AI126" s="16"/>
       <c r="AJ126" s="16"/>
       <c r="AK126" s="16"/>
-      <c r="AL126" s="20"/>
-      <c r="AM126" s="20"/>
-      <c r="AN126" s="20"/>
-      <c r="AO126" s="20"/>
+      <c r="AL126" s="18"/>
+      <c r="AM126" s="18"/>
+      <c r="AN126" s="18"/>
+      <c r="AO126" s="18"/>
     </row>
     <row r="127" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A127" s="16"/>
@@ -8721,17 +8618,17 @@
       <c r="AB127" s="16"/>
       <c r="AC127" s="16"/>
       <c r="AD127" s="16"/>
-      <c r="AE127" s="20"/>
-      <c r="AF127" s="20"/>
+      <c r="AE127" s="18"/>
+      <c r="AF127" s="18"/>
       <c r="AG127" s="16"/>
       <c r="AH127" s="16"/>
       <c r="AI127" s="16"/>
       <c r="AJ127" s="16"/>
       <c r="AK127" s="16"/>
-      <c r="AL127" s="20"/>
-      <c r="AM127" s="20"/>
-      <c r="AN127" s="20"/>
-      <c r="AO127" s="20"/>
+      <c r="AL127" s="18"/>
+      <c r="AM127" s="18"/>
+      <c r="AN127" s="18"/>
+      <c r="AO127" s="18"/>
     </row>
     <row r="128" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A128" s="16"/>
@@ -8764,17 +8661,17 @@
       <c r="AB128" s="16"/>
       <c r="AC128" s="16"/>
       <c r="AD128" s="16"/>
-      <c r="AE128" s="20"/>
-      <c r="AF128" s="20"/>
+      <c r="AE128" s="18"/>
+      <c r="AF128" s="18"/>
       <c r="AG128" s="16"/>
       <c r="AH128" s="16"/>
       <c r="AI128" s="16"/>
       <c r="AJ128" s="16"/>
       <c r="AK128" s="16"/>
-      <c r="AL128" s="20"/>
-      <c r="AM128" s="20"/>
-      <c r="AN128" s="20"/>
-      <c r="AO128" s="20"/>
+      <c r="AL128" s="18"/>
+      <c r="AM128" s="18"/>
+      <c r="AN128" s="18"/>
+      <c r="AO128" s="18"/>
     </row>
     <row r="129" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A129" s="16"/>
@@ -8807,17 +8704,17 @@
       <c r="AB129" s="16"/>
       <c r="AC129" s="16"/>
       <c r="AD129" s="16"/>
-      <c r="AE129" s="20"/>
-      <c r="AF129" s="20"/>
+      <c r="AE129" s="18"/>
+      <c r="AF129" s="18"/>
       <c r="AG129" s="16"/>
       <c r="AH129" s="16"/>
       <c r="AI129" s="16"/>
       <c r="AJ129" s="16"/>
       <c r="AK129" s="16"/>
-      <c r="AL129" s="20"/>
-      <c r="AM129" s="20"/>
-      <c r="AN129" s="20"/>
-      <c r="AO129" s="20"/>
+      <c r="AL129" s="18"/>
+      <c r="AM129" s="18"/>
+      <c r="AN129" s="18"/>
+      <c r="AO129" s="18"/>
     </row>
     <row r="130" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A130" s="16"/>
@@ -8850,17 +8747,17 @@
       <c r="AB130" s="16"/>
       <c r="AC130" s="16"/>
       <c r="AD130" s="16"/>
-      <c r="AE130" s="20"/>
-      <c r="AF130" s="20"/>
+      <c r="AE130" s="18"/>
+      <c r="AF130" s="18"/>
       <c r="AG130" s="16"/>
       <c r="AH130" s="16"/>
       <c r="AI130" s="16"/>
       <c r="AJ130" s="16"/>
       <c r="AK130" s="16"/>
-      <c r="AL130" s="20"/>
-      <c r="AM130" s="20"/>
-      <c r="AN130" s="20"/>
-      <c r="AO130" s="20"/>
+      <c r="AL130" s="18"/>
+      <c r="AM130" s="18"/>
+      <c r="AN130" s="18"/>
+      <c r="AO130" s="18"/>
     </row>
     <row r="131" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A131" s="16"/>
@@ -8893,17 +8790,17 @@
       <c r="AB131" s="16"/>
       <c r="AC131" s="16"/>
       <c r="AD131" s="16"/>
-      <c r="AE131" s="20"/>
-      <c r="AF131" s="20"/>
+      <c r="AE131" s="18"/>
+      <c r="AF131" s="18"/>
       <c r="AG131" s="16"/>
       <c r="AH131" s="16"/>
       <c r="AI131" s="16"/>
       <c r="AJ131" s="16"/>
       <c r="AK131" s="16"/>
-      <c r="AL131" s="20"/>
-      <c r="AM131" s="20"/>
-      <c r="AN131" s="20"/>
-      <c r="AO131" s="20"/>
+      <c r="AL131" s="18"/>
+      <c r="AM131" s="18"/>
+      <c r="AN131" s="18"/>
+      <c r="AO131" s="18"/>
     </row>
     <row r="132" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A132" s="16"/>
@@ -8936,17 +8833,17 @@
       <c r="AB132" s="16"/>
       <c r="AC132" s="16"/>
       <c r="AD132" s="16"/>
-      <c r="AE132" s="20"/>
-      <c r="AF132" s="20"/>
+      <c r="AE132" s="18"/>
+      <c r="AF132" s="18"/>
       <c r="AG132" s="16"/>
       <c r="AH132" s="16"/>
       <c r="AI132" s="16"/>
       <c r="AJ132" s="16"/>
       <c r="AK132" s="16"/>
-      <c r="AL132" s="20"/>
-      <c r="AM132" s="20"/>
-      <c r="AN132" s="20"/>
-      <c r="AO132" s="20"/>
+      <c r="AL132" s="18"/>
+      <c r="AM132" s="18"/>
+      <c r="AN132" s="18"/>
+      <c r="AO132" s="18"/>
     </row>
     <row r="133" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A133" s="16"/>
@@ -8979,17 +8876,17 @@
       <c r="AB133" s="16"/>
       <c r="AC133" s="16"/>
       <c r="AD133" s="16"/>
-      <c r="AE133" s="20"/>
-      <c r="AF133" s="20"/>
+      <c r="AE133" s="18"/>
+      <c r="AF133" s="18"/>
       <c r="AG133" s="16"/>
       <c r="AH133" s="16"/>
       <c r="AI133" s="16"/>
       <c r="AJ133" s="16"/>
       <c r="AK133" s="16"/>
-      <c r="AL133" s="20"/>
-      <c r="AM133" s="20"/>
-      <c r="AN133" s="20"/>
-      <c r="AO133" s="20"/>
+      <c r="AL133" s="18"/>
+      <c r="AM133" s="18"/>
+      <c r="AN133" s="18"/>
+      <c r="AO133" s="18"/>
     </row>
     <row r="134" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A134" s="16"/>
@@ -9022,17 +8919,17 @@
       <c r="AB134" s="16"/>
       <c r="AC134" s="16"/>
       <c r="AD134" s="16"/>
-      <c r="AE134" s="20"/>
-      <c r="AF134" s="20"/>
+      <c r="AE134" s="18"/>
+      <c r="AF134" s="18"/>
       <c r="AG134" s="16"/>
       <c r="AH134" s="16"/>
       <c r="AI134" s="16"/>
       <c r="AJ134" s="16"/>
       <c r="AK134" s="16"/>
-      <c r="AL134" s="20"/>
-      <c r="AM134" s="20"/>
-      <c r="AN134" s="20"/>
-      <c r="AO134" s="20"/>
+      <c r="AL134" s="18"/>
+      <c r="AM134" s="18"/>
+      <c r="AN134" s="18"/>
+      <c r="AO134" s="18"/>
     </row>
     <row r="135" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A135" s="16"/>
@@ -9065,17 +8962,17 @@
       <c r="AB135" s="16"/>
       <c r="AC135" s="16"/>
       <c r="AD135" s="16"/>
-      <c r="AE135" s="20"/>
-      <c r="AF135" s="20"/>
+      <c r="AE135" s="18"/>
+      <c r="AF135" s="18"/>
       <c r="AG135" s="16"/>
       <c r="AH135" s="16"/>
       <c r="AI135" s="16"/>
       <c r="AJ135" s="16"/>
       <c r="AK135" s="16"/>
-      <c r="AL135" s="20"/>
-      <c r="AM135" s="20"/>
-      <c r="AN135" s="20"/>
-      <c r="AO135" s="20"/>
+      <c r="AL135" s="18"/>
+      <c r="AM135" s="18"/>
+      <c r="AN135" s="18"/>
+      <c r="AO135" s="18"/>
     </row>
     <row r="136" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A136" s="16"/>
@@ -9108,17 +9005,17 @@
       <c r="AB136" s="16"/>
       <c r="AC136" s="16"/>
       <c r="AD136" s="16"/>
-      <c r="AE136" s="20"/>
-      <c r="AF136" s="20"/>
+      <c r="AE136" s="18"/>
+      <c r="AF136" s="18"/>
       <c r="AG136" s="16"/>
       <c r="AH136" s="16"/>
       <c r="AI136" s="16"/>
       <c r="AJ136" s="16"/>
       <c r="AK136" s="16"/>
-      <c r="AL136" s="20"/>
-      <c r="AM136" s="20"/>
-      <c r="AN136" s="20"/>
-      <c r="AO136" s="20"/>
+      <c r="AL136" s="18"/>
+      <c r="AM136" s="18"/>
+      <c r="AN136" s="18"/>
+      <c r="AO136" s="18"/>
     </row>
     <row r="137" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A137" s="16"/>
@@ -9151,17 +9048,17 @@
       <c r="AB137" s="16"/>
       <c r="AC137" s="16"/>
       <c r="AD137" s="16"/>
-      <c r="AE137" s="20"/>
-      <c r="AF137" s="20"/>
+      <c r="AE137" s="18"/>
+      <c r="AF137" s="18"/>
       <c r="AG137" s="16"/>
       <c r="AH137" s="16"/>
       <c r="AI137" s="16"/>
       <c r="AJ137" s="16"/>
       <c r="AK137" s="16"/>
-      <c r="AL137" s="20"/>
-      <c r="AM137" s="20"/>
-      <c r="AN137" s="20"/>
-      <c r="AO137" s="20"/>
+      <c r="AL137" s="18"/>
+      <c r="AM137" s="18"/>
+      <c r="AN137" s="18"/>
+      <c r="AO137" s="18"/>
     </row>
     <row r="138" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A138" s="16"/>
@@ -9194,17 +9091,17 @@
       <c r="AB138" s="16"/>
       <c r="AC138" s="16"/>
       <c r="AD138" s="16"/>
-      <c r="AE138" s="20"/>
-      <c r="AF138" s="20"/>
+      <c r="AE138" s="18"/>
+      <c r="AF138" s="18"/>
       <c r="AG138" s="16"/>
       <c r="AH138" s="16"/>
       <c r="AI138" s="16"/>
       <c r="AJ138" s="16"/>
       <c r="AK138" s="16"/>
-      <c r="AL138" s="20"/>
-      <c r="AM138" s="20"/>
-      <c r="AN138" s="20"/>
-      <c r="AO138" s="20"/>
+      <c r="AL138" s="18"/>
+      <c r="AM138" s="18"/>
+      <c r="AN138" s="18"/>
+      <c r="AO138" s="18"/>
     </row>
     <row r="139" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A139" s="16"/>
@@ -9237,17 +9134,17 @@
       <c r="AB139" s="16"/>
       <c r="AC139" s="16"/>
       <c r="AD139" s="16"/>
-      <c r="AE139" s="20"/>
-      <c r="AF139" s="20"/>
+      <c r="AE139" s="18"/>
+      <c r="AF139" s="18"/>
       <c r="AG139" s="16"/>
       <c r="AH139" s="16"/>
       <c r="AI139" s="16"/>
       <c r="AJ139" s="16"/>
       <c r="AK139" s="16"/>
-      <c r="AL139" s="20"/>
-      <c r="AM139" s="20"/>
-      <c r="AN139" s="20"/>
-      <c r="AO139" s="20"/>
+      <c r="AL139" s="18"/>
+      <c r="AM139" s="18"/>
+      <c r="AN139" s="18"/>
+      <c r="AO139" s="18"/>
     </row>
     <row r="140" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A140" s="16"/>
@@ -9280,17 +9177,17 @@
       <c r="AB140" s="16"/>
       <c r="AC140" s="16"/>
       <c r="AD140" s="16"/>
-      <c r="AE140" s="20"/>
-      <c r="AF140" s="20"/>
+      <c r="AE140" s="18"/>
+      <c r="AF140" s="18"/>
       <c r="AG140" s="16"/>
       <c r="AH140" s="16"/>
       <c r="AI140" s="16"/>
       <c r="AJ140" s="16"/>
       <c r="AK140" s="16"/>
-      <c r="AL140" s="20"/>
-      <c r="AM140" s="20"/>
-      <c r="AN140" s="20"/>
-      <c r="AO140" s="20"/>
+      <c r="AL140" s="18"/>
+      <c r="AM140" s="18"/>
+      <c r="AN140" s="18"/>
+      <c r="AO140" s="18"/>
     </row>
     <row r="141" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A141" s="16"/>
@@ -9323,17 +9220,17 @@
       <c r="AB141" s="16"/>
       <c r="AC141" s="16"/>
       <c r="AD141" s="16"/>
-      <c r="AE141" s="20"/>
-      <c r="AF141" s="20"/>
+      <c r="AE141" s="18"/>
+      <c r="AF141" s="18"/>
       <c r="AG141" s="16"/>
       <c r="AH141" s="16"/>
       <c r="AI141" s="16"/>
       <c r="AJ141" s="16"/>
       <c r="AK141" s="16"/>
-      <c r="AL141" s="20"/>
-      <c r="AM141" s="20"/>
-      <c r="AN141" s="20"/>
-      <c r="AO141" s="20"/>
+      <c r="AL141" s="18"/>
+      <c r="AM141" s="18"/>
+      <c r="AN141" s="18"/>
+      <c r="AO141" s="18"/>
     </row>
     <row r="142" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A142" s="16"/>
@@ -9366,17 +9263,17 @@
       <c r="AB142" s="16"/>
       <c r="AC142" s="16"/>
       <c r="AD142" s="16"/>
-      <c r="AE142" s="20"/>
-      <c r="AF142" s="20"/>
+      <c r="AE142" s="18"/>
+      <c r="AF142" s="18"/>
       <c r="AG142" s="16"/>
       <c r="AH142" s="16"/>
       <c r="AI142" s="16"/>
       <c r="AJ142" s="16"/>
       <c r="AK142" s="16"/>
-      <c r="AL142" s="20"/>
-      <c r="AM142" s="20"/>
-      <c r="AN142" s="20"/>
-      <c r="AO142" s="20"/>
+      <c r="AL142" s="18"/>
+      <c r="AM142" s="18"/>
+      <c r="AN142" s="18"/>
+      <c r="AO142" s="18"/>
     </row>
     <row r="143" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A143" s="16"/>
@@ -9409,17 +9306,17 @@
       <c r="AB143" s="16"/>
       <c r="AC143" s="16"/>
       <c r="AD143" s="16"/>
-      <c r="AE143" s="20"/>
-      <c r="AF143" s="20"/>
+      <c r="AE143" s="18"/>
+      <c r="AF143" s="18"/>
       <c r="AG143" s="16"/>
       <c r="AH143" s="16"/>
       <c r="AI143" s="16"/>
       <c r="AJ143" s="16"/>
       <c r="AK143" s="16"/>
-      <c r="AL143" s="20"/>
-      <c r="AM143" s="20"/>
-      <c r="AN143" s="20"/>
-      <c r="AO143" s="20"/>
+      <c r="AL143" s="18"/>
+      <c r="AM143" s="18"/>
+      <c r="AN143" s="18"/>
+      <c r="AO143" s="18"/>
     </row>
     <row r="144" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A144" s="16"/>
@@ -9452,17 +9349,17 @@
       <c r="AB144" s="16"/>
       <c r="AC144" s="16"/>
       <c r="AD144" s="16"/>
-      <c r="AE144" s="20"/>
-      <c r="AF144" s="20"/>
+      <c r="AE144" s="18"/>
+      <c r="AF144" s="18"/>
       <c r="AG144" s="16"/>
       <c r="AH144" s="16"/>
       <c r="AI144" s="16"/>
       <c r="AJ144" s="16"/>
       <c r="AK144" s="16"/>
-      <c r="AL144" s="20"/>
-      <c r="AM144" s="20"/>
-      <c r="AN144" s="20"/>
-      <c r="AO144" s="20"/>
+      <c r="AL144" s="18"/>
+      <c r="AM144" s="18"/>
+      <c r="AN144" s="18"/>
+      <c r="AO144" s="18"/>
     </row>
     <row r="145" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A145" s="16"/>
@@ -9495,17 +9392,17 @@
       <c r="AB145" s="16"/>
       <c r="AC145" s="16"/>
       <c r="AD145" s="16"/>
-      <c r="AE145" s="20"/>
-      <c r="AF145" s="20"/>
+      <c r="AE145" s="18"/>
+      <c r="AF145" s="18"/>
       <c r="AG145" s="16"/>
       <c r="AH145" s="16"/>
       <c r="AI145" s="16"/>
       <c r="AJ145" s="16"/>
       <c r="AK145" s="16"/>
-      <c r="AL145" s="20"/>
-      <c r="AM145" s="20"/>
-      <c r="AN145" s="20"/>
-      <c r="AO145" s="20"/>
+      <c r="AL145" s="18"/>
+      <c r="AM145" s="18"/>
+      <c r="AN145" s="18"/>
+      <c r="AO145" s="18"/>
     </row>
     <row r="146" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A146" s="16"/>
@@ -9538,17 +9435,17 @@
       <c r="AB146" s="16"/>
       <c r="AC146" s="16"/>
       <c r="AD146" s="16"/>
-      <c r="AE146" s="20"/>
-      <c r="AF146" s="20"/>
+      <c r="AE146" s="18"/>
+      <c r="AF146" s="18"/>
       <c r="AG146" s="16"/>
       <c r="AH146" s="16"/>
       <c r="AI146" s="16"/>
       <c r="AJ146" s="16"/>
       <c r="AK146" s="16"/>
-      <c r="AL146" s="20"/>
-      <c r="AM146" s="20"/>
-      <c r="AN146" s="20"/>
-      <c r="AO146" s="20"/>
+      <c r="AL146" s="18"/>
+      <c r="AM146" s="18"/>
+      <c r="AN146" s="18"/>
+      <c r="AO146" s="18"/>
     </row>
     <row r="147" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A147" s="16"/>
@@ -9581,17 +9478,17 @@
       <c r="AB147" s="16"/>
       <c r="AC147" s="16"/>
       <c r="AD147" s="16"/>
-      <c r="AE147" s="20"/>
-      <c r="AF147" s="20"/>
+      <c r="AE147" s="18"/>
+      <c r="AF147" s="18"/>
       <c r="AG147" s="16"/>
       <c r="AH147" s="16"/>
       <c r="AI147" s="16"/>
       <c r="AJ147" s="16"/>
       <c r="AK147" s="16"/>
-      <c r="AL147" s="20"/>
-      <c r="AM147" s="20"/>
-      <c r="AN147" s="20"/>
-      <c r="AO147" s="20"/>
+      <c r="AL147" s="18"/>
+      <c r="AM147" s="18"/>
+      <c r="AN147" s="18"/>
+      <c r="AO147" s="18"/>
     </row>
     <row r="148" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A148" s="16"/>
@@ -9624,17 +9521,17 @@
       <c r="AB148" s="16"/>
       <c r="AC148" s="16"/>
       <c r="AD148" s="16"/>
-      <c r="AE148" s="20"/>
-      <c r="AF148" s="20"/>
+      <c r="AE148" s="18"/>
+      <c r="AF148" s="18"/>
       <c r="AG148" s="16"/>
       <c r="AH148" s="16"/>
       <c r="AI148" s="16"/>
       <c r="AJ148" s="16"/>
       <c r="AK148" s="16"/>
-      <c r="AL148" s="20"/>
-      <c r="AM148" s="20"/>
-      <c r="AN148" s="20"/>
-      <c r="AO148" s="20"/>
+      <c r="AL148" s="18"/>
+      <c r="AM148" s="18"/>
+      <c r="AN148" s="18"/>
+      <c r="AO148" s="18"/>
     </row>
     <row r="149" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A149" s="16"/>
@@ -9667,17 +9564,17 @@
       <c r="AB149" s="16"/>
       <c r="AC149" s="16"/>
       <c r="AD149" s="16"/>
-      <c r="AE149" s="20"/>
-      <c r="AF149" s="20"/>
+      <c r="AE149" s="18"/>
+      <c r="AF149" s="18"/>
       <c r="AG149" s="16"/>
       <c r="AH149" s="16"/>
       <c r="AI149" s="16"/>
       <c r="AJ149" s="16"/>
       <c r="AK149" s="16"/>
-      <c r="AL149" s="20"/>
-      <c r="AM149" s="20"/>
-      <c r="AN149" s="20"/>
-      <c r="AO149" s="20"/>
+      <c r="AL149" s="18"/>
+      <c r="AM149" s="18"/>
+      <c r="AN149" s="18"/>
+      <c r="AO149" s="18"/>
     </row>
     <row r="150" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A150" s="16"/>
@@ -9710,17 +9607,17 @@
       <c r="AB150" s="16"/>
       <c r="AC150" s="16"/>
       <c r="AD150" s="16"/>
-      <c r="AE150" s="20"/>
-      <c r="AF150" s="20"/>
+      <c r="AE150" s="18"/>
+      <c r="AF150" s="18"/>
       <c r="AG150" s="16"/>
       <c r="AH150" s="16"/>
       <c r="AI150" s="16"/>
       <c r="AJ150" s="16"/>
       <c r="AK150" s="16"/>
-      <c r="AL150" s="20"/>
-      <c r="AM150" s="20"/>
-      <c r="AN150" s="20"/>
-      <c r="AO150" s="20"/>
+      <c r="AL150" s="18"/>
+      <c r="AM150" s="18"/>
+      <c r="AN150" s="18"/>
+      <c r="AO150" s="18"/>
     </row>
     <row r="151" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A151" s="16"/>
@@ -9753,17 +9650,17 @@
       <c r="AB151" s="16"/>
       <c r="AC151" s="16"/>
       <c r="AD151" s="16"/>
-      <c r="AE151" s="20"/>
-      <c r="AF151" s="20"/>
+      <c r="AE151" s="18"/>
+      <c r="AF151" s="18"/>
       <c r="AG151" s="16"/>
       <c r="AH151" s="16"/>
       <c r="AI151" s="16"/>
       <c r="AJ151" s="16"/>
       <c r="AK151" s="16"/>
-      <c r="AL151" s="20"/>
-      <c r="AM151" s="20"/>
-      <c r="AN151" s="20"/>
-      <c r="AO151" s="20"/>
+      <c r="AL151" s="18"/>
+      <c r="AM151" s="18"/>
+      <c r="AN151" s="18"/>
+      <c r="AO151" s="18"/>
     </row>
     <row r="152" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A152" s="16"/>
@@ -9796,17 +9693,17 @@
       <c r="AB152" s="16"/>
       <c r="AC152" s="16"/>
       <c r="AD152" s="16"/>
-      <c r="AE152" s="20"/>
-      <c r="AF152" s="20"/>
+      <c r="AE152" s="18"/>
+      <c r="AF152" s="18"/>
       <c r="AG152" s="16"/>
       <c r="AH152" s="16"/>
       <c r="AI152" s="16"/>
       <c r="AJ152" s="16"/>
       <c r="AK152" s="16"/>
-      <c r="AL152" s="20"/>
-      <c r="AM152" s="20"/>
-      <c r="AN152" s="20"/>
-      <c r="AO152" s="20"/>
+      <c r="AL152" s="18"/>
+      <c r="AM152" s="18"/>
+      <c r="AN152" s="18"/>
+      <c r="AO152" s="18"/>
     </row>
     <row r="153" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A153" s="16"/>
@@ -9839,17 +9736,17 @@
       <c r="AB153" s="16"/>
       <c r="AC153" s="16"/>
       <c r="AD153" s="16"/>
-      <c r="AE153" s="20"/>
-      <c r="AF153" s="20"/>
+      <c r="AE153" s="18"/>
+      <c r="AF153" s="18"/>
       <c r="AG153" s="16"/>
       <c r="AH153" s="16"/>
       <c r="AI153" s="16"/>
       <c r="AJ153" s="16"/>
       <c r="AK153" s="16"/>
-      <c r="AL153" s="20"/>
-      <c r="AM153" s="20"/>
-      <c r="AN153" s="20"/>
-      <c r="AO153" s="20"/>
+      <c r="AL153" s="18"/>
+      <c r="AM153" s="18"/>
+      <c r="AN153" s="18"/>
+      <c r="AO153" s="18"/>
     </row>
     <row r="154" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A154" s="16"/>
@@ -9882,17 +9779,17 @@
       <c r="AB154" s="16"/>
       <c r="AC154" s="16"/>
       <c r="AD154" s="16"/>
-      <c r="AE154" s="20"/>
-      <c r="AF154" s="20"/>
+      <c r="AE154" s="18"/>
+      <c r="AF154" s="18"/>
       <c r="AG154" s="16"/>
       <c r="AH154" s="16"/>
       <c r="AI154" s="16"/>
       <c r="AJ154" s="16"/>
       <c r="AK154" s="16"/>
-      <c r="AL154" s="20"/>
-      <c r="AM154" s="20"/>
-      <c r="AN154" s="20"/>
-      <c r="AO154" s="20"/>
+      <c r="AL154" s="18"/>
+      <c r="AM154" s="18"/>
+      <c r="AN154" s="18"/>
+      <c r="AO154" s="18"/>
     </row>
     <row r="155" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A155" s="16"/>
@@ -9925,17 +9822,17 @@
       <c r="AB155" s="16"/>
       <c r="AC155" s="16"/>
       <c r="AD155" s="16"/>
-      <c r="AE155" s="20"/>
-      <c r="AF155" s="20"/>
+      <c r="AE155" s="18"/>
+      <c r="AF155" s="18"/>
       <c r="AG155" s="16"/>
       <c r="AH155" s="16"/>
       <c r="AI155" s="16"/>
       <c r="AJ155" s="16"/>
       <c r="AK155" s="16"/>
-      <c r="AL155" s="20"/>
-      <c r="AM155" s="20"/>
-      <c r="AN155" s="20"/>
-      <c r="AO155" s="20"/>
+      <c r="AL155" s="18"/>
+      <c r="AM155" s="18"/>
+      <c r="AN155" s="18"/>
+      <c r="AO155" s="18"/>
     </row>
     <row r="156" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A156" s="16"/>
@@ -9968,17 +9865,17 @@
       <c r="AB156" s="16"/>
       <c r="AC156" s="16"/>
       <c r="AD156" s="16"/>
-      <c r="AE156" s="20"/>
-      <c r="AF156" s="20"/>
+      <c r="AE156" s="18"/>
+      <c r="AF156" s="18"/>
       <c r="AG156" s="16"/>
       <c r="AH156" s="16"/>
       <c r="AI156" s="16"/>
       <c r="AJ156" s="16"/>
       <c r="AK156" s="16"/>
-      <c r="AL156" s="20"/>
-      <c r="AM156" s="20"/>
-      <c r="AN156" s="20"/>
-      <c r="AO156" s="20"/>
+      <c r="AL156" s="18"/>
+      <c r="AM156" s="18"/>
+      <c r="AN156" s="18"/>
+      <c r="AO156" s="18"/>
     </row>
     <row r="157" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A157" s="16"/>
@@ -10011,17 +9908,17 @@
       <c r="AB157" s="16"/>
       <c r="AC157" s="16"/>
       <c r="AD157" s="16"/>
-      <c r="AE157" s="20"/>
-      <c r="AF157" s="20"/>
+      <c r="AE157" s="18"/>
+      <c r="AF157" s="18"/>
       <c r="AG157" s="16"/>
       <c r="AH157" s="16"/>
       <c r="AI157" s="16"/>
       <c r="AJ157" s="16"/>
       <c r="AK157" s="16"/>
-      <c r="AL157" s="20"/>
-      <c r="AM157" s="20"/>
-      <c r="AN157" s="20"/>
-      <c r="AO157" s="20"/>
+      <c r="AL157" s="18"/>
+      <c r="AM157" s="18"/>
+      <c r="AN157" s="18"/>
+      <c r="AO157" s="18"/>
     </row>
     <row r="158" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A158" s="16"/>
@@ -10054,17 +9951,17 @@
       <c r="AB158" s="16"/>
       <c r="AC158" s="16"/>
       <c r="AD158" s="16"/>
-      <c r="AE158" s="20"/>
-      <c r="AF158" s="20"/>
+      <c r="AE158" s="18"/>
+      <c r="AF158" s="18"/>
       <c r="AG158" s="16"/>
       <c r="AH158" s="16"/>
       <c r="AI158" s="16"/>
       <c r="AJ158" s="16"/>
       <c r="AK158" s="16"/>
-      <c r="AL158" s="20"/>
-      <c r="AM158" s="20"/>
-      <c r="AN158" s="20"/>
-      <c r="AO158" s="20"/>
+      <c r="AL158" s="18"/>
+      <c r="AM158" s="18"/>
+      <c r="AN158" s="18"/>
+      <c r="AO158" s="18"/>
     </row>
     <row r="159" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A159" s="16"/>
@@ -10097,17 +9994,17 @@
       <c r="AB159" s="16"/>
       <c r="AC159" s="16"/>
       <c r="AD159" s="16"/>
-      <c r="AE159" s="20"/>
-      <c r="AF159" s="20"/>
+      <c r="AE159" s="18"/>
+      <c r="AF159" s="18"/>
       <c r="AG159" s="16"/>
       <c r="AH159" s="16"/>
       <c r="AI159" s="16"/>
       <c r="AJ159" s="16"/>
       <c r="AK159" s="16"/>
-      <c r="AL159" s="20"/>
-      <c r="AM159" s="20"/>
-      <c r="AN159" s="20"/>
-      <c r="AO159" s="20"/>
+      <c r="AL159" s="18"/>
+      <c r="AM159" s="18"/>
+      <c r="AN159" s="18"/>
+      <c r="AO159" s="18"/>
     </row>
     <row r="160" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A160" s="16"/>
@@ -10140,17 +10037,17 @@
       <c r="AB160" s="16"/>
       <c r="AC160" s="16"/>
       <c r="AD160" s="16"/>
-      <c r="AE160" s="20"/>
-      <c r="AF160" s="20"/>
+      <c r="AE160" s="18"/>
+      <c r="AF160" s="18"/>
       <c r="AG160" s="16"/>
       <c r="AH160" s="16"/>
       <c r="AI160" s="16"/>
       <c r="AJ160" s="16"/>
       <c r="AK160" s="16"/>
-      <c r="AL160" s="20"/>
-      <c r="AM160" s="20"/>
-      <c r="AN160" s="20"/>
-      <c r="AO160" s="20"/>
+      <c r="AL160" s="18"/>
+      <c r="AM160" s="18"/>
+      <c r="AN160" s="18"/>
+      <c r="AO160" s="18"/>
     </row>
     <row r="161" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A161" s="16"/>
@@ -10183,17 +10080,17 @@
       <c r="AB161" s="16"/>
       <c r="AC161" s="16"/>
       <c r="AD161" s="16"/>
-      <c r="AE161" s="20"/>
-      <c r="AF161" s="20"/>
+      <c r="AE161" s="18"/>
+      <c r="AF161" s="18"/>
       <c r="AG161" s="16"/>
       <c r="AH161" s="16"/>
       <c r="AI161" s="16"/>
       <c r="AJ161" s="16"/>
       <c r="AK161" s="16"/>
-      <c r="AL161" s="20"/>
-      <c r="AM161" s="20"/>
-      <c r="AN161" s="20"/>
-      <c r="AO161" s="20"/>
+      <c r="AL161" s="18"/>
+      <c r="AM161" s="18"/>
+      <c r="AN161" s="18"/>
+      <c r="AO161" s="18"/>
     </row>
     <row r="162" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A162" s="16"/>
@@ -10226,17 +10123,17 @@
       <c r="AB162" s="16"/>
       <c r="AC162" s="16"/>
       <c r="AD162" s="16"/>
-      <c r="AE162" s="20"/>
-      <c r="AF162" s="20"/>
+      <c r="AE162" s="18"/>
+      <c r="AF162" s="18"/>
       <c r="AG162" s="16"/>
       <c r="AH162" s="16"/>
       <c r="AI162" s="16"/>
       <c r="AJ162" s="16"/>
       <c r="AK162" s="16"/>
-      <c r="AL162" s="20"/>
-      <c r="AM162" s="20"/>
-      <c r="AN162" s="20"/>
-      <c r="AO162" s="20"/>
+      <c r="AL162" s="18"/>
+      <c r="AM162" s="18"/>
+      <c r="AN162" s="18"/>
+      <c r="AO162" s="18"/>
     </row>
     <row r="163" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A163" s="16"/>
@@ -10269,17 +10166,17 @@
       <c r="AB163" s="16"/>
       <c r="AC163" s="16"/>
       <c r="AD163" s="16"/>
-      <c r="AE163" s="20"/>
-      <c r="AF163" s="20"/>
+      <c r="AE163" s="18"/>
+      <c r="AF163" s="18"/>
       <c r="AG163" s="16"/>
       <c r="AH163" s="16"/>
       <c r="AI163" s="16"/>
       <c r="AJ163" s="16"/>
       <c r="AK163" s="16"/>
-      <c r="AL163" s="20"/>
-      <c r="AM163" s="20"/>
-      <c r="AN163" s="20"/>
-      <c r="AO163" s="20"/>
+      <c r="AL163" s="18"/>
+      <c r="AM163" s="18"/>
+      <c r="AN163" s="18"/>
+      <c r="AO163" s="18"/>
     </row>
     <row r="164" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A164" s="16"/>
@@ -10312,17 +10209,17 @@
       <c r="AB164" s="16"/>
       <c r="AC164" s="16"/>
       <c r="AD164" s="16"/>
-      <c r="AE164" s="20"/>
-      <c r="AF164" s="20"/>
+      <c r="AE164" s="18"/>
+      <c r="AF164" s="18"/>
       <c r="AG164" s="16"/>
       <c r="AH164" s="16"/>
       <c r="AI164" s="16"/>
       <c r="AJ164" s="16"/>
       <c r="AK164" s="16"/>
-      <c r="AL164" s="20"/>
-      <c r="AM164" s="20"/>
-      <c r="AN164" s="20"/>
-      <c r="AO164" s="20"/>
+      <c r="AL164" s="18"/>
+      <c r="AM164" s="18"/>
+      <c r="AN164" s="18"/>
+      <c r="AO164" s="18"/>
     </row>
     <row r="165" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A165" s="16"/>
@@ -10355,17 +10252,17 @@
       <c r="AB165" s="16"/>
       <c r="AC165" s="16"/>
       <c r="AD165" s="16"/>
-      <c r="AE165" s="20"/>
-      <c r="AF165" s="20"/>
+      <c r="AE165" s="18"/>
+      <c r="AF165" s="18"/>
       <c r="AG165" s="16"/>
       <c r="AH165" s="16"/>
       <c r="AI165" s="16"/>
       <c r="AJ165" s="16"/>
       <c r="AK165" s="16"/>
-      <c r="AL165" s="20"/>
-      <c r="AM165" s="20"/>
-      <c r="AN165" s="20"/>
-      <c r="AO165" s="20"/>
+      <c r="AL165" s="18"/>
+      <c r="AM165" s="18"/>
+      <c r="AN165" s="18"/>
+      <c r="AO165" s="18"/>
     </row>
     <row r="166" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A166" s="16"/>
@@ -10398,17 +10295,17 @@
       <c r="AB166" s="16"/>
       <c r="AC166" s="16"/>
       <c r="AD166" s="16"/>
-      <c r="AE166" s="20"/>
-      <c r="AF166" s="20"/>
+      <c r="AE166" s="18"/>
+      <c r="AF166" s="18"/>
       <c r="AG166" s="16"/>
       <c r="AH166" s="16"/>
       <c r="AI166" s="16"/>
       <c r="AJ166" s="16"/>
       <c r="AK166" s="16"/>
-      <c r="AL166" s="20"/>
-      <c r="AM166" s="20"/>
-      <c r="AN166" s="20"/>
-      <c r="AO166" s="20"/>
+      <c r="AL166" s="18"/>
+      <c r="AM166" s="18"/>
+      <c r="AN166" s="18"/>
+      <c r="AO166" s="18"/>
     </row>
     <row r="167" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A167" s="16"/>
@@ -10441,17 +10338,17 @@
       <c r="AB167" s="16"/>
       <c r="AC167" s="16"/>
       <c r="AD167" s="16"/>
-      <c r="AE167" s="20"/>
-      <c r="AF167" s="20"/>
+      <c r="AE167" s="18"/>
+      <c r="AF167" s="18"/>
       <c r="AG167" s="16"/>
       <c r="AH167" s="16"/>
       <c r="AI167" s="16"/>
       <c r="AJ167" s="16"/>
       <c r="AK167" s="16"/>
-      <c r="AL167" s="20"/>
-      <c r="AM167" s="20"/>
-      <c r="AN167" s="20"/>
-      <c r="AO167" s="20"/>
+      <c r="AL167" s="18"/>
+      <c r="AM167" s="18"/>
+      <c r="AN167" s="18"/>
+      <c r="AO167" s="18"/>
     </row>
     <row r="168" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A168" s="16"/>
@@ -10484,17 +10381,17 @@
       <c r="AB168" s="16"/>
       <c r="AC168" s="16"/>
       <c r="AD168" s="16"/>
-      <c r="AE168" s="20"/>
-      <c r="AF168" s="20"/>
+      <c r="AE168" s="18"/>
+      <c r="AF168" s="18"/>
       <c r="AG168" s="16"/>
       <c r="AH168" s="16"/>
       <c r="AI168" s="16"/>
       <c r="AJ168" s="16"/>
       <c r="AK168" s="16"/>
-      <c r="AL168" s="20"/>
-      <c r="AM168" s="20"/>
-      <c r="AN168" s="20"/>
-      <c r="AO168" s="20"/>
+      <c r="AL168" s="18"/>
+      <c r="AM168" s="18"/>
+      <c r="AN168" s="18"/>
+      <c r="AO168" s="18"/>
     </row>
     <row r="169" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A169" s="16"/>
@@ -10527,17 +10424,17 @@
       <c r="AB169" s="16"/>
       <c r="AC169" s="16"/>
       <c r="AD169" s="16"/>
-      <c r="AE169" s="20"/>
-      <c r="AF169" s="20"/>
+      <c r="AE169" s="18"/>
+      <c r="AF169" s="18"/>
       <c r="AG169" s="16"/>
       <c r="AH169" s="16"/>
       <c r="AI169" s="16"/>
       <c r="AJ169" s="16"/>
       <c r="AK169" s="16"/>
-      <c r="AL169" s="20"/>
-      <c r="AM169" s="20"/>
-      <c r="AN169" s="20"/>
-      <c r="AO169" s="20"/>
+      <c r="AL169" s="18"/>
+      <c r="AM169" s="18"/>
+      <c r="AN169" s="18"/>
+      <c r="AO169" s="18"/>
     </row>
     <row r="170" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A170" s="16"/>
@@ -10570,22 +10467,20 @@
       <c r="AB170" s="16"/>
       <c r="AC170" s="16"/>
       <c r="AD170" s="16"/>
-      <c r="AE170" s="20"/>
-      <c r="AF170" s="20"/>
+      <c r="AE170" s="18"/>
+      <c r="AF170" s="18"/>
       <c r="AG170" s="16"/>
       <c r="AH170" s="16"/>
       <c r="AI170" s="16"/>
       <c r="AJ170" s="16"/>
       <c r="AK170" s="16"/>
-      <c r="AL170" s="20"/>
-      <c r="AM170" s="20"/>
-      <c r="AN170" s="20"/>
-      <c r="AO170" s="20"/>
+      <c r="AL170" s="18"/>
+      <c r="AM170" s="18"/>
+      <c r="AN170" s="18"/>
+      <c r="AO170" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="W1:Z2"/>
-    <mergeCell ref="W3:Z4"/>
+  <mergeCells count="11">
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="R12:U13"/>
     <mergeCell ref="W10:W11"/>
@@ -10596,6 +10491,7 @@
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="R10:R11"/>
+    <mergeCell ref="W1:Z4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="T6:U6">

--- a/cost_calc.xlsx
+++ b/cost_calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smbal\Desktop\battlesim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B80331B-3DEF-44B6-83CC-21A1B4F9173D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B6B614-B64D-4C30-BB7E-332F9E1E68BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2EEE56D6-0E95-420F-934A-A6B58480CC19}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
   <si>
     <t>pikemen</t>
   </si>
@@ -259,6 +259,9 @@
   <si>
     <t>Phase damage dealt calculated by:             army_one att_phase / army_two def_phase</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
@@ -267,7 +270,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +335,13 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1332,7 +1342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1395,7 +1405,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1431,6 +1440,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="71" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1448,12 +1469,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1491,6 +1506,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1627,7 +1643,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -2009,7 +2025,7 @@
   <dimension ref="A1:BL170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2085,39 +2101,39 @@
       <c r="M1" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="84" t="s">
+      <c r="N1" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="84" t="s">
+      <c r="O1" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="84" t="s">
+      <c r="P1" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="84" t="s">
+      <c r="Q1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="83" t="s">
+      <c r="R1" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="98" t="s">
+      <c r="S1" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="99"/>
+      <c r="T1" s="94"/>
       <c r="U1" s="8">
         <v>100</v>
       </c>
-      <c r="W1" s="110" t="s">
+      <c r="W1" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="71" t="s">
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="72" t="s">
+      <c r="AD1" s="71" t="s">
         <v>37</v>
       </c>
       <c r="AE1" s="18"/>
@@ -2161,45 +2177,45 @@
         <f>B2/E2</f>
         <v>6</v>
       </c>
-      <c r="G2" s="60">
+      <c r="G2" s="59">
         <f>D2/E2</f>
         <v>0.5</v>
       </c>
-      <c r="H2" s="61">
-        <v>0</v>
-      </c>
-      <c r="I2" s="61">
+      <c r="H2" s="60">
+        <v>50</v>
+      </c>
+      <c r="I2" s="60">
         <f>H2*B2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="61">
+        <v>600</v>
+      </c>
+      <c r="J2" s="60">
         <f t="shared" ref="J2:J11" si="0">(H2*B2)/C2</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="61">
+        <v>200</v>
+      </c>
+      <c r="K2" s="60">
         <f>$E2*H2</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="61">
+        <v>100</v>
+      </c>
+      <c r="L2" s="60">
         <f>H2*$D2</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="61">
-        <v>0</v>
-      </c>
-      <c r="N2" s="85">
+        <v>50</v>
+      </c>
+      <c r="M2" s="60">
+        <v>0</v>
+      </c>
+      <c r="N2" s="84">
         <f>M2*B2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="85">
+      <c r="O2" s="84">
         <f>(M2*B2)/C2</f>
         <v>0</v>
       </c>
-      <c r="P2" s="85">
+      <c r="P2" s="84">
         <f>M2*$E2</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="85">
+      <c r="Q2" s="84">
         <f>M2*$D2</f>
         <v>0</v>
       </c>
@@ -2211,20 +2227,20 @@
       <c r="U2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="110"/>
-      <c r="AB2" s="73" t="s">
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="111"/>
+      <c r="AB2" s="72" t="s">
         <v>34</v>
       </c>
       <c r="AC2" s="14">
         <f>T5</f>
-        <v>75</v>
-      </c>
-      <c r="AD2" s="74">
+        <v>50</v>
+      </c>
+      <c r="AD2" s="73">
         <f>U5</f>
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AE2" s="18"/>
       <c r="AF2" s="18"/>
@@ -2236,7 +2252,7 @@
       <c r="AL2" s="18"/>
       <c r="AM2" s="18">
         <f>H2*B13</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN2" s="18">
         <f>M2*B13</f>
@@ -2244,7 +2260,7 @@
       </c>
       <c r="AO2" s="18">
         <f t="shared" ref="AO2:AO11" si="1">H2*E13</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AP2" s="18">
         <f t="shared" ref="AP2:AP11" si="2">M2*E13</f>
@@ -2271,45 +2287,45 @@
         <f t="shared" ref="F3:F11" si="3">B3/E3</f>
         <v>4</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="59">
         <f>D3/E3</f>
         <v>0.625</v>
       </c>
-      <c r="H3" s="61">
-        <v>0</v>
-      </c>
-      <c r="I3" s="61">
+      <c r="H3" s="60">
+        <v>0</v>
+      </c>
+      <c r="I3" s="60">
         <f t="shared" ref="I3:I11" si="4">H3*B3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="61">
+      <c r="J3" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K3" s="61">
+      <c r="K3" s="60">
         <f>$E3*H3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="61">
+      <c r="L3" s="60">
         <f>H3*$D3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="61">
-        <v>0</v>
-      </c>
-      <c r="N3" s="85">
+      <c r="M3" s="60">
+        <v>0</v>
+      </c>
+      <c r="N3" s="84">
         <f t="shared" ref="N3:N11" si="5">M3*B3</f>
         <v>0</v>
       </c>
-      <c r="O3" s="85">
+      <c r="O3" s="84">
         <f t="shared" ref="O3:O11" si="6">(M3*B3)/C3</f>
         <v>0</v>
       </c>
-      <c r="P3" s="85">
+      <c r="P3" s="84">
         <f>M3*$E3</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="85">
+      <c r="Q3" s="84">
         <f>M3*$D3</f>
         <v>0</v>
       </c>
@@ -2323,22 +2339,22 @@
       </c>
       <c r="U3" s="40">
         <f>$U$1-P13</f>
-        <v>1</v>
-      </c>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="110"/>
-      <c r="AB3" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="111"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="111"/>
+      <c r="AB3" s="74" t="s">
         <v>33</v>
       </c>
       <c r="AC3" s="23">
         <f>T4</f>
-        <v>250</v>
-      </c>
-      <c r="AD3" s="76">
+        <v>600</v>
+      </c>
+      <c r="AD3" s="75">
         <f>U4</f>
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="AE3" s="18"/>
       <c r="AF3" s="18"/>
@@ -2385,45 +2401,45 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="59">
         <f t="shared" ref="G4:G11" si="9">D4/E4</f>
         <v>0.5</v>
       </c>
-      <c r="H4" s="61">
-        <v>0</v>
-      </c>
-      <c r="I4" s="61">
+      <c r="H4" s="60">
+        <v>0</v>
+      </c>
+      <c r="I4" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J4" s="61">
+      <c r="J4" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="60">
         <f t="shared" ref="K4:K11" si="10">$E4*H4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="61">
+      <c r="L4" s="60">
         <f t="shared" ref="L4:L11" si="11">H4*$D4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="61">
-        <v>0</v>
-      </c>
-      <c r="N4" s="85">
+      <c r="M4" s="60">
+        <v>0</v>
+      </c>
+      <c r="N4" s="84">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O4" s="85">
+      <c r="O4" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P4" s="85">
+      <c r="P4" s="84">
         <f t="shared" ref="P4:P11" si="12">M4*$E4</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="85">
+      <c r="Q4" s="84">
         <f t="shared" ref="Q4:Q11" si="13">M4*$D4</f>
         <v>0</v>
       </c>
@@ -2433,26 +2449,24 @@
       </c>
       <c r="T4" s="9">
         <f>I13</f>
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="U4" s="41">
         <f>N13</f>
-        <v>165</v>
-      </c>
-      <c r="W4" s="111"/>
-      <c r="X4" s="111"/>
-      <c r="Y4" s="111"/>
-      <c r="Z4" s="111"/>
-      <c r="AB4" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" s="112"/>
+      <c r="X4" s="112"/>
+      <c r="Y4" s="112"/>
+      <c r="Z4" s="112"/>
+      <c r="AB4" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="AC4" s="23">
-        <f>J13</f>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="AD4" s="76">
-        <f>O13</f>
-        <v>165</v>
+      <c r="AC4" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD4" s="92" t="s">
+        <v>74</v>
       </c>
       <c r="AE4" s="17"/>
       <c r="AF4" s="17"/>
@@ -2499,47 +2513,47 @@
         <f t="shared" si="3"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="59">
         <f t="shared" si="9"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H5" s="61">
-        <v>0</v>
-      </c>
-      <c r="I5" s="61">
+      <c r="H5" s="60">
+        <v>0</v>
+      </c>
+      <c r="I5" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J5" s="61">
+      <c r="J5" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M5" s="61">
-        <v>33</v>
-      </c>
-      <c r="N5" s="85">
+      <c r="M5" s="60">
+        <v>0</v>
+      </c>
+      <c r="N5" s="84">
         <f t="shared" si="5"/>
-        <v>165</v>
-      </c>
-      <c r="O5" s="85">
+        <v>0</v>
+      </c>
+      <c r="O5" s="84">
         <f t="shared" si="6"/>
-        <v>165</v>
-      </c>
-      <c r="P5" s="85">
+        <v>0</v>
+      </c>
+      <c r="P5" s="84">
         <f t="shared" si="12"/>
-        <v>99</v>
-      </c>
-      <c r="Q5" s="85">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="84">
         <f t="shared" si="13"/>
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="R5" s="19"/>
       <c r="S5" s="9" t="s">
@@ -2547,11 +2561,11 @@
       </c>
       <c r="T5" s="9">
         <f>L13</f>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="U5" s="41">
         <f>Q13</f>
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="W5" s="35"/>
       <c r="X5" s="36"/>
@@ -2566,11 +2580,11 @@
       </c>
       <c r="AC5" s="26">
         <f>AC2/AD2</f>
-        <v>0.45454545454545453</v>
+        <v>0.625</v>
       </c>
       <c r="AD5" s="25">
         <f>AD2/AC2</f>
-        <v>2.2000000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="AE5" s="18"/>
       <c r="AF5" s="18"/>
@@ -2586,7 +2600,7 @@
       </c>
       <c r="AN5" s="18">
         <f t="shared" si="8"/>
-        <v>8.25</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="18">
         <f t="shared" si="1"/>
@@ -2594,7 +2608,7 @@
       </c>
       <c r="AP5" s="18">
         <f t="shared" si="2"/>
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
@@ -2617,49 +2631,49 @@
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="59">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="H6" s="61">
-        <v>0</v>
-      </c>
-      <c r="I6" s="61">
+      <c r="H6" s="60">
+        <v>0</v>
+      </c>
+      <c r="I6" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J6" s="61">
+      <c r="J6" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M6" s="61">
-        <v>0</v>
-      </c>
-      <c r="N6" s="85">
+      <c r="M6" s="60">
+        <v>0</v>
+      </c>
+      <c r="N6" s="84">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O6" s="85">
+      <c r="O6" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P6" s="85">
+      <c r="P6" s="84">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="85">
+      <c r="Q6" s="84">
         <f>M6*$D6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="106" t="s">
+      <c r="R6" s="107" t="s">
         <v>30</v>
       </c>
       <c r="S6" s="12" t="s">
@@ -2667,36 +2681,36 @@
       </c>
       <c r="T6" s="12">
         <f>AM12</f>
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="U6" s="42">
         <f>AN12</f>
-        <v>8.25</v>
-      </c>
-      <c r="W6" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="101" t="s">
         <v>30</v>
       </c>
       <c r="X6" s="27" t="s">
         <v>52</v>
       </c>
       <c r="Y6" s="30">
-        <f>AC12</f>
-        <v>0.94696969696969702</v>
+        <f t="shared" ref="Y6:Z11" si="14">AC12</f>
+        <v>3.75</v>
       </c>
       <c r="Z6" s="30">
-        <f>AD12</f>
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="AB6" s="77" t="s">
+        <f t="shared" si="14"/>
+        <v>0.8</v>
+      </c>
+      <c r="AB6" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AC6" s="15">
-        <f>T6</f>
-        <v>125</v>
-      </c>
-      <c r="AD6" s="78">
-        <f>U6</f>
-        <v>8.25</v>
+        <f t="shared" ref="AC6:AD11" si="15">T6</f>
+        <v>150</v>
+      </c>
+      <c r="AD6" s="77">
+        <f t="shared" si="15"/>
+        <v>40</v>
       </c>
       <c r="AE6" s="18"/>
       <c r="AF6" s="18"/>
@@ -2743,82 +2757,82 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="59">
         <f t="shared" si="9"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="H7" s="61">
-        <v>0</v>
-      </c>
-      <c r="I7" s="61">
+      <c r="H7" s="60">
+        <v>0</v>
+      </c>
+      <c r="I7" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J7" s="61">
+      <c r="J7" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="61">
+      <c r="K7" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L7" s="61">
+      <c r="L7" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M7" s="61">
-        <v>0</v>
-      </c>
-      <c r="N7" s="85">
+      <c r="M7" s="60">
+        <v>0</v>
+      </c>
+      <c r="N7" s="84">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O7" s="85">
+      <c r="O7" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P7" s="85">
+      <c r="P7" s="84">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="85">
+      <c r="Q7" s="84">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R7" s="107"/>
+      <c r="R7" s="108"/>
       <c r="S7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="T7" s="13">
         <f>AO12</f>
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="U7" s="43">
         <f>AP12</f>
-        <v>132</v>
-      </c>
-      <c r="W7" s="101"/>
+        <v>40</v>
+      </c>
+      <c r="W7" s="102"/>
       <c r="X7" s="28" t="s">
         <v>53</v>
       </c>
       <c r="Y7" s="31">
-        <f>AC13</f>
-        <v>6.6000000000000003E-2</v>
+        <f t="shared" si="14"/>
+        <v>0.8</v>
       </c>
       <c r="Z7" s="31">
-        <f>AD13</f>
-        <v>0.94696969696969702</v>
-      </c>
-      <c r="AB7" s="77" t="s">
+        <f t="shared" si="14"/>
+        <v>3.75</v>
+      </c>
+      <c r="AB7" s="76" t="s">
         <v>25</v>
       </c>
       <c r="AC7" s="15">
-        <f>T7</f>
-        <v>125</v>
-      </c>
-      <c r="AD7" s="78">
-        <f>U7</f>
-        <v>132</v>
+        <f t="shared" si="15"/>
+        <v>50</v>
+      </c>
+      <c r="AD7" s="77">
+        <f t="shared" si="15"/>
+        <v>40</v>
       </c>
       <c r="AE7" s="18"/>
       <c r="AF7" s="18"/>
@@ -2865,49 +2879,49 @@
         <f t="shared" si="3"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="59">
         <f t="shared" si="9"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H8" s="61">
-        <v>0</v>
-      </c>
-      <c r="I8" s="61">
+      <c r="H8" s="60">
+        <v>0</v>
+      </c>
+      <c r="I8" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J8" s="61">
+      <c r="J8" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="61">
+      <c r="K8" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M8" s="61">
-        <v>0</v>
-      </c>
-      <c r="N8" s="85">
+      <c r="M8" s="60">
+        <v>0</v>
+      </c>
+      <c r="N8" s="84">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O8" s="85">
+      <c r="O8" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P8" s="85">
+      <c r="P8" s="84">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="85">
+      <c r="Q8" s="84">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R8" s="108" t="s">
+      <c r="R8" s="109" t="s">
         <v>31</v>
       </c>
       <c r="S8" s="11" t="s">
@@ -2915,36 +2929,36 @@
       </c>
       <c r="T8" s="11">
         <f>AM24</f>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="U8" s="44">
         <f>AN24</f>
-        <v>198</v>
-      </c>
-      <c r="W8" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="W8" s="103" t="s">
         <v>31</v>
       </c>
       <c r="X8" s="27" t="s">
         <v>52</v>
       </c>
       <c r="Y8" s="30">
-        <f>AC14</f>
-        <v>0.56818181818181823</v>
+        <f t="shared" si="14"/>
+        <v>0.5</v>
       </c>
       <c r="Z8" s="30">
-        <f>AD14</f>
-        <v>2.64</v>
-      </c>
-      <c r="AB8" s="86" t="s">
+        <f t="shared" si="14"/>
+        <v>2.4</v>
+      </c>
+      <c r="AB8" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="AC8" s="87">
-        <f>T8</f>
-        <v>75</v>
-      </c>
-      <c r="AD8" s="88">
-        <f>U8</f>
-        <v>198</v>
+      <c r="AC8" s="86">
+        <f t="shared" si="15"/>
+        <v>50</v>
+      </c>
+      <c r="AD8" s="87">
+        <f t="shared" si="15"/>
+        <v>120</v>
       </c>
       <c r="AE8" s="18"/>
       <c r="AF8" s="18"/>
@@ -2991,82 +3005,82 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="59">
         <f t="shared" si="9"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H9" s="61">
-        <v>0</v>
-      </c>
-      <c r="I9" s="61">
+      <c r="H9" s="60">
+        <v>0</v>
+      </c>
+      <c r="I9" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J9" s="61">
+      <c r="J9" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="61">
+      <c r="K9" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L9" s="61">
+      <c r="L9" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M9" s="61">
-        <v>0</v>
-      </c>
-      <c r="N9" s="85">
+      <c r="M9" s="60">
+        <v>0</v>
+      </c>
+      <c r="N9" s="84">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9" s="85">
+      <c r="O9" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P9" s="85">
+      <c r="P9" s="84">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="85">
+      <c r="Q9" s="84">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R9" s="108"/>
+      <c r="R9" s="109"/>
       <c r="S9" s="10" t="s">
         <v>29</v>
       </c>
       <c r="T9" s="10">
         <f>AO24</f>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="U9" s="40">
         <f>AP24</f>
-        <v>132</v>
-      </c>
-      <c r="W9" s="103"/>
+        <v>100</v>
+      </c>
+      <c r="W9" s="104"/>
       <c r="X9" s="28" t="s">
         <v>53</v>
       </c>
       <c r="Y9" s="31">
-        <f>AC15</f>
-        <v>2.64</v>
+        <f t="shared" si="14"/>
+        <v>2.4</v>
       </c>
       <c r="Z9" s="31">
-        <f>AD15</f>
-        <v>0.56818181818181823</v>
-      </c>
-      <c r="AB9" s="89" t="s">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB9" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="AC9" s="90">
-        <f>T9</f>
-        <v>75</v>
-      </c>
-      <c r="AD9" s="91">
-        <f>U9</f>
-        <v>132</v>
+      <c r="AC9" s="89">
+        <f t="shared" si="15"/>
+        <v>50</v>
+      </c>
+      <c r="AD9" s="90">
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
       <c r="AE9" s="18"/>
       <c r="AF9" s="18"/>
@@ -3113,49 +3127,49 @@
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="59">
         <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
-      <c r="H10" s="61">
-        <v>25</v>
-      </c>
-      <c r="I10" s="61">
+      <c r="H10" s="60">
+        <v>0</v>
+      </c>
+      <c r="I10" s="60">
         <f t="shared" si="4"/>
-        <v>250</v>
-      </c>
-      <c r="J10" s="61">
+        <v>0</v>
+      </c>
+      <c r="J10" s="60">
         <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="K10" s="61">
+        <v>0</v>
+      </c>
+      <c r="K10" s="60">
         <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="L10" s="61">
+        <v>0</v>
+      </c>
+      <c r="L10" s="60">
         <f t="shared" si="11"/>
-        <v>75</v>
-      </c>
-      <c r="M10" s="61">
-        <v>0</v>
-      </c>
-      <c r="N10" s="85">
+        <v>0</v>
+      </c>
+      <c r="M10" s="60">
+        <v>0</v>
+      </c>
+      <c r="N10" s="84">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O10" s="85">
+      <c r="O10" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P10" s="85">
+      <c r="P10" s="84">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="85">
+      <c r="Q10" s="84">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R10" s="106" t="s">
+      <c r="R10" s="107" t="s">
         <v>32</v>
       </c>
       <c r="S10" s="12" t="s">
@@ -3163,36 +3177,36 @@
       </c>
       <c r="T10" s="12">
         <f>AM36</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U10" s="42">
         <f>AN36</f>
-        <v>33</v>
-      </c>
-      <c r="W10" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="101" t="s">
         <v>32</v>
       </c>
       <c r="X10" s="27" t="s">
         <v>52</v>
       </c>
       <c r="Y10" s="30">
-        <f>AC16</f>
-        <v>1.5151515151515151</v>
+        <f t="shared" si="14"/>
+        <v>5</v>
       </c>
       <c r="Z10" s="30">
-        <f>AD16</f>
-        <v>0.22</v>
-      </c>
-      <c r="AB10" s="77" t="s">
+        <f t="shared" si="14"/>
+        <v>0.16</v>
+      </c>
+      <c r="AB10" s="76" t="s">
         <v>62</v>
       </c>
       <c r="AC10" s="15">
-        <f>T10</f>
-        <v>200</v>
-      </c>
-      <c r="AD10" s="78">
-        <f>U10</f>
-        <v>33</v>
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="AD10" s="77">
+        <f t="shared" si="15"/>
+        <v>8</v>
       </c>
       <c r="AE10" s="18"/>
       <c r="AF10" s="18"/>
@@ -3204,7 +3218,7 @@
       <c r="AL10" s="18"/>
       <c r="AM10" s="18">
         <f t="shared" si="7"/>
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="18">
         <f t="shared" si="8"/>
@@ -3212,7 +3226,7 @@
       </c>
       <c r="AO10" s="18">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="18">
         <f t="shared" si="2"/>
@@ -3239,82 +3253,82 @@
         <f t="shared" si="3"/>
         <v>0.08</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="59">
         <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
-      <c r="H11" s="61">
-        <v>0</v>
-      </c>
-      <c r="I11" s="61">
+      <c r="H11" s="60">
+        <v>0</v>
+      </c>
+      <c r="I11" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J11" s="61">
+      <c r="J11" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="61">
+      <c r="K11" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L11" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M11" s="61">
-        <v>0</v>
-      </c>
-      <c r="N11" s="85">
+      <c r="M11" s="60">
+        <v>4</v>
+      </c>
+      <c r="N11" s="84">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="85">
+        <v>8</v>
+      </c>
+      <c r="O11" s="84">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="85">
+        <v>8</v>
+      </c>
+      <c r="P11" s="84">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="85">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="84">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="109"/>
+        <v>80</v>
+      </c>
+      <c r="R11" s="110"/>
       <c r="S11" s="45" t="s">
         <v>29</v>
       </c>
       <c r="T11" s="45">
         <f>AO36</f>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="U11" s="46">
         <f>AP36</f>
-        <v>132</v>
-      </c>
-      <c r="W11" s="101"/>
+        <v>20</v>
+      </c>
+      <c r="W11" s="102"/>
       <c r="X11" s="32" t="s">
         <v>53</v>
       </c>
       <c r="Y11" s="33">
-        <f>AC17</f>
-        <v>0.22</v>
+        <f t="shared" si="14"/>
+        <v>0.16</v>
       </c>
       <c r="Z11" s="33">
-        <f>AD17</f>
-        <v>1.5151515151515151</v>
-      </c>
-      <c r="AB11" s="77" t="s">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="AB11" s="76" t="s">
         <v>63</v>
       </c>
       <c r="AC11" s="15">
-        <f>T11</f>
-        <v>150</v>
-      </c>
-      <c r="AD11" s="78">
-        <f>U11</f>
-        <v>132</v>
+        <f t="shared" si="15"/>
+        <v>50</v>
+      </c>
+      <c r="AD11" s="77">
+        <f t="shared" si="15"/>
+        <v>20</v>
       </c>
       <c r="AE11" s="18"/>
       <c r="AF11" s="18"/>
@@ -3330,7 +3344,7 @@
       </c>
       <c r="AN11" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO11" s="18">
         <f t="shared" si="1"/>
@@ -3338,7 +3352,7 @@
       </c>
       <c r="AP11" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3373,34 +3387,34 @@
       <c r="O12" s="18"/>
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
-      <c r="R12" s="92" t="s">
+      <c r="R12" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="94"/>
-      <c r="W12" s="104" t="s">
+      <c r="S12" s="96"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="97"/>
+      <c r="W12" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="X12" s="105"/>
+      <c r="X12" s="106"/>
       <c r="Y12" s="34">
         <f>SUM(AC12,AC14,AC16)</f>
-        <v>3.0303030303030303</v>
+        <v>9.25</v>
       </c>
       <c r="Z12" s="34">
         <f>SUM(AD12,AD14,AD16)</f>
-        <v>2.9260000000000002</v>
-      </c>
-      <c r="AB12" s="79" t="s">
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="AB12" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="AC12" s="67">
+      <c r="AC12" s="66">
         <f>AC6/AD7</f>
-        <v>0.94696969696969702</v>
-      </c>
-      <c r="AD12" s="66">
+        <v>3.75</v>
+      </c>
+      <c r="AD12" s="65">
         <f>AD6/AC7</f>
-        <v>6.6000000000000003E-2</v>
+        <v>0.8</v>
       </c>
       <c r="AE12" s="18"/>
       <c r="AF12" s="18"/>
@@ -3409,24 +3423,24 @@
       <c r="AI12" s="16"/>
       <c r="AJ12" s="16"/>
       <c r="AK12" s="16"/>
-      <c r="AL12" s="62" t="s">
+      <c r="AL12" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AM12" s="62">
+      <c r="AM12" s="61">
         <f>SUM(AM2:AM11)</f>
-        <v>125</v>
-      </c>
-      <c r="AN12" s="62">
+        <v>150</v>
+      </c>
+      <c r="AN12" s="61">
         <f>SUM(AN2:AN11)</f>
-        <v>8.25</v>
-      </c>
-      <c r="AO12" s="62">
+        <v>40</v>
+      </c>
+      <c r="AO12" s="61">
         <f>SUM(AO2:AO11)</f>
-        <v>125</v>
-      </c>
-      <c r="AP12" s="62">
+        <v>50</v>
+      </c>
+      <c r="AP12" s="61">
         <f>SUM(AP2:AP11)</f>
-        <v>132</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3454,11 +3468,11 @@
       <c r="H13" s="16"/>
       <c r="I13" s="18">
         <f>SUM(I2:I11)</f>
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="J13" s="18">
         <f>SUM(J2:J11)</f>
-        <v>83.333333333333329</v>
+        <v>200</v>
       </c>
       <c r="K13" s="18">
         <f>SUM(K2:K11)</f>
@@ -3466,51 +3480,51 @@
       </c>
       <c r="L13" s="18">
         <f>SUM(L2:L11)</f>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="M13" s="18"/>
       <c r="N13" s="18">
         <f>SUM(N2:N11)</f>
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="O13" s="18">
         <f>SUM(O2:O11)</f>
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="P13" s="18">
         <f>SUM(P2:P11)</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="18">
         <f>SUM(Q2:Q11)</f>
-        <v>165</v>
-      </c>
-      <c r="R13" s="95"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="97"/>
-      <c r="W13" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" s="98"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="100"/>
+      <c r="W13" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="X13" s="105"/>
+      <c r="X13" s="106"/>
       <c r="Y13" s="34">
         <f>SUM(AC13,AC15,AC17)</f>
-        <v>2.9260000000000002</v>
+        <v>3.3600000000000003</v>
       </c>
       <c r="Z13" s="34">
         <f>SUM(AD13,AD15,AD17)</f>
-        <v>3.0303030303030303</v>
-      </c>
-      <c r="AB13" s="79" t="s">
+        <v>9.25</v>
+      </c>
+      <c r="AB13" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="AC13" s="68">
+      <c r="AC13" s="67">
         <f>AD6/AC7</f>
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="AD13" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="AD13" s="68">
         <f>AC6/AD7</f>
-        <v>0.94696969696969702</v>
+        <v>3.75</v>
       </c>
       <c r="AE13" s="18"/>
       <c r="AF13" s="18"/>
@@ -3574,16 +3588,16 @@
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
-      <c r="AB14" s="80" t="s">
+      <c r="AB14" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="AC14" s="67">
+      <c r="AC14" s="66">
         <f>AC8/AD9</f>
-        <v>0.56818181818181823</v>
-      </c>
-      <c r="AD14" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="AD14" s="65">
         <f>AD8/AC9</f>
-        <v>2.64</v>
+        <v>2.4</v>
       </c>
       <c r="AE14" s="18"/>
       <c r="AF14" s="18"/>
@@ -3595,18 +3609,18 @@
       <c r="AL14" s="18"/>
       <c r="AM14" s="18">
         <f>H2*$C13</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AN14" s="18">
-        <f t="shared" ref="AN14:AN23" si="14">M2*$C13</f>
+        <f t="shared" ref="AN14:AN23" si="16">M2*$C13</f>
         <v>0</v>
       </c>
       <c r="AO14" s="18">
-        <f t="shared" ref="AO14:AO23" si="15">H2*$F13</f>
-        <v>0</v>
+        <f t="shared" ref="AO14:AO23" si="17">H2*$F13</f>
+        <v>50</v>
       </c>
       <c r="AP14" s="18">
-        <f t="shared" ref="AP14:AP23" si="16">M2*$F13</f>
+        <f t="shared" ref="AP14:AP23" si="18">M2*$F13</f>
         <v>0</v>
       </c>
     </row>
@@ -3651,16 +3665,16 @@
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
       <c r="Z15" s="16"/>
-      <c r="AB15" s="81" t="s">
+      <c r="AB15" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="AC15" s="68">
+      <c r="AC15" s="67">
         <f>AD8/AC9</f>
-        <v>2.64</v>
-      </c>
-      <c r="AD15" s="69">
+        <v>2.4</v>
+      </c>
+      <c r="AD15" s="68">
         <f>AC8/AD9</f>
-        <v>0.56818181818181823</v>
+        <v>0.5</v>
       </c>
       <c r="AE15" s="18"/>
       <c r="AF15" s="18"/>
@@ -3671,19 +3685,19 @@
       <c r="AK15" s="16"/>
       <c r="AL15" s="18"/>
       <c r="AM15" s="18">
-        <f t="shared" ref="AM15:AM23" si="17">H3*C14</f>
+        <f t="shared" ref="AM15:AM23" si="19">H3*C14</f>
         <v>0</v>
       </c>
       <c r="AN15" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AO15" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AP15" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3728,16 +3742,16 @@
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
       <c r="Z16" s="16"/>
-      <c r="AB16" s="80" t="s">
+      <c r="AB16" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="AC16" s="67">
+      <c r="AC16" s="66">
         <f>AC10/AD11</f>
-        <v>1.5151515151515151</v>
-      </c>
-      <c r="AD16" s="66">
+        <v>5</v>
+      </c>
+      <c r="AD16" s="65">
         <f>AD10/AC11</f>
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="AE16" s="18"/>
       <c r="AF16" s="18"/>
@@ -3748,19 +3762,19 @@
       <c r="AK16" s="16"/>
       <c r="AL16" s="18"/>
       <c r="AM16" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AO16" s="18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="AP16" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3797,25 +3811,31 @@
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
+      <c r="S17" s="18">
+        <f>AC2*0.25</f>
+        <v>12.5</v>
+      </c>
+      <c r="T17" s="18">
+        <f>AD2*0.25</f>
+        <v>20</v>
+      </c>
       <c r="U17" s="18"/>
       <c r="V17" s="18"/>
       <c r="W17" s="18"/>
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
       <c r="Z17" s="16"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="82" t="s">
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="AC17" s="68">
+      <c r="AC17" s="67">
         <f>AD10/AC11</f>
-        <v>0.22</v>
-      </c>
-      <c r="AD17" s="69">
+        <v>0.16</v>
+      </c>
+      <c r="AD17" s="68">
         <f>AC10/AD11</f>
-        <v>1.5151515151515151</v>
+        <v>5</v>
       </c>
       <c r="AE17" s="18"/>
       <c r="AF17" s="18"/>
@@ -3826,20 +3846,20 @@
       <c r="AK17" s="16"/>
       <c r="AL17" s="18"/>
       <c r="AM17" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AN17" s="18">
-        <f t="shared" si="14"/>
-        <v>198</v>
-      </c>
-      <c r="AO17" s="18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="AP17" s="18">
-        <f t="shared" si="16"/>
-        <v>132</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3883,17 +3903,17 @@
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
       <c r="Z18" s="16"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="64" t="s">
+      <c r="AA18" s="64"/>
+      <c r="AB18" s="63" t="s">
         <v>64</v>
       </c>
       <c r="AC18" s="34">
         <f>SUM(AC12,AC14,AC16)</f>
-        <v>3.0303030303030303</v>
+        <v>9.25</v>
       </c>
       <c r="AD18" s="34">
         <f>SUM(AD12,AD14,AD16)</f>
-        <v>2.9260000000000002</v>
+        <v>3.3600000000000003</v>
       </c>
       <c r="AE18" s="18"/>
       <c r="AF18" s="18"/>
@@ -3904,19 +3924,19 @@
       <c r="AK18" s="16"/>
       <c r="AL18" s="18"/>
       <c r="AM18" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AN18" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AO18" s="18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="AP18" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3962,16 +3982,16 @@
       <c r="Y19" s="18"/>
       <c r="Z19" s="16"/>
       <c r="AA19" s="16"/>
-      <c r="AB19" s="64" t="s">
+      <c r="AB19" s="63" t="s">
         <v>65</v>
       </c>
       <c r="AC19" s="34">
         <f>SUM(AC13,AC15,AC17)</f>
-        <v>2.9260000000000002</v>
+        <v>3.3600000000000003</v>
       </c>
       <c r="AD19" s="34">
         <f>SUM(AD13,AD15,AD17)</f>
-        <v>3.0303030303030303</v>
+        <v>9.25</v>
       </c>
       <c r="AE19" s="18"/>
       <c r="AF19" s="18"/>
@@ -3982,19 +4002,19 @@
       <c r="AK19" s="16"/>
       <c r="AL19" s="18"/>
       <c r="AM19" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AN19" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AO19" s="18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="AP19" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4052,19 +4072,19 @@
       <c r="AK20" s="16"/>
       <c r="AL20" s="18"/>
       <c r="AM20" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AN20" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AO20" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AN20" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AO20" s="18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="AP20" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4122,19 +4142,19 @@
       <c r="AK21" s="16"/>
       <c r="AL21" s="18"/>
       <c r="AM21" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AN21" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AO21" s="18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="AP21" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4192,19 +4212,19 @@
       <c r="AK22" s="16"/>
       <c r="AL22" s="18"/>
       <c r="AM22" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AN22" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AO22" s="18">
         <f t="shared" si="17"/>
-        <v>75</v>
-      </c>
-      <c r="AN22" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AO22" s="18">
-        <f t="shared" si="15"/>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AP22" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4218,46 +4238,49 @@
       <c r="AF23" s="18"/>
       <c r="AL23" s="18"/>
       <c r="AM23" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AN23" s="18">
+        <f t="shared" si="16"/>
+        <v>120</v>
+      </c>
+      <c r="AO23" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AN23" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AO23" s="18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="AP23" s="18">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:42" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AE24" s="18"/>
       <c r="AF24" s="18"/>
-      <c r="AL24" s="62" t="s">
+      <c r="AL24" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AM24" s="63">
+      <c r="AM24" s="62">
         <f>SUM(AM14:AM23)</f>
-        <v>75</v>
-      </c>
-      <c r="AN24" s="63">
+        <v>50</v>
+      </c>
+      <c r="AN24" s="62">
         <f>SUM(AN14:AN23)</f>
-        <v>198</v>
-      </c>
-      <c r="AO24" s="63">
+        <v>120</v>
+      </c>
+      <c r="AO24" s="62">
         <f>SUM(AO14:AO23)</f>
-        <v>75</v>
-      </c>
-      <c r="AP24" s="63">
+        <v>50</v>
+      </c>
+      <c r="AP24" s="62">
         <f>SUM(AP14:AP23)</f>
-        <v>132</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:42" s="16" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="U25" s="113"/>
+      <c r="V25" s="113"/>
+      <c r="W25" s="113"/>
       <c r="AE25" s="18"/>
       <c r="AF25" s="18"/>
       <c r="AL25" s="18"/>
@@ -4275,23 +4298,24 @@
       </c>
     </row>
     <row r="26" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U26" s="113"/>
       <c r="AE26" s="18"/>
       <c r="AF26" s="18"/>
       <c r="AL26" s="18"/>
       <c r="AM26" s="18">
-        <f t="shared" ref="AM26:AM35" si="18">H2*$D13</f>
-        <v>0</v>
+        <f t="shared" ref="AM26:AM35" si="20">H2*$D13</f>
+        <v>100</v>
       </c>
       <c r="AN26" s="18">
-        <f t="shared" ref="AN26:AN35" si="19">M2*$D13</f>
+        <f t="shared" ref="AN26:AN35" si="21">M2*$D13</f>
         <v>0</v>
       </c>
       <c r="AO26" s="18">
-        <f t="shared" ref="AO26:AO35" si="20">H2*$G13</f>
-        <v>0</v>
+        <f t="shared" ref="AO26:AO35" si="22">H2*$G13</f>
+        <v>50</v>
       </c>
       <c r="AP26" s="18">
-        <f t="shared" ref="AP26:AP35" si="21">M2*$G13</f>
+        <f t="shared" ref="AP26:AP35" si="23">M2*$G13</f>
         <v>0</v>
       </c>
     </row>
@@ -4300,19 +4324,19 @@
       <c r="AF27" s="18"/>
       <c r="AL27" s="18"/>
       <c r="AM27" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AN27" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AO27" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AP27" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4321,19 +4345,19 @@
       <c r="AF28" s="18"/>
       <c r="AL28" s="18"/>
       <c r="AM28" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AN28" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AO28" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AP28" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4342,20 +4366,20 @@
       <c r="AF29" s="18"/>
       <c r="AL29" s="18"/>
       <c r="AM29" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AN29" s="18">
-        <f t="shared" si="19"/>
-        <v>33</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="AO29" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AP29" s="18">
-        <f t="shared" si="21"/>
-        <v>132</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -4363,19 +4387,19 @@
       <c r="AF30" s="18"/>
       <c r="AL30" s="18"/>
       <c r="AM30" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AN30" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AO30" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AP30" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4419,19 +4443,19 @@
       <c r="AK31" s="16"/>
       <c r="AL31" s="18"/>
       <c r="AM31" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AN31" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AO31" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AP31" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4475,19 +4499,19 @@
       <c r="AK32" s="16"/>
       <c r="AL32" s="18"/>
       <c r="AM32" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AN32" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AO32" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AP32" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4531,19 +4555,19 @@
       <c r="AK33" s="16"/>
       <c r="AL33" s="18"/>
       <c r="AM33" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AN33" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AO33" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AP33" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4587,19 +4611,19 @@
       <c r="AK34" s="16"/>
       <c r="AL34" s="18"/>
       <c r="AM34" s="18">
-        <f t="shared" si="18"/>
-        <v>200</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="AN34" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AO34" s="18">
-        <f t="shared" si="20"/>
-        <v>150</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="AP34" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4643,20 +4667,20 @@
       <c r="AK35" s="16"/>
       <c r="AL35" s="18"/>
       <c r="AM35" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AN35" s="18">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>8</v>
       </c>
       <c r="AO35" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AP35" s="18">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4697,24 +4721,24 @@
       <c r="AI36" s="16"/>
       <c r="AJ36" s="16"/>
       <c r="AK36" s="16"/>
-      <c r="AL36" s="62" t="s">
+      <c r="AL36" s="61" t="s">
         <v>68</v>
       </c>
       <c r="AM36" s="20">
         <f>SUM(AM26:AM35)</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AN36" s="20">
         <f>SUM(AN26:AN35)</f>
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="AO36" s="20">
         <f>SUM(AO26:AO35)</f>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="AP36" s="20">
         <f>SUM(AP26:AP35)</f>
-        <v>132</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:42" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -10495,6 +10519,66 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="T6:U6">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7:U7">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8:U8">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T9:U9">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T10:U10">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T11:U11">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -10506,68 +10590,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T7:U7">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T8:U8">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T9:U9">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T10:U10">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T11:U11">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Z8">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10579,7 +10603,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9:Z9">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10591,7 +10615,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z6">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10603,7 +10627,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y7:Z7">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10615,7 +10639,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10:Z10">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10627,6 +10651,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11:Z11">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y13:Z13">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -10638,20 +10674,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y13:Z13">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Y12:Z12">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10663,7 +10687,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC18:AD18">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10675,7 +10699,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC19:AD19">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10687,7 +10711,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC19:AD19">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10698,6 +10722,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <color theme="1" tint="0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <color theme="1" tint="0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
